--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="통합 문서1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="skill" sheetId="1" r:id="rId1"/>
+    <sheet name="userBase" sheetId="3" r:id="rId2"/>
+    <sheet name="userLevel" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +117,94 @@
   </si>
   <si>
     <t>SelfSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseMaxSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseCastSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseDamageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHPRegenRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHPRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseMPRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseMPRegenRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseAttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusAmount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusAmount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusAmount3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseRotateSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -853,10 +943,673 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>600</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>850</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1900</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2350</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>108</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2850</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>109</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3400</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4650</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5350</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>6100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>6900</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>115</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7750</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>116</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>8650</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>117</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>118</v>
+      </c>
+      <c r="J22">
+        <v>950</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="2"/>
@@ -1049,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1066,7 @@
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1092,10 +1092,10 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1128,11 +1128,8 @@
       <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1154,11 +1151,8 @@
       <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1180,11 +1174,8 @@
       <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="J6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1206,11 +1197,8 @@
       <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="J7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1232,11 +1220,8 @@
       <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1258,11 +1243,8 @@
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1284,11 +1266,8 @@
       <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1310,11 +1289,8 @@
       <c r="I11" t="s">
         <v>44</v>
       </c>
-      <c r="J11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1336,11 +1312,8 @@
       <c r="I12" t="s">
         <v>44</v>
       </c>
-      <c r="J12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1362,11 +1335,8 @@
       <c r="I13" t="s">
         <v>44</v>
       </c>
-      <c r="J13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1388,11 +1358,8 @@
       <c r="I14" t="s">
         <v>44</v>
       </c>
-      <c r="J14">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1414,11 +1381,8 @@
       <c r="I15" t="s">
         <v>44</v>
       </c>
-      <c r="J15">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1440,11 +1404,8 @@
       <c r="I16" t="s">
         <v>44</v>
       </c>
-      <c r="J16">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1466,11 +1427,8 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="J17">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1492,11 +1450,8 @@
       <c r="I18" t="s">
         <v>44</v>
       </c>
-      <c r="J18">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1518,11 +1473,8 @@
       <c r="I19" t="s">
         <v>44</v>
       </c>
-      <c r="J19">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1544,11 +1496,8 @@
       <c r="I20" t="s">
         <v>44</v>
       </c>
-      <c r="J20">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1570,11 +1519,8 @@
       <c r="I21" t="s">
         <v>44</v>
       </c>
-      <c r="J21">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1592,9 +1538,6 @@
       </c>
       <c r="F22">
         <v>118</v>
-      </c>
-      <c r="J22">
-        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="userBase" sheetId="3" r:id="rId2"/>
     <sheet name="userLevel" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="buff" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type == projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>client 전용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effectLastTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +198,113 @@
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToSelf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToTarget1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToSelf2</t>
+  </si>
+  <si>
+    <t>buffToSelf3</t>
+  </si>
+  <si>
+    <t>buffToTarget2</t>
+  </si>
+  <si>
+    <t>buffToTarget3</t>
+  </si>
+  <si>
+    <t>timeDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPermanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumeMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageUP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageUP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageUP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfSkill2</t>
+  </si>
+  <si>
+    <t>SelfSkill3</t>
+  </si>
+  <si>
+    <t>SelfSkill4</t>
+  </si>
+  <si>
+    <t>SelfSkill5</t>
+  </si>
+  <si>
+    <t>SelfSkill6</t>
   </si>
 </sst>
 </file>
@@ -251,12 +350,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,38 +655,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A2:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -613,22 +703,46 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -636,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>5000</v>
@@ -654,19 +768,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -674,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>5000</v>
@@ -692,19 +812,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -712,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>5000</v>
@@ -727,22 +853,28 @@
         <v>500</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>30</v>
       </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -750,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>5000</v>
@@ -765,22 +897,28 @@
         <v>1000</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>40</v>
       </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -788,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>5000</v>
@@ -803,22 +941,28 @@
         <v>1500</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>50</v>
       </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -826,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>5000</v>
@@ -841,22 +985,28 @@
         <v>300</v>
       </c>
       <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
         <v>50</v>
       </c>
-      <c r="I8">
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
         <v>30</v>
       </c>
-      <c r="J8">
+      <c r="R8">
         <v>5000</v>
       </c>
-      <c r="K8">
+      <c r="S8">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -864,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>5000</v>
@@ -879,22 +1029,28 @@
         <v>300</v>
       </c>
       <c r="H9">
+        <v>150</v>
+      </c>
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="I9">
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="J9">
+      <c r="R9">
         <v>10000</v>
       </c>
-      <c r="K9">
+      <c r="S9">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -902,13 +1058,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E10">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -917,25 +1073,266 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>500</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>500</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -966,40 +1363,40 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1051,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,31 +1465,31 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1103,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1114,19 +1511,19 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1137,19 +1534,19 @@
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1160,19 +1557,19 @@
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1183,19 +1580,19 @@
         <v>600</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1206,19 +1603,19 @@
         <v>850</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1229,19 +1626,19 @@
         <v>1150</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1252,19 +1649,19 @@
         <v>1500</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1275,19 +1672,19 @@
         <v>1900</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1298,19 +1695,19 @@
         <v>2350</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1321,19 +1718,19 @@
         <v>2850</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1344,19 +1741,19 @@
         <v>3400</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1367,19 +1764,19 @@
         <v>4000</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1390,19 +1787,19 @@
         <v>4650</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1413,19 +1810,19 @@
         <v>5350</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1436,19 +1833,19 @@
         <v>6100</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1459,19 +1856,19 @@
         <v>6900</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1482,19 +1879,19 @@
         <v>7750</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1505,19 +1902,19 @@
         <v>8650</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1528,13 +1925,13 @@
         <v>-1</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22">
         <v>118</v>
@@ -1548,6 +1945,215 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>60000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>60000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>60000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>60000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>60000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>-30</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1559,39 +2165,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="userBase" sheetId="3" r:id="rId2"/>
     <sheet name="userLevel" sheetId="2" r:id="rId3"/>
     <sheet name="buff" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="ref" sheetId="4" r:id="rId5"/>
+    <sheet name="output" sheetId="6" r:id="rId6"/>
+    <sheet name="memo" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +74,6 @@
     <t xml:space="preserve">  "SKILL_TYPE_SELF" : 3</t>
   </si>
   <si>
-    <t>\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baseDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buffType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +295,14 @@
   </si>
   <si>
     <t>SelfSkill6</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -655,22 +653,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T15"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="11.375" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="13.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.75" bestFit="1" customWidth="1"/>
@@ -680,15 +682,38 @@
     <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -703,28 +728,28 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s">
         <v>7</v>
@@ -738,19 +763,16 @@
       <c r="S2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>5000</v>
@@ -782,19 +804,16 @@
       <c r="S3">
         <v>10</v>
       </c>
-      <c r="T3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>5000</v>
@@ -826,19 +845,16 @@
       <c r="S4">
         <v>20</v>
       </c>
-      <c r="T4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>5000</v>
@@ -870,19 +886,16 @@
       <c r="S5">
         <v>30</v>
       </c>
-      <c r="T5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
         <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6">
         <v>5000</v>
@@ -914,19 +927,16 @@
       <c r="S6">
         <v>40</v>
       </c>
-      <c r="T6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
         <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
       <c r="D7">
         <v>5000</v>
@@ -958,19 +968,16 @@
       <c r="S7">
         <v>50</v>
       </c>
-      <c r="T7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8">
         <v>5000</v>
@@ -1002,19 +1009,16 @@
       <c r="S8">
         <v>60</v>
       </c>
-      <c r="T8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
       <c r="D9">
         <v>5000</v>
@@ -1046,19 +1050,16 @@
       <c r="S9">
         <v>70</v>
       </c>
-      <c r="T9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
         <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -1093,19 +1094,16 @@
       <c r="S10">
         <v>10</v>
       </c>
-      <c r="T10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
         <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -1140,19 +1138,16 @@
       <c r="S11">
         <v>10</v>
       </c>
-      <c r="T11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
         <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
       </c>
       <c r="D12">
         <v>1000</v>
@@ -1187,19 +1182,16 @@
       <c r="S12">
         <v>10</v>
       </c>
-      <c r="T12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
         <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -1234,19 +1226,16 @@
       <c r="S13">
         <v>10</v>
       </c>
-      <c r="T13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
         <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -1281,19 +1270,16 @@
       <c r="S14">
         <v>10</v>
       </c>
-      <c r="T14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
         <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -1327,9 +1313,6 @@
       </c>
       <c r="S15">
         <v>10</v>
-      </c>
-      <c r="T15" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1340,10 +1323,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A2:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1363,40 +1349,40 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1446,10 +1432,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I22"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1463,47 +1452,41 @@
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1511,22 +1494,19 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1534,22 +1514,19 @@
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>101</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1557,22 +1534,19 @@
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>102</v>
       </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1580,22 +1554,19 @@
         <v>600</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>103</v>
       </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1603,22 +1574,19 @@
         <v>850</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>104</v>
       </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1626,22 +1594,19 @@
         <v>1150</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>105</v>
       </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1649,22 +1614,19 @@
         <v>1500</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>106</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1672,22 +1634,19 @@
         <v>1900</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>107</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1695,22 +1654,19 @@
         <v>2350</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>108</v>
       </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1718,22 +1674,19 @@
         <v>2850</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>109</v>
       </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1741,22 +1694,19 @@
         <v>3400</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>110</v>
       </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1764,22 +1714,19 @@
         <v>4000</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1787,22 +1734,19 @@
         <v>4650</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>112</v>
       </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1810,22 +1754,19 @@
         <v>5350</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>113</v>
       </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1833,22 +1774,19 @@
         <v>6100</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>114</v>
       </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1856,22 +1794,19 @@
         <v>6900</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19">
         <v>115</v>
       </c>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1879,22 +1814,19 @@
         <v>7750</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>116</v>
       </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1902,22 +1834,19 @@
         <v>8650</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>117</v>
       </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1925,13 +1854,13 @@
         <v>-1</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>118</v>
@@ -1946,10 +1875,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H8"/>
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1964,38 +1896,35 @@
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2004,7 +1933,7 @@
         <v>60000</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -2012,16 +1941,13 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2030,7 +1956,7 @@
         <v>60000</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -2038,16 +1964,13 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2056,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2064,16 +1987,13 @@
       <c r="G5">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2082,7 +2002,7 @@
         <v>60000</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2090,16 +2010,13 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2108,7 +2025,7 @@
         <v>60000</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -2116,16 +2033,13 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2134,16 +2048,13 @@
         <v>60000</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>-30</v>
       </c>
       <c r="G8">
         <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2155,10 +2066,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2187,4 +2101,38 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,122 @@
   </si>
   <si>
     <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_TICK_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTickTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_TICK_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_HEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_MOVE_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_CAST_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_TRAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_SILENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TELEPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_DEFENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_DEFENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF_EXPLOSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPEL_SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPEL_TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_MANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +772,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,17 +788,16 @@
     <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="10" max="21" width="6.375" customWidth="1"/>
+    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>72</v>
       </c>
@@ -704,8 +819,26 @@
       <c r="O1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -752,19 +885,37 @@
         <v>51</v>
       </c>
       <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" t="s">
+      <c r="X2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -792,20 +943,20 @@
       <c r="I3">
         <v>50</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -833,20 +984,20 @@
       <c r="I4">
         <v>100</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -874,20 +1025,20 @@
       <c r="I5">
         <v>200</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -915,20 +1066,20 @@
       <c r="I6">
         <v>200</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -956,20 +1107,20 @@
       <c r="I7">
         <v>200</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -997,20 +1148,20 @@
       <c r="I8">
         <v>50</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>50</v>
       </c>
-      <c r="Q8">
+      <c r="W8">
         <v>30</v>
       </c>
-      <c r="R8">
+      <c r="X8">
         <v>5000</v>
       </c>
-      <c r="S8">
+      <c r="Y8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1038,20 +1189,20 @@
       <c r="I9">
         <v>100</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>100</v>
       </c>
-      <c r="Q9">
+      <c r="W9">
         <v>15</v>
       </c>
-      <c r="R9">
+      <c r="X9">
         <v>10000</v>
       </c>
-      <c r="S9">
+      <c r="Y9">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1082,20 +1233,20 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1126,20 +1277,20 @@
       <c r="J11">
         <v>2</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1170,20 +1321,20 @@
       <c r="J12">
         <v>3</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1214,20 +1365,20 @@
       <c r="J13">
         <v>4</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1258,20 +1409,20 @@
       <c r="J14">
         <v>5</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1302,16 +1453,16 @@
       <c r="J15">
         <v>6</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>10</v>
       </c>
     </row>
@@ -1878,10 +2029,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1891,12 +2042,13 @@
     <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1913,13 +2065,16 @@
         <v>64</v>
       </c>
       <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1933,16 +2088,16 @@
         <v>60000</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3">
+        <v>74</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1958,14 +2113,14 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1981,14 +2136,14 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2004,14 +2159,14 @@
       <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2027,14 +2182,14 @@
       <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2050,10 +2205,10 @@
       <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-30</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
@@ -2111,7 +2266,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2124,14 +2279,120 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1"/>
+  <dimension ref="M9:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>PASSIVE?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_SELF_EXPLOSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_TELEPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_IMMOTAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +787,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1601,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2029,10 +2041,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:H8"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2060,12 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2073,8 +2090,14 @@
       <c r="H2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2096,8 +2119,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2119,8 +2148,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2142,8 +2174,11 @@
       <c r="H5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2165,8 +2200,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2188,8 +2226,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2210,6 +2251,93 @@
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2355,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2279,120 +2407,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="M9:M34"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="9" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="284">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,38 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InstantSkill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstantSkill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstantSkill3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseSkill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseSkill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileSkill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileSkill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfSkill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baseHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,21 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SelfSkill2</t>
-  </si>
-  <si>
-    <t>SelfSkill3</t>
-  </si>
-  <si>
-    <t>SelfSkill4</t>
-  </si>
-  <si>
-    <t>SelfSkill5</t>
-  </si>
-  <si>
-    <t>SelfSkill6</t>
-  </si>
-  <si>
     <t>SKILL_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,6 +383,703 @@
   </si>
   <si>
     <t>BUFF_IMMOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_INVISIBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YELLOW or GRAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frooze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow or stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large explosion radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hige damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong purple?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 주위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체2(강, 약)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역 범위 지속?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체 지속 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase4</t>
+  </si>
+  <si>
+    <t>RedSkillBase5</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>RedSkillRange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillRange2</t>
+  </si>
+  <si>
+    <t>RedSkillRange3</t>
+  </si>
+  <si>
+    <t>RedSkillRange4</t>
+  </si>
+  <si>
+    <t>RedSkillRange5</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillSelfRange2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillSelfRange3</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange4</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange5</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillBase1</t>
+  </si>
+  <si>
+    <t>BlueSkillBase2</t>
+  </si>
+  <si>
+    <t>BlueSkillBase3</t>
+  </si>
+  <si>
+    <t>BlueSkillBase4</t>
+  </si>
+  <si>
+    <t>BlueSkillBase5</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak1</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong1</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>BlueSkillRange1</t>
+  </si>
+  <si>
+    <t>BlueSkillRange2</t>
+  </si>
+  <si>
+    <t>BlueSkillRange3</t>
+  </si>
+  <si>
+    <t>BlueSkillRange4</t>
+  </si>
+  <si>
+    <t>BlueSkillRange5</t>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillBase1</t>
+  </si>
+  <si>
+    <t>YellowSkillBase2</t>
+  </si>
+  <si>
+    <t>YellowSkillBase3</t>
+  </si>
+  <si>
+    <t>YellowSkillBase4</t>
+  </si>
+  <si>
+    <t>YellowSkillBase5</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak1</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong1</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>YellowSkillRange1</t>
+  </si>
+  <si>
+    <t>YellowSkillRange2</t>
+  </si>
+  <si>
+    <t>YellowSkillRange3</t>
+  </si>
+  <si>
+    <t>YellowSkillRange4</t>
+  </si>
+  <si>
+    <t>YellowSkillRange5</t>
+  </si>
+  <si>
+    <t>tickdamage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze3</t>
+  </si>
+  <si>
+    <t>freeze4</t>
+  </si>
+  <si>
+    <t>freeze5</t>
+  </si>
+  <si>
+    <t>stun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 저항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffApplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_TELEPORT</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_INSTANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong3</t>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong4</t>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong5</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence3</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence4</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence5</t>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피회복 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPassive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PROJECTILE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_RANGE_TICK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +1126,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,73 +1440,78 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:AA136"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" customWidth="1"/>
-    <col min="10" max="21" width="6.375" customWidth="1"/>
-    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.375" customWidth="1"/>
+    <col min="12" max="23" width="7.125" customWidth="1"/>
+    <col min="24" max="24" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="U1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -858,624 +1519,4333 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
       <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" t="s">
         <v>7</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>8</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>50</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="U3" t="s">
+        <v>217</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>218</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>219</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
+        <v>220</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="U7" t="s">
+        <v>221</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+      <c r="G8">
+        <f>F8*0.6</f>
+        <v>900</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="U8" t="s">
+        <v>217</v>
+      </c>
+      <c r="X8">
+        <v>30</v>
+      </c>
+      <c r="Y8">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>5000</v>
-      </c>
-      <c r="E4">
-        <v>2500</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5000</v>
-      </c>
-      <c r="E5">
-        <v>2500</v>
-      </c>
-      <c r="F5">
-        <v>500</v>
-      </c>
-      <c r="G5">
-        <v>500</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>200</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5000</v>
-      </c>
-      <c r="E6">
-        <v>2500</v>
-      </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-      <c r="I6">
-        <v>200</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5000</v>
-      </c>
-      <c r="E7">
-        <v>2500</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-      <c r="G7">
-        <v>1500</v>
-      </c>
-      <c r="H7">
-        <v>300</v>
-      </c>
-      <c r="I7">
-        <v>200</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5000</v>
-      </c>
-      <c r="E8">
-        <v>2500</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>300</v>
-      </c>
-      <c r="H8">
-        <v>150</v>
-      </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="V8">
-        <v>50</v>
-      </c>
-      <c r="W8">
-        <v>30</v>
-      </c>
-      <c r="X8">
-        <v>5000</v>
-      </c>
-      <c r="Y8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <v>3000</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>5000</v>
-      </c>
-      <c r="E9">
-        <v>2500</v>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G9">
-        <v>300</v>
+        <f t="shared" ref="G9:G72" si="0">F9*0.6</f>
+        <v>900</v>
       </c>
       <c r="H9">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
-      <c r="V9">
-        <v>100</v>
-      </c>
-      <c r="W9">
-        <v>15</v>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="U9" t="s">
+        <v>218</v>
       </c>
       <c r="X9">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="Y9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>3000</v>
+      </c>
+      <c r="AA9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>1000</v>
-      </c>
-      <c r="E10">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>900</v>
       </c>
       <c r="H10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>219</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <v>3000</v>
+      </c>
+      <c r="AA10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>900</v>
       </c>
       <c r="H11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
+      </c>
+      <c r="U11" t="s">
+        <v>220</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11">
+        <v>3000</v>
+      </c>
+      <c r="AA11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>1000</v>
-      </c>
-      <c r="E12">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>900</v>
       </c>
       <c r="H12">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="U12" t="s">
+        <v>221</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12">
+        <v>3000</v>
+      </c>
+      <c r="AA12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1000</v>
-      </c>
-      <c r="E13">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="H13">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="K13">
+        <v>30</v>
+      </c>
+      <c r="U13" t="s">
+        <v>217</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13">
+        <v>3000</v>
+      </c>
+      <c r="AA13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1000</v>
-      </c>
-      <c r="E14">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="H14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="K14">
+        <v>35</v>
+      </c>
+      <c r="U14" t="s">
+        <v>218</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14">
+        <v>3000</v>
+      </c>
+      <c r="AA14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>1000</v>
-      </c>
-      <c r="E15">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="H15">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="U15" t="s">
+        <v>219</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y15">
         <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>3000</v>
+      </c>
+      <c r="AA15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>150</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16">
+        <v>45</v>
+      </c>
+      <c r="U16" t="s">
+        <v>220</v>
+      </c>
+      <c r="X16">
+        <v>30</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>3000</v>
+      </c>
+      <c r="AA16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>150</v>
+      </c>
+      <c r="J17">
+        <v>200</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="U17" t="s">
+        <v>221</v>
+      </c>
+      <c r="X17">
+        <v>30</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>3000</v>
+      </c>
+      <c r="AA17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H18">
+        <v>400</v>
+      </c>
+      <c r="I18">
+        <v>150</v>
+      </c>
+      <c r="J18">
+        <v>300</v>
+      </c>
+      <c r="K18">
+        <v>30</v>
+      </c>
+      <c r="U18" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H19">
+        <v>400</v>
+      </c>
+      <c r="I19">
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <v>300</v>
+      </c>
+      <c r="K19">
+        <v>35</v>
+      </c>
+      <c r="U19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H20">
+        <v>400</v>
+      </c>
+      <c r="I20">
+        <v>150</v>
+      </c>
+      <c r="J20">
+        <v>300</v>
+      </c>
+      <c r="K20">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H21">
+        <v>400</v>
+      </c>
+      <c r="I21">
+        <v>150</v>
+      </c>
+      <c r="J21">
+        <v>300</v>
+      </c>
+      <c r="K21">
+        <v>45</v>
+      </c>
+      <c r="U21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H22">
+        <v>400</v>
+      </c>
+      <c r="I22">
+        <v>150</v>
+      </c>
+      <c r="J22">
+        <v>300</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="U22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1500</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>250</v>
+      </c>
+      <c r="J23">
+        <v>500</v>
+      </c>
+      <c r="K23">
+        <v>30</v>
+      </c>
+      <c r="U23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1500</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>250</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24">
+        <v>35</v>
+      </c>
+      <c r="U24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1500</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>250</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
+      </c>
+      <c r="U25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1500</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>250</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+      <c r="K26">
+        <v>45</v>
+      </c>
+      <c r="U26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1500</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>250</v>
+      </c>
+      <c r="J27">
+        <v>500</v>
+      </c>
+      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="U27" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="U28" t="s">
+        <v>222</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>35</v>
+      </c>
+      <c r="U29" t="s">
+        <v>223</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>40</v>
+      </c>
+      <c r="U30" t="s">
+        <v>224</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1000</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>45</v>
+      </c>
+      <c r="U31" t="s">
+        <v>225</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="U32" t="s">
+        <v>226</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1500</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="U33" t="s">
+        <v>222</v>
+      </c>
+      <c r="X33">
+        <v>30</v>
+      </c>
+      <c r="Y33">
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <v>3000</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1500</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>35</v>
+      </c>
+      <c r="U34" t="s">
+        <v>223</v>
+      </c>
+      <c r="X34">
+        <v>30</v>
+      </c>
+      <c r="Y34">
+        <v>10</v>
+      </c>
+      <c r="Z34">
+        <v>3000</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1500</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>40</v>
+      </c>
+      <c r="U35" t="s">
+        <v>224</v>
+      </c>
+      <c r="X35">
+        <v>30</v>
+      </c>
+      <c r="Y35">
+        <v>10</v>
+      </c>
+      <c r="Z35">
+        <v>3000</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1500</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>45</v>
+      </c>
+      <c r="U36" t="s">
+        <v>225</v>
+      </c>
+      <c r="X36">
+        <v>30</v>
+      </c>
+      <c r="Y36">
+        <v>10</v>
+      </c>
+      <c r="Z36">
+        <v>3000</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1500</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>50</v>
+      </c>
+      <c r="U37" t="s">
+        <v>226</v>
+      </c>
+      <c r="X37">
+        <v>30</v>
+      </c>
+      <c r="Y37">
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <v>3000</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2000</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>150</v>
+      </c>
+      <c r="J38">
+        <v>200</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="U38" t="s">
+        <v>222</v>
+      </c>
+      <c r="V38" t="s">
+        <v>239</v>
+      </c>
+      <c r="X38">
+        <v>30</v>
+      </c>
+      <c r="Y38">
+        <v>10</v>
+      </c>
+      <c r="Z38">
+        <v>3000</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2000</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>150</v>
+      </c>
+      <c r="J39">
+        <v>200</v>
+      </c>
+      <c r="K39">
+        <v>35</v>
+      </c>
+      <c r="U39" t="s">
+        <v>223</v>
+      </c>
+      <c r="V39" t="s">
+        <v>240</v>
+      </c>
+      <c r="X39">
+        <v>30</v>
+      </c>
+      <c r="Y39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
+        <v>3000</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2000</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>150</v>
+      </c>
+      <c r="J40">
+        <v>200</v>
+      </c>
+      <c r="K40">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s">
+        <v>224</v>
+      </c>
+      <c r="V40" t="s">
+        <v>241</v>
+      </c>
+      <c r="X40">
+        <v>30</v>
+      </c>
+      <c r="Y40">
+        <v>10</v>
+      </c>
+      <c r="Z40">
+        <v>3000</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2000</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>150</v>
+      </c>
+      <c r="J41">
+        <v>200</v>
+      </c>
+      <c r="K41">
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>225</v>
+      </c>
+      <c r="V41" t="s">
+        <v>242</v>
+      </c>
+      <c r="X41">
+        <v>30</v>
+      </c>
+      <c r="Y41">
+        <v>10</v>
+      </c>
+      <c r="Z41">
+        <v>3000</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2000</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>150</v>
+      </c>
+      <c r="J42">
+        <v>200</v>
+      </c>
+      <c r="K42">
+        <v>50</v>
+      </c>
+      <c r="U42" t="s">
+        <v>226</v>
+      </c>
+      <c r="V42" t="s">
+        <v>243</v>
+      </c>
+      <c r="X42">
+        <v>30</v>
+      </c>
+      <c r="Y42">
+        <v>10</v>
+      </c>
+      <c r="Z42">
+        <v>3000</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2000</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H43">
+        <v>400</v>
+      </c>
+      <c r="I43">
+        <v>150</v>
+      </c>
+      <c r="J43">
+        <v>300</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="U43" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2000</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H44">
+        <v>400</v>
+      </c>
+      <c r="I44">
+        <v>150</v>
+      </c>
+      <c r="J44">
+        <v>300</v>
+      </c>
+      <c r="K44">
+        <v>35</v>
+      </c>
+      <c r="U44" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2000</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H45">
+        <v>400</v>
+      </c>
+      <c r="I45">
+        <v>150</v>
+      </c>
+      <c r="J45">
+        <v>300</v>
+      </c>
+      <c r="K45">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>144</v>
+      </c>
+      <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2000</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H46">
+        <v>400</v>
+      </c>
+      <c r="I46">
+        <v>150</v>
+      </c>
+      <c r="J46">
+        <v>300</v>
+      </c>
+      <c r="K46">
+        <v>45</v>
+      </c>
+      <c r="U46" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2000</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H47">
+        <v>400</v>
+      </c>
+      <c r="I47">
+        <v>150</v>
+      </c>
+      <c r="J47">
+        <v>300</v>
+      </c>
+      <c r="K47">
+        <v>50</v>
+      </c>
+      <c r="U47" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>151</v>
+      </c>
+      <c r="B48" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1500</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>250</v>
+      </c>
+      <c r="J48">
+        <v>500</v>
+      </c>
+      <c r="K48">
+        <v>30</v>
+      </c>
+      <c r="U48" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1500</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>250</v>
+      </c>
+      <c r="J49">
+        <v>500</v>
+      </c>
+      <c r="K49">
+        <v>35</v>
+      </c>
+      <c r="U49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1500</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>250</v>
+      </c>
+      <c r="J50">
+        <v>500</v>
+      </c>
+      <c r="K50">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1500</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>250</v>
+      </c>
+      <c r="J51">
+        <v>500</v>
+      </c>
+      <c r="K51">
+        <v>45</v>
+      </c>
+      <c r="U51" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1500</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>250</v>
+      </c>
+      <c r="J52">
+        <v>500</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="U52" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>211</v>
+      </c>
+      <c r="B53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1000</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>30</v>
+      </c>
+      <c r="U53" t="s">
+        <v>227</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>212</v>
+      </c>
+      <c r="B54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1000</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>35</v>
+      </c>
+      <c r="U54" t="s">
+        <v>228</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>213</v>
+      </c>
+      <c r="B55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1000</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s">
+        <v>229</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>214</v>
+      </c>
+      <c r="B56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1000</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>45</v>
+      </c>
+      <c r="U56" t="s">
+        <v>230</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>215</v>
+      </c>
+      <c r="B57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>50</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>50</v>
+      </c>
+      <c r="U57" t="s">
+        <v>231</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1500</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <v>30</v>
+      </c>
+      <c r="U58" t="s">
+        <v>227</v>
+      </c>
+      <c r="X58">
+        <v>30</v>
+      </c>
+      <c r="Y58">
+        <v>10</v>
+      </c>
+      <c r="Z58">
+        <v>3000</v>
+      </c>
+      <c r="AA58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1500</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>35</v>
+      </c>
+      <c r="U59" t="s">
+        <v>228</v>
+      </c>
+      <c r="X59">
+        <v>30</v>
+      </c>
+      <c r="Y59">
+        <v>10</v>
+      </c>
+      <c r="Z59">
+        <v>3000</v>
+      </c>
+      <c r="AA59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>223</v>
+      </c>
+      <c r="B60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1500</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s">
+        <v>229</v>
+      </c>
+      <c r="X60">
+        <v>30</v>
+      </c>
+      <c r="Y60">
+        <v>10</v>
+      </c>
+      <c r="Z60">
+        <v>3000</v>
+      </c>
+      <c r="AA60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1500</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61">
+        <v>45</v>
+      </c>
+      <c r="U61" t="s">
+        <v>230</v>
+      </c>
+      <c r="X61">
+        <v>30</v>
+      </c>
+      <c r="Y61">
+        <v>10</v>
+      </c>
+      <c r="Z61">
+        <v>3000</v>
+      </c>
+      <c r="AA61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>225</v>
+      </c>
+      <c r="B62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1500</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62">
+        <v>50</v>
+      </c>
+      <c r="U62" t="s">
+        <v>231</v>
+      </c>
+      <c r="X62">
+        <v>30</v>
+      </c>
+      <c r="Y62">
+        <v>10</v>
+      </c>
+      <c r="Z62">
+        <v>3000</v>
+      </c>
+      <c r="AA62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>231</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2000</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>150</v>
+      </c>
+      <c r="J63">
+        <v>200</v>
+      </c>
+      <c r="K63">
+        <v>30</v>
+      </c>
+      <c r="U63" t="s">
+        <v>227</v>
+      </c>
+      <c r="X63">
+        <v>30</v>
+      </c>
+      <c r="Y63">
+        <v>10</v>
+      </c>
+      <c r="Z63">
+        <v>3000</v>
+      </c>
+      <c r="AA63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2000</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>150</v>
+      </c>
+      <c r="J64">
+        <v>200</v>
+      </c>
+      <c r="K64">
+        <v>35</v>
+      </c>
+      <c r="U64" t="s">
+        <v>228</v>
+      </c>
+      <c r="X64">
+        <v>30</v>
+      </c>
+      <c r="Y64">
+        <v>10</v>
+      </c>
+      <c r="Z64">
+        <v>3000</v>
+      </c>
+      <c r="AA64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>150</v>
+      </c>
+      <c r="J65">
+        <v>200</v>
+      </c>
+      <c r="K65">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s">
+        <v>229</v>
+      </c>
+      <c r="X65">
+        <v>30</v>
+      </c>
+      <c r="Y65">
+        <v>10</v>
+      </c>
+      <c r="Z65">
+        <v>3000</v>
+      </c>
+      <c r="AA65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>234</v>
+      </c>
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2000</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>150</v>
+      </c>
+      <c r="J66">
+        <v>200</v>
+      </c>
+      <c r="K66">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s">
+        <v>230</v>
+      </c>
+      <c r="X66">
+        <v>30</v>
+      </c>
+      <c r="Y66">
+        <v>10</v>
+      </c>
+      <c r="Z66">
+        <v>3000</v>
+      </c>
+      <c r="AA66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>235</v>
+      </c>
+      <c r="B67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2000</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>150</v>
+      </c>
+      <c r="J67">
+        <v>200</v>
+      </c>
+      <c r="K67">
+        <v>50</v>
+      </c>
+      <c r="U67" t="s">
+        <v>231</v>
+      </c>
+      <c r="X67">
+        <v>30</v>
+      </c>
+      <c r="Y67">
+        <v>10</v>
+      </c>
+      <c r="Z67">
+        <v>3000</v>
+      </c>
+      <c r="AA67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>241</v>
+      </c>
+      <c r="B68" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>2000</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H68">
+        <v>400</v>
+      </c>
+      <c r="I68">
+        <v>150</v>
+      </c>
+      <c r="J68">
+        <v>300</v>
+      </c>
+      <c r="K68">
+        <v>30</v>
+      </c>
+      <c r="U68" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>242</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>2000</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H69">
+        <v>400</v>
+      </c>
+      <c r="I69">
+        <v>150</v>
+      </c>
+      <c r="J69">
+        <v>300</v>
+      </c>
+      <c r="K69">
+        <v>35</v>
+      </c>
+      <c r="U69" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>243</v>
+      </c>
+      <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>2000</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H70">
+        <v>400</v>
+      </c>
+      <c r="I70">
+        <v>150</v>
+      </c>
+      <c r="J70">
+        <v>300</v>
+      </c>
+      <c r="K70">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>244</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>2000</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H71">
+        <v>400</v>
+      </c>
+      <c r="I71">
+        <v>150</v>
+      </c>
+      <c r="J71">
+        <v>300</v>
+      </c>
+      <c r="K71">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>245</v>
+      </c>
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2000</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H72">
+        <v>400</v>
+      </c>
+      <c r="I72">
+        <v>150</v>
+      </c>
+      <c r="J72">
+        <v>300</v>
+      </c>
+      <c r="K72">
+        <v>50</v>
+      </c>
+      <c r="U72" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>251</v>
+      </c>
+      <c r="B73" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1500</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G104" si="1">F73*0.6</f>
+        <v>900</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>250</v>
+      </c>
+      <c r="J73">
+        <v>500</v>
+      </c>
+      <c r="K73">
+        <v>30</v>
+      </c>
+      <c r="U73" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1500</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>250</v>
+      </c>
+      <c r="J74">
+        <v>500</v>
+      </c>
+      <c r="K74">
+        <v>35</v>
+      </c>
+      <c r="U74" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>253</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1500</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>250</v>
+      </c>
+      <c r="J75">
+        <v>500</v>
+      </c>
+      <c r="K75">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>254</v>
+      </c>
+      <c r="B76" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1500</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>250</v>
+      </c>
+      <c r="J76">
+        <v>500</v>
+      </c>
+      <c r="K76">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>255</v>
+      </c>
+      <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1500</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>250</v>
+      </c>
+      <c r="J77">
+        <v>500</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="U77" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>301</v>
+      </c>
+      <c r="B78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H78">
+        <v>150</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>150</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>302</v>
+      </c>
+      <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H79" s="2">
+        <v>150</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>150</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>303</v>
+      </c>
+      <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H80" s="2">
+        <v>150</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>150</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>304</v>
+      </c>
+      <c r="B81" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H81" s="2">
+        <v>150</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>150</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>305</v>
+      </c>
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="H82" s="2">
+        <v>150</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>150</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>311</v>
+      </c>
+      <c r="B83" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="H83">
+        <v>400</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>250</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>312</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="H84" s="2">
+        <v>400</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>250</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>313</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="H85" s="2">
+        <v>400</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>250</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>314</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="H86" s="2">
+        <v>400</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>250</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>315</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="H87" s="2">
+        <v>400</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>250</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>321</v>
+      </c>
+      <c r="B100" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H100">
+        <v>250</v>
+      </c>
+      <c r="I100">
+        <v>200</v>
+      </c>
+      <c r="J100">
+        <v>400</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0</v>
+      </c>
+      <c r="U100" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>322</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H101" s="2">
+        <v>250</v>
+      </c>
+      <c r="I101" s="2">
+        <v>200</v>
+      </c>
+      <c r="J101" s="2">
+        <v>400</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>323</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H102" s="2">
+        <v>250</v>
+      </c>
+      <c r="I102" s="2">
+        <v>200</v>
+      </c>
+      <c r="J102" s="2">
+        <v>400</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>324</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H103" s="2">
+        <v>250</v>
+      </c>
+      <c r="I103" s="2">
+        <v>200</v>
+      </c>
+      <c r="J103" s="2">
+        <v>400</v>
+      </c>
+      <c r="K103" s="2">
+        <v>0</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA103" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>325</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" s="2">
+        <v>5</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H104" s="2">
+        <v>250</v>
+      </c>
+      <c r="I104" s="2">
+        <v>200</v>
+      </c>
+      <c r="J104" s="2">
+        <v>400</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="AA105" s="2"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="AA106" s="2"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="AA107" s="2"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="AA108" s="2"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="AA109" s="2"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1512,40 +5882,40 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1617,28 +5987,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1657,13 +6027,13 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -1677,13 +6047,13 @@
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>101</v>
@@ -1697,13 +6067,13 @@
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -1717,13 +6087,13 @@
         <v>600</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>103</v>
@@ -1737,13 +6107,13 @@
         <v>850</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>104</v>
@@ -1757,13 +6127,13 @@
         <v>1150</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>105</v>
@@ -1777,13 +6147,13 @@
         <v>1500</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>106</v>
@@ -1797,13 +6167,13 @@
         <v>1900</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>107</v>
@@ -1817,13 +6187,13 @@
         <v>2350</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>108</v>
@@ -1837,13 +6207,13 @@
         <v>2850</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>109</v>
@@ -1857,13 +6227,13 @@
         <v>3400</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>110</v>
@@ -1877,13 +6247,13 @@
         <v>4000</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>111</v>
@@ -1897,13 +6267,13 @@
         <v>4650</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>112</v>
@@ -1917,13 +6287,13 @@
         <v>5350</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>113</v>
@@ -1937,13 +6307,13 @@
         <v>6100</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>114</v>
@@ -1957,13 +6327,13 @@
         <v>6900</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <v>115</v>
@@ -1977,13 +6347,13 @@
         <v>7750</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>116</v>
@@ -1997,13 +6367,13 @@
         <v>8650</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>117</v>
@@ -2017,13 +6387,13 @@
         <v>-1</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>118</v>
@@ -2041,10 +6411,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2060,49 +6430,41 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2111,7 +6473,7 @@
         <v>60000</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -2119,19 +6481,16 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2140,7 +6499,7 @@
         <v>60000</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -2148,16 +6507,16 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2166,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2174,16 +6533,16 @@
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2192,7 +6551,7 @@
         <v>60000</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2200,16 +6559,16 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2218,7 +6577,7 @@
         <v>60000</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -2226,16 +6585,16 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2244,7 +6603,7 @@
         <v>60000</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>-30</v>
@@ -2252,92 +6611,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="O20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L21" t="s">
-        <v>97</v>
-      </c>
-      <c r="O21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L22" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L23" t="s">
-        <v>98</v>
-      </c>
-      <c r="O23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="O25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="O26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L27" t="s">
-        <v>102</v>
+      <c r="I8">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2407,14 +6682,582 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1"/>
+  <dimension ref="C1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>271</v>
+      </c>
+      <c r="R7" t="s">
+        <v>272</v>
+      </c>
+      <c r="S7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>SUM(H3:H8)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" t="s">
+        <v>273</v>
+      </c>
+      <c r="O16" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>132</v>
+      </c>
+      <c r="R16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" t="s">
+        <v>278</v>
+      </c>
+      <c r="M18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <f>SUM(H15:H20)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" t="s">
+        <v>279</v>
+      </c>
+      <c r="M28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f>SUM(H24:H29)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="output" sheetId="6" r:id="rId6"/>
     <sheet name="memo" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="299">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,67 +78,992 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>baseMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseMaxSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseCastSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseDamageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHPRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseMPRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusAmount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusAmount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBonusAmount3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>baseHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baseMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseMaxSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseCastSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseDamageRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseHPRegenRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseHPRegen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseMPRegen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseMPRegenRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseAttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusAmount1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusType2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusAmount2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusType3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusAmount3</t>
+    <t>needExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseRotateSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToSelf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToTarget1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToSelf2</t>
+  </si>
+  <si>
+    <t>buffToSelf3</t>
+  </si>
+  <si>
+    <t>buffToTarget2</t>
+  </si>
+  <si>
+    <t>buffToTarget3</t>
+  </si>
+  <si>
+    <t>timeDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPermanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumeMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageUP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageUP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageUP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_TICK_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTickTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_TICK_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_HEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_MOVE_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_CAST_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_TRAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_SILENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TELEPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_DEFENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_DEFENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF_EXPLOSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPEL_SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPEL_TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_MANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_SELF_EXPLOSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_TELEPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_IMMOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_INVISIBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YELLOW or GRAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frooze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow or stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large explosion radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hige damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong purple?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 주위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체2(강, 약)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역 범위 지속?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체 지속 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase4</t>
+  </si>
+  <si>
+    <t>RedSkillBase5</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>RedSkillRange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillRange2</t>
+  </si>
+  <si>
+    <t>RedSkillRange3</t>
+  </si>
+  <si>
+    <t>RedSkillRange4</t>
+  </si>
+  <si>
+    <t>RedSkillRange5</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillSelfRange2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillSelfRange3</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange4</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange5</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillBase1</t>
+  </si>
+  <si>
+    <t>BlueSkillBase2</t>
+  </si>
+  <si>
+    <t>BlueSkillBase3</t>
+  </si>
+  <si>
+    <t>BlueSkillBase4</t>
+  </si>
+  <si>
+    <t>BlueSkillBase5</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak1</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong1</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>BlueSkillRange1</t>
+  </si>
+  <si>
+    <t>BlueSkillRange2</t>
+  </si>
+  <si>
+    <t>BlueSkillRange3</t>
+  </si>
+  <si>
+    <t>BlueSkillRange4</t>
+  </si>
+  <si>
+    <t>BlueSkillRange5</t>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillBase1</t>
+  </si>
+  <si>
+    <t>YellowSkillBase2</t>
+  </si>
+  <si>
+    <t>YellowSkillBase3</t>
+  </si>
+  <si>
+    <t>YellowSkillBase4</t>
+  </si>
+  <si>
+    <t>YellowSkillBase5</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak1</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong1</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>YellowSkillRange1</t>
+  </si>
+  <si>
+    <t>YellowSkillRange2</t>
+  </si>
+  <si>
+    <t>YellowSkillRange3</t>
+  </si>
+  <si>
+    <t>YellowSkillRange4</t>
+  </si>
+  <si>
+    <t>YellowSkillRange5</t>
+  </si>
+  <si>
+    <t>tickdamage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze3</t>
+  </si>
+  <si>
+    <t>freeze4</t>
+  </si>
+  <si>
+    <t>freeze5</t>
+  </si>
+  <si>
+    <t>stun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 저항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffApplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_TELEPORT</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_INSTANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong3</t>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong4</t>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong5</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence3</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence4</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence5</t>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피회복 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPassive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PROJECTILE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_RANGE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,941 +1071,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>needExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseRotateSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffToSelf1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffToTarget1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffToSelf2</t>
-  </si>
-  <si>
-    <t>buffToSelf3</t>
-  </si>
-  <si>
-    <t>buffToTarget2</t>
-  </si>
-  <si>
-    <t>buffToTarget3</t>
-  </si>
-  <si>
-    <t>timeDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPermanent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consumeMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageUP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageUP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageUP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_TICK_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffTickTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_SLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_STUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_TICK_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_HEAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToSelf1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToSelf2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToSelf3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToTarget1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToTarget2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToTarget3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_MOVE_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_CAST_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_TRAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_SILENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TELEPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_DEFENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_WEAK_DEFENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_WEAK_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_WEAK_ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELF_EXPLOSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPEL_SELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPEL_TARGET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_MANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_SELF_EXPLOSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_TELEPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_IMMOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_INVISIBLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE_SELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PASSIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PASSIVE_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PURPLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YELLOW or GRAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tick damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frooze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slow or stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>large explosion radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hige damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teleport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong purple?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sweakness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>immotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 주위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체2(강, 약)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역 범위 지속?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체 지속 ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔레포트(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase4</t>
-  </si>
-  <si>
-    <t>RedSkillBase5</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>RedSkillRange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillRange2</t>
-  </si>
-  <si>
-    <t>RedSkillRange3</t>
-  </si>
-  <si>
-    <t>RedSkillRange4</t>
-  </si>
-  <si>
-    <t>RedSkillRange5</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillSelfRange2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillSelfRange3</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange4</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange5</t>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillBase1</t>
-  </si>
-  <si>
-    <t>BlueSkillBase2</t>
-  </si>
-  <si>
-    <t>BlueSkillBase3</t>
-  </si>
-  <si>
-    <t>BlueSkillBase4</t>
-  </si>
-  <si>
-    <t>BlueSkillBase5</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak1</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong1</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>BlueSkillRange1</t>
-  </si>
-  <si>
-    <t>BlueSkillRange2</t>
-  </si>
-  <si>
-    <t>BlueSkillRange3</t>
-  </si>
-  <si>
-    <t>BlueSkillRange4</t>
-  </si>
-  <si>
-    <t>BlueSkillRange5</t>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillBase1</t>
-  </si>
-  <si>
-    <t>YellowSkillBase2</t>
-  </si>
-  <si>
-    <t>YellowSkillBase3</t>
-  </si>
-  <si>
-    <t>YellowSkillBase4</t>
-  </si>
-  <si>
-    <t>YellowSkillBase5</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak1</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong1</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>YellowSkillRange1</t>
-  </si>
-  <si>
-    <t>YellowSkillRange2</t>
-  </si>
-  <si>
-    <t>YellowSkillRange3</t>
-  </si>
-  <si>
-    <t>YellowSkillRange4</t>
-  </si>
-  <si>
-    <t>YellowSkillRange5</t>
-  </si>
-  <si>
-    <t>tickdamage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze3</t>
-  </si>
-  <si>
-    <t>freeze4</t>
-  </si>
-  <si>
-    <t>freeze5</t>
-  </si>
-  <si>
-    <t>stun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 이상 저항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffApplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_TELEPORT</t>
-  </si>
-  <si>
-    <t>SKILL_TYPE_INSTANT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong3</t>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong4</t>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong5</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence3</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence4</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence5</t>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피 지속 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 지속 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피회복 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 회복 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPassive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PROJECTILE_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_RANGE_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">  var additionalHP = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMP = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHPRegenAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHPRegenRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxHpAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxHpRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxMPAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxMpRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMPRegenAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMPRegenRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMoveSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMoveSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalRotateSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalRotateSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalCastSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalCastSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalDamageAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalDamageRate = 1;</t>
   </si>
 </sst>
 </file>
@@ -1472,43 +1514,43 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -1519,13 +1561,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1540,46 +1582,46 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
       <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
         <v>68</v>
-      </c>
-      <c r="S2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" t="s">
-        <v>73</v>
       </c>
       <c r="X2" t="s">
         <v>7</v>
@@ -1599,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1629,7 +1671,7 @@
         <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1649,7 +1691,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1679,7 +1721,7 @@
         <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1699,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1729,7 +1771,7 @@
         <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1749,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1779,7 +1821,7 @@
         <v>45</v>
       </c>
       <c r="U6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1799,7 +1841,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1829,7 +1871,7 @@
         <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1849,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1880,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="U8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X8">
         <v>30</v>
@@ -1900,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1931,7 +1973,7 @@
         <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="X9">
         <v>30</v>
@@ -1951,7 +1993,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1982,7 +2024,7 @@
         <v>40</v>
       </c>
       <c r="U10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="X10">
         <v>30</v>
@@ -2002,7 +2044,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2033,7 +2075,7 @@
         <v>45</v>
       </c>
       <c r="U11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="X11">
         <v>30</v>
@@ -2053,7 +2095,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2084,7 +2126,7 @@
         <v>50</v>
       </c>
       <c r="U12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="X12">
         <v>30</v>
@@ -2104,7 +2146,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2135,7 +2177,7 @@
         <v>30</v>
       </c>
       <c r="U13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X13">
         <v>30</v>
@@ -2155,7 +2197,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2186,7 +2228,7 @@
         <v>35</v>
       </c>
       <c r="U14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="X14">
         <v>30</v>
@@ -2206,7 +2248,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2237,7 +2279,7 @@
         <v>40</v>
       </c>
       <c r="U15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="X15">
         <v>30</v>
@@ -2257,7 +2299,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2288,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="U16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="X16">
         <v>30</v>
@@ -2308,7 +2350,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2339,7 +2381,7 @@
         <v>50</v>
       </c>
       <c r="U17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="X17">
         <v>30</v>
@@ -2359,7 +2401,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2390,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="U18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AA18" s="2">
         <v>100</v>
@@ -2401,7 +2443,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2432,7 +2474,7 @@
         <v>35</v>
       </c>
       <c r="U19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA19" s="2">
         <v>100</v>
@@ -2443,7 +2485,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2474,7 +2516,7 @@
         <v>40</v>
       </c>
       <c r="U20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA20" s="2">
         <v>100</v>
@@ -2485,7 +2527,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2516,7 +2558,7 @@
         <v>45</v>
       </c>
       <c r="U21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AA21" s="2">
         <v>100</v>
@@ -2527,7 +2569,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2558,7 +2600,7 @@
         <v>50</v>
       </c>
       <c r="U22" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AA22" s="2">
         <v>100</v>
@@ -2569,7 +2611,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2600,7 +2642,7 @@
         <v>30</v>
       </c>
       <c r="U23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AA23" s="2">
         <v>100</v>
@@ -2611,7 +2653,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2642,7 +2684,7 @@
         <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA24" s="2">
         <v>100</v>
@@ -2653,7 +2695,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2684,7 +2726,7 @@
         <v>40</v>
       </c>
       <c r="U25" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AA25" s="2">
         <v>100</v>
@@ -2695,7 +2737,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -2726,7 +2768,7 @@
         <v>45</v>
       </c>
       <c r="U26" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AA26" s="2">
         <v>100</v>
@@ -2737,7 +2779,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2768,7 +2810,7 @@
         <v>50</v>
       </c>
       <c r="U27" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AA27" s="2">
         <v>100</v>
@@ -2779,7 +2821,7 @@
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2810,7 +2852,7 @@
         <v>30</v>
       </c>
       <c r="U28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -2830,7 +2872,7 @@
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2861,7 +2903,7 @@
         <v>35</v>
       </c>
       <c r="U29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -2881,7 +2923,7 @@
         <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2912,7 +2954,7 @@
         <v>40</v>
       </c>
       <c r="U30" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -2932,7 +2974,7 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2963,7 +3005,7 @@
         <v>45</v>
       </c>
       <c r="U31" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -2983,7 +3025,7 @@
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -3014,7 +3056,7 @@
         <v>50</v>
       </c>
       <c r="U32" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3034,7 +3076,7 @@
         <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3065,7 +3107,7 @@
         <v>30</v>
       </c>
       <c r="U33" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="X33">
         <v>30</v>
@@ -3085,7 +3127,7 @@
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3116,7 +3158,7 @@
         <v>35</v>
       </c>
       <c r="U34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="X34">
         <v>30</v>
@@ -3136,7 +3178,7 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -3167,7 +3209,7 @@
         <v>40</v>
       </c>
       <c r="U35" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="X35">
         <v>30</v>
@@ -3187,7 +3229,7 @@
         <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -3218,7 +3260,7 @@
         <v>45</v>
       </c>
       <c r="U36" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="X36">
         <v>30</v>
@@ -3238,7 +3280,7 @@
         <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -3269,7 +3311,7 @@
         <v>50</v>
       </c>
       <c r="U37" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="X37">
         <v>30</v>
@@ -3289,7 +3331,7 @@
         <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3320,10 +3362,10 @@
         <v>30</v>
       </c>
       <c r="U38" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="V38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="X38">
         <v>30</v>
@@ -3343,7 +3385,7 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3374,10 +3416,10 @@
         <v>35</v>
       </c>
       <c r="U39" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="V39" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="X39">
         <v>30</v>
@@ -3397,7 +3439,7 @@
         <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -3428,10 +3470,10 @@
         <v>40</v>
       </c>
       <c r="U40" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="V40" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="X40">
         <v>30</v>
@@ -3451,7 +3493,7 @@
         <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3482,10 +3524,10 @@
         <v>45</v>
       </c>
       <c r="U41" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="V41" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="X41">
         <v>30</v>
@@ -3505,7 +3547,7 @@
         <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3536,10 +3578,10 @@
         <v>50</v>
       </c>
       <c r="U42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="V42" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="X42">
         <v>30</v>
@@ -3559,7 +3601,7 @@
         <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3590,7 +3632,7 @@
         <v>30</v>
       </c>
       <c r="U43" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AA43" s="2">
         <v>100</v>
@@ -3601,7 +3643,7 @@
         <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3632,7 +3674,7 @@
         <v>35</v>
       </c>
       <c r="U44" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AA44" s="2">
         <v>100</v>
@@ -3643,7 +3685,7 @@
         <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -3674,7 +3716,7 @@
         <v>40</v>
       </c>
       <c r="U45" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA45" s="2">
         <v>100</v>
@@ -3685,7 +3727,7 @@
         <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -3716,7 +3758,7 @@
         <v>45</v>
       </c>
       <c r="U46" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AA46" s="2">
         <v>100</v>
@@ -3727,7 +3769,7 @@
         <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -3758,7 +3800,7 @@
         <v>50</v>
       </c>
       <c r="U47" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AA47" s="2">
         <v>100</v>
@@ -3769,7 +3811,7 @@
         <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3800,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="U48" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AA48" s="2">
         <v>100</v>
@@ -3811,7 +3853,7 @@
         <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3842,7 +3884,7 @@
         <v>35</v>
       </c>
       <c r="U49" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AA49" s="2">
         <v>100</v>
@@ -3853,7 +3895,7 @@
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3884,7 +3926,7 @@
         <v>40</v>
       </c>
       <c r="U50" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA50" s="2">
         <v>100</v>
@@ -3895,7 +3937,7 @@
         <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -3926,7 +3968,7 @@
         <v>45</v>
       </c>
       <c r="U51" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AA51" s="2">
         <v>100</v>
@@ -3937,7 +3979,7 @@
         <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -3968,7 +4010,7 @@
         <v>50</v>
       </c>
       <c r="U52" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AA52" s="2">
         <v>100</v>
@@ -3979,7 +4021,7 @@
         <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4010,7 +4052,7 @@
         <v>30</v>
       </c>
       <c r="U53" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -4030,7 +4072,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -4061,7 +4103,7 @@
         <v>35</v>
       </c>
       <c r="U54" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -4081,7 +4123,7 @@
         <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4112,7 +4154,7 @@
         <v>40</v>
       </c>
       <c r="U55" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -4132,7 +4174,7 @@
         <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4163,7 +4205,7 @@
         <v>45</v>
       </c>
       <c r="U56" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -4183,7 +4225,7 @@
         <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -4214,7 +4256,7 @@
         <v>50</v>
       </c>
       <c r="U57" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -4234,7 +4276,7 @@
         <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4265,7 +4307,7 @@
         <v>30</v>
       </c>
       <c r="U58" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="X58">
         <v>30</v>
@@ -4285,7 +4327,7 @@
         <v>222</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -4316,7 +4358,7 @@
         <v>35</v>
       </c>
       <c r="U59" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="X59">
         <v>30</v>
@@ -4336,7 +4378,7 @@
         <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4367,7 +4409,7 @@
         <v>40</v>
       </c>
       <c r="U60" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="X60">
         <v>30</v>
@@ -4387,7 +4429,7 @@
         <v>224</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -4418,7 +4460,7 @@
         <v>45</v>
       </c>
       <c r="U61" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="X61">
         <v>30</v>
@@ -4438,7 +4480,7 @@
         <v>225</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -4469,7 +4511,7 @@
         <v>50</v>
       </c>
       <c r="U62" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="X62">
         <v>30</v>
@@ -4489,7 +4531,7 @@
         <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4520,7 +4562,7 @@
         <v>30</v>
       </c>
       <c r="U63" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="X63">
         <v>30</v>
@@ -4540,7 +4582,7 @@
         <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4571,7 +4613,7 @@
         <v>35</v>
       </c>
       <c r="U64" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="X64">
         <v>30</v>
@@ -4591,7 +4633,7 @@
         <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4622,7 +4664,7 @@
         <v>40</v>
       </c>
       <c r="U65" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="X65">
         <v>30</v>
@@ -4642,7 +4684,7 @@
         <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4673,7 +4715,7 @@
         <v>45</v>
       </c>
       <c r="U66" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="X66">
         <v>30</v>
@@ -4693,7 +4735,7 @@
         <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -4724,7 +4766,7 @@
         <v>50</v>
       </c>
       <c r="U67" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="X67">
         <v>30</v>
@@ -4744,7 +4786,7 @@
         <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4775,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="U68" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AA68" s="2">
         <v>100</v>
@@ -4786,7 +4828,7 @@
         <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4817,7 +4859,7 @@
         <v>35</v>
       </c>
       <c r="U69" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AA69" s="2">
         <v>100</v>
@@ -4828,7 +4870,7 @@
         <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4859,7 +4901,7 @@
         <v>40</v>
       </c>
       <c r="U70" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AA70" s="2">
         <v>100</v>
@@ -4870,7 +4912,7 @@
         <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4901,7 +4943,7 @@
         <v>45</v>
       </c>
       <c r="U71" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AA71" s="2">
         <v>100</v>
@@ -4912,7 +4954,7 @@
         <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -4943,7 +4985,7 @@
         <v>50</v>
       </c>
       <c r="U72" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AA72" s="2">
         <v>100</v>
@@ -4954,7 +4996,7 @@
         <v>251</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4985,7 +5027,7 @@
         <v>30</v>
       </c>
       <c r="U73" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AA73" s="2">
         <v>100</v>
@@ -4996,7 +5038,7 @@
         <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -5027,7 +5069,7 @@
         <v>35</v>
       </c>
       <c r="U74" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AA74" s="2">
         <v>100</v>
@@ -5038,7 +5080,7 @@
         <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -5069,7 +5111,7 @@
         <v>40</v>
       </c>
       <c r="U75" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AA75" s="2">
         <v>100</v>
@@ -5080,7 +5122,7 @@
         <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -5111,7 +5153,7 @@
         <v>45</v>
       </c>
       <c r="U76" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AA76" s="2">
         <v>100</v>
@@ -5122,7 +5164,7 @@
         <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -5153,7 +5195,7 @@
         <v>50</v>
       </c>
       <c r="U77" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AA77" s="2">
         <v>100</v>
@@ -5164,13 +5206,13 @@
         <v>301</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -5203,13 +5245,13 @@
         <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -5242,13 +5284,13 @@
         <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -5281,13 +5323,13 @@
         <v>304</v>
       </c>
       <c r="B81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -5320,13 +5362,13 @@
         <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -5359,13 +5401,13 @@
         <v>311</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -5398,13 +5440,13 @@
         <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -5437,13 +5479,13 @@
         <v>313</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -5476,13 +5518,13 @@
         <v>314</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -5515,13 +5557,13 @@
         <v>315</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -5566,13 +5608,13 @@
         <v>321</v>
       </c>
       <c r="B100" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F100" s="2">
         <v>1500</v>
@@ -5594,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="U100" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AA100" s="2">
         <v>100</v>
@@ -5605,13 +5647,13 @@
         <v>322</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F101" s="2">
         <v>1500</v>
@@ -5633,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AA101" s="2">
         <v>100</v>
@@ -5644,13 +5686,13 @@
         <v>323</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C102" s="2">
         <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F102" s="2">
         <v>1500</v>
@@ -5672,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AA102" s="2">
         <v>100</v>
@@ -5683,13 +5725,13 @@
         <v>324</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C103" s="2">
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F103" s="2">
         <v>1500</v>
@@ -5711,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AA103" s="2">
         <v>100</v>
@@ -5722,13 +5764,13 @@
         <v>325</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C104" s="2">
         <v>5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F104" s="2">
         <v>1500</v>
@@ -5750,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AA104" s="2">
         <v>100</v>
@@ -5825,32 +5867,33 @@
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5859,100 +5902,757 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:L3"/>
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>150</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>250</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>400</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>850</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1900</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2350</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2850</v>
+      </c>
+      <c r="C13" s="2">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3400</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4650</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5350</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6900</v>
+      </c>
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7750</v>
+      </c>
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8650</v>
+      </c>
+      <c r="C21" s="2">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
+      <c r="B22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2">
         <v>1000</v>
       </c>
-      <c r="C3">
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
+      <c r="G22" s="2">
         <v>0.5</v>
       </c>
-      <c r="F3">
+      <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5966,12 +6666,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
-    <tabColor theme="6" tint="0.39997558519241921"/>
+    <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5987,28 +6687,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6027,13 +6727,13 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -6047,13 +6747,13 @@
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>101</v>
@@ -6067,13 +6767,13 @@
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -6087,13 +6787,13 @@
         <v>600</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>103</v>
@@ -6107,13 +6807,13 @@
         <v>850</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>104</v>
@@ -6127,13 +6827,13 @@
         <v>1150</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>105</v>
@@ -6147,13 +6847,13 @@
         <v>1500</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>106</v>
@@ -6167,13 +6867,13 @@
         <v>1900</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>107</v>
@@ -6187,13 +6887,13 @@
         <v>2350</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>108</v>
@@ -6207,13 +6907,13 @@
         <v>2850</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>109</v>
@@ -6227,13 +6927,13 @@
         <v>3400</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>110</v>
@@ -6247,13 +6947,13 @@
         <v>4000</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>111</v>
@@ -6267,13 +6967,13 @@
         <v>4650</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>112</v>
@@ -6287,13 +6987,13 @@
         <v>5350</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>113</v>
@@ -6307,13 +7007,13 @@
         <v>6100</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>114</v>
@@ -6327,13 +7027,13 @@
         <v>6900</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>115</v>
@@ -6347,13 +7047,13 @@
         <v>7750</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>116</v>
@@ -6367,13 +7067,13 @@
         <v>8650</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>117</v>
@@ -6387,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22">
         <v>118</v>
@@ -6411,10 +7111,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6426,45 +7126,41 @@
     <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6473,24 +7169,21 @@
         <v>60000</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6499,24 +7192,21 @@
         <v>60000</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6525,24 +7215,21 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6551,24 +7238,21 @@
         <v>60000</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6577,24 +7261,21 @@
         <v>60000</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6603,16 +7284,103 @@
         <v>60000</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>-30</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6684,8 +7452,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="C1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F53" sqref="F36:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6709,231 +7477,231 @@
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
         <v>108</v>
       </c>
-      <c r="K5" t="s">
-        <v>113</v>
-      </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s">
         <v>121</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" t="s">
         <v>126</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
+        <v>266</v>
+      </c>
+      <c r="R7" t="s">
+        <v>267</v>
+      </c>
+      <c r="S7" t="s">
         <v>130</v>
-      </c>
-      <c r="P7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>271</v>
-      </c>
-      <c r="R7" t="s">
-        <v>272</v>
-      </c>
-      <c r="S7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" t="s">
         <v>139</v>
       </c>
-      <c r="R8" t="s">
-        <v>144</v>
-      </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.3">
@@ -6944,111 +7712,111 @@
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" t="s">
+        <v>268</v>
+      </c>
+      <c r="O16" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" t="s">
-        <v>273</v>
-      </c>
-      <c r="O16" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>132</v>
-      </c>
-      <c r="R16" t="s">
-        <v>133</v>
-      </c>
       <c r="S16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.3">
@@ -7056,19 +7824,19 @@
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.3">
@@ -7076,19 +7844,19 @@
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.3">
@@ -7099,24 +7867,24 @@
         <v>4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="M20" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -7128,7 +7896,7 @@
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -7136,7 +7904,7 @@
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -7145,7 +7913,7 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.3">
@@ -7153,92 +7921,92 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.3">
@@ -7249,12 +8017,12 @@
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="3"/>
@@ -1485,10 +1485,10 @@
   <dimension ref="A1:AA136"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1670,9 +1670,6 @@
       <c r="K3">
         <v>30</v>
       </c>
-      <c r="U3" t="s">
-        <v>212</v>
-      </c>
       <c r="X3">
         <v>0</v>
       </c>
@@ -1720,9 +1717,6 @@
       <c r="K4">
         <v>35</v>
       </c>
-      <c r="U4" t="s">
-        <v>213</v>
-      </c>
       <c r="X4">
         <v>0</v>
       </c>
@@ -1770,9 +1764,6 @@
       <c r="K5">
         <v>40</v>
       </c>
-      <c r="U5" t="s">
-        <v>214</v>
-      </c>
       <c r="X5">
         <v>0</v>
       </c>
@@ -1820,9 +1811,6 @@
       <c r="K6">
         <v>45</v>
       </c>
-      <c r="U6" t="s">
-        <v>215</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
@@ -1870,9 +1858,6 @@
       <c r="K7">
         <v>50</v>
       </c>
-      <c r="U7" t="s">
-        <v>216</v>
-      </c>
       <c r="X7">
         <v>0</v>
       </c>
@@ -1921,9 +1906,6 @@
       <c r="K8">
         <v>30</v>
       </c>
-      <c r="U8" t="s">
-        <v>212</v>
-      </c>
       <c r="X8">
         <v>30</v>
       </c>
@@ -1972,9 +1954,6 @@
       <c r="K9">
         <v>35</v>
       </c>
-      <c r="U9" t="s">
-        <v>213</v>
-      </c>
       <c r="X9">
         <v>30</v>
       </c>
@@ -2023,9 +2002,6 @@
       <c r="K10">
         <v>40</v>
       </c>
-      <c r="U10" t="s">
-        <v>214</v>
-      </c>
       <c r="X10">
         <v>30</v>
       </c>
@@ -2074,9 +2050,6 @@
       <c r="K11">
         <v>45</v>
       </c>
-      <c r="U11" t="s">
-        <v>215</v>
-      </c>
       <c r="X11">
         <v>30</v>
       </c>
@@ -2125,9 +2098,6 @@
       <c r="K12">
         <v>50</v>
       </c>
-      <c r="U12" t="s">
-        <v>216</v>
-      </c>
       <c r="X12">
         <v>30</v>
       </c>
@@ -2176,9 +2146,6 @@
       <c r="K13">
         <v>30</v>
       </c>
-      <c r="U13" t="s">
-        <v>212</v>
-      </c>
       <c r="X13">
         <v>30</v>
       </c>
@@ -2227,9 +2194,6 @@
       <c r="K14">
         <v>35</v>
       </c>
-      <c r="U14" t="s">
-        <v>213</v>
-      </c>
       <c r="X14">
         <v>30</v>
       </c>
@@ -2278,9 +2242,6 @@
       <c r="K15">
         <v>40</v>
       </c>
-      <c r="U15" t="s">
-        <v>214</v>
-      </c>
       <c r="X15">
         <v>30</v>
       </c>
@@ -2329,9 +2290,6 @@
       <c r="K16">
         <v>45</v>
       </c>
-      <c r="U16" t="s">
-        <v>215</v>
-      </c>
       <c r="X16">
         <v>30</v>
       </c>
@@ -2380,9 +2338,6 @@
       <c r="K17">
         <v>50</v>
       </c>
-      <c r="U17" t="s">
-        <v>216</v>
-      </c>
       <c r="X17">
         <v>30</v>
       </c>
@@ -2431,9 +2386,6 @@
       <c r="K18">
         <v>30</v>
       </c>
-      <c r="U18" t="s">
-        <v>212</v>
-      </c>
       <c r="AA18" s="2">
         <v>100</v>
       </c>
@@ -2473,9 +2425,6 @@
       <c r="K19">
         <v>35</v>
       </c>
-      <c r="U19" t="s">
-        <v>213</v>
-      </c>
       <c r="AA19" s="2">
         <v>100</v>
       </c>
@@ -2515,9 +2464,6 @@
       <c r="K20">
         <v>40</v>
       </c>
-      <c r="U20" t="s">
-        <v>214</v>
-      </c>
       <c r="AA20" s="2">
         <v>100</v>
       </c>
@@ -2557,9 +2503,6 @@
       <c r="K21">
         <v>45</v>
       </c>
-      <c r="U21" t="s">
-        <v>215</v>
-      </c>
       <c r="AA21" s="2">
         <v>100</v>
       </c>
@@ -2599,9 +2542,6 @@
       <c r="K22">
         <v>50</v>
       </c>
-      <c r="U22" t="s">
-        <v>216</v>
-      </c>
       <c r="AA22" s="2">
         <v>100</v>
       </c>
@@ -2641,9 +2581,6 @@
       <c r="K23">
         <v>30</v>
       </c>
-      <c r="U23" t="s">
-        <v>212</v>
-      </c>
       <c r="AA23" s="2">
         <v>100</v>
       </c>
@@ -2683,9 +2620,6 @@
       <c r="K24">
         <v>35</v>
       </c>
-      <c r="U24" t="s">
-        <v>213</v>
-      </c>
       <c r="AA24" s="2">
         <v>100</v>
       </c>
@@ -2725,9 +2659,6 @@
       <c r="K25">
         <v>40</v>
       </c>
-      <c r="U25" t="s">
-        <v>214</v>
-      </c>
       <c r="AA25" s="2">
         <v>100</v>
       </c>
@@ -2767,9 +2698,6 @@
       <c r="K26">
         <v>45</v>
       </c>
-      <c r="U26" t="s">
-        <v>215</v>
-      </c>
       <c r="AA26" s="2">
         <v>100</v>
       </c>
@@ -2809,9 +2737,6 @@
       <c r="K27">
         <v>50</v>
       </c>
-      <c r="U27" t="s">
-        <v>216</v>
-      </c>
       <c r="AA27" s="2">
         <v>100</v>
       </c>
@@ -2851,9 +2776,6 @@
       <c r="K28">
         <v>30</v>
       </c>
-      <c r="U28" t="s">
-        <v>217</v>
-      </c>
       <c r="X28">
         <v>0</v>
       </c>
@@ -2902,9 +2824,6 @@
       <c r="K29">
         <v>35</v>
       </c>
-      <c r="U29" t="s">
-        <v>218</v>
-      </c>
       <c r="X29">
         <v>0</v>
       </c>
@@ -2953,9 +2872,6 @@
       <c r="K30">
         <v>40</v>
       </c>
-      <c r="U30" t="s">
-        <v>219</v>
-      </c>
       <c r="X30">
         <v>0</v>
       </c>
@@ -3004,9 +2920,6 @@
       <c r="K31">
         <v>45</v>
       </c>
-      <c r="U31" t="s">
-        <v>220</v>
-      </c>
       <c r="X31">
         <v>0</v>
       </c>
@@ -3055,9 +2968,6 @@
       <c r="K32">
         <v>50</v>
       </c>
-      <c r="U32" t="s">
-        <v>221</v>
-      </c>
       <c r="X32">
         <v>0</v>
       </c>
@@ -3106,9 +3016,6 @@
       <c r="K33">
         <v>30</v>
       </c>
-      <c r="U33" t="s">
-        <v>217</v>
-      </c>
       <c r="X33">
         <v>30</v>
       </c>
@@ -3157,9 +3064,6 @@
       <c r="K34">
         <v>35</v>
       </c>
-      <c r="U34" t="s">
-        <v>218</v>
-      </c>
       <c r="X34">
         <v>30</v>
       </c>
@@ -3208,9 +3112,6 @@
       <c r="K35">
         <v>40</v>
       </c>
-      <c r="U35" t="s">
-        <v>219</v>
-      </c>
       <c r="X35">
         <v>30</v>
       </c>
@@ -3259,9 +3160,6 @@
       <c r="K36">
         <v>45</v>
       </c>
-      <c r="U36" t="s">
-        <v>220</v>
-      </c>
       <c r="X36">
         <v>30</v>
       </c>
@@ -3310,9 +3208,6 @@
       <c r="K37">
         <v>50</v>
       </c>
-      <c r="U37" t="s">
-        <v>221</v>
-      </c>
       <c r="X37">
         <v>30</v>
       </c>
@@ -3361,9 +3256,6 @@
       <c r="K38">
         <v>30</v>
       </c>
-      <c r="U38" t="s">
-        <v>217</v>
-      </c>
       <c r="V38" t="s">
         <v>234</v>
       </c>
@@ -3415,9 +3307,6 @@
       <c r="K39">
         <v>35</v>
       </c>
-      <c r="U39" t="s">
-        <v>218</v>
-      </c>
       <c r="V39" t="s">
         <v>235</v>
       </c>
@@ -3469,9 +3358,6 @@
       <c r="K40">
         <v>40</v>
       </c>
-      <c r="U40" t="s">
-        <v>219</v>
-      </c>
       <c r="V40" t="s">
         <v>236</v>
       </c>
@@ -3523,9 +3409,6 @@
       <c r="K41">
         <v>45</v>
       </c>
-      <c r="U41" t="s">
-        <v>220</v>
-      </c>
       <c r="V41" t="s">
         <v>237</v>
       </c>
@@ -3577,9 +3460,6 @@
       <c r="K42">
         <v>50</v>
       </c>
-      <c r="U42" t="s">
-        <v>221</v>
-      </c>
       <c r="V42" t="s">
         <v>238</v>
       </c>
@@ -3631,9 +3511,6 @@
       <c r="K43">
         <v>30</v>
       </c>
-      <c r="U43" t="s">
-        <v>217</v>
-      </c>
       <c r="AA43" s="2">
         <v>100</v>
       </c>
@@ -3673,9 +3550,6 @@
       <c r="K44">
         <v>35</v>
       </c>
-      <c r="U44" t="s">
-        <v>218</v>
-      </c>
       <c r="AA44" s="2">
         <v>100</v>
       </c>
@@ -3715,9 +3589,6 @@
       <c r="K45">
         <v>40</v>
       </c>
-      <c r="U45" t="s">
-        <v>219</v>
-      </c>
       <c r="AA45" s="2">
         <v>100</v>
       </c>
@@ -3757,9 +3628,6 @@
       <c r="K46">
         <v>45</v>
       </c>
-      <c r="U46" t="s">
-        <v>220</v>
-      </c>
       <c r="AA46" s="2">
         <v>100</v>
       </c>
@@ -3799,9 +3667,6 @@
       <c r="K47">
         <v>50</v>
       </c>
-      <c r="U47" t="s">
-        <v>221</v>
-      </c>
       <c r="AA47" s="2">
         <v>100</v>
       </c>
@@ -3841,9 +3706,6 @@
       <c r="K48">
         <v>30</v>
       </c>
-      <c r="U48" t="s">
-        <v>217</v>
-      </c>
       <c r="AA48" s="2">
         <v>100</v>
       </c>
@@ -3883,9 +3745,6 @@
       <c r="K49">
         <v>35</v>
       </c>
-      <c r="U49" t="s">
-        <v>218</v>
-      </c>
       <c r="AA49" s="2">
         <v>100</v>
       </c>
@@ -3925,9 +3784,6 @@
       <c r="K50">
         <v>40</v>
       </c>
-      <c r="U50" t="s">
-        <v>219</v>
-      </c>
       <c r="AA50" s="2">
         <v>100</v>
       </c>
@@ -3967,9 +3823,6 @@
       <c r="K51">
         <v>45</v>
       </c>
-      <c r="U51" t="s">
-        <v>220</v>
-      </c>
       <c r="AA51" s="2">
         <v>100</v>
       </c>
@@ -4009,9 +3862,6 @@
       <c r="K52">
         <v>50</v>
       </c>
-      <c r="U52" t="s">
-        <v>221</v>
-      </c>
       <c r="AA52" s="2">
         <v>100</v>
       </c>
@@ -4051,9 +3901,6 @@
       <c r="K53">
         <v>30</v>
       </c>
-      <c r="U53" t="s">
-        <v>222</v>
-      </c>
       <c r="X53">
         <v>0</v>
       </c>
@@ -4102,9 +3949,6 @@
       <c r="K54">
         <v>35</v>
       </c>
-      <c r="U54" t="s">
-        <v>223</v>
-      </c>
       <c r="X54">
         <v>0</v>
       </c>
@@ -4153,9 +3997,6 @@
       <c r="K55">
         <v>40</v>
       </c>
-      <c r="U55" t="s">
-        <v>224</v>
-      </c>
       <c r="X55">
         <v>0</v>
       </c>
@@ -4204,9 +4045,6 @@
       <c r="K56">
         <v>45</v>
       </c>
-      <c r="U56" t="s">
-        <v>225</v>
-      </c>
       <c r="X56">
         <v>0</v>
       </c>
@@ -4255,9 +4093,6 @@
       <c r="K57">
         <v>50</v>
       </c>
-      <c r="U57" t="s">
-        <v>226</v>
-      </c>
       <c r="X57">
         <v>0</v>
       </c>
@@ -4306,9 +4141,6 @@
       <c r="K58">
         <v>30</v>
       </c>
-      <c r="U58" t="s">
-        <v>222</v>
-      </c>
       <c r="X58">
         <v>30</v>
       </c>
@@ -4357,9 +4189,6 @@
       <c r="K59">
         <v>35</v>
       </c>
-      <c r="U59" t="s">
-        <v>223</v>
-      </c>
       <c r="X59">
         <v>30</v>
       </c>
@@ -4408,9 +4237,6 @@
       <c r="K60">
         <v>40</v>
       </c>
-      <c r="U60" t="s">
-        <v>224</v>
-      </c>
       <c r="X60">
         <v>30</v>
       </c>
@@ -4459,9 +4285,6 @@
       <c r="K61">
         <v>45</v>
       </c>
-      <c r="U61" t="s">
-        <v>225</v>
-      </c>
       <c r="X61">
         <v>30</v>
       </c>
@@ -4510,9 +4333,6 @@
       <c r="K62">
         <v>50</v>
       </c>
-      <c r="U62" t="s">
-        <v>226</v>
-      </c>
       <c r="X62">
         <v>30</v>
       </c>
@@ -4561,9 +4381,6 @@
       <c r="K63">
         <v>30</v>
       </c>
-      <c r="U63" t="s">
-        <v>222</v>
-      </c>
       <c r="X63">
         <v>30</v>
       </c>
@@ -4612,9 +4429,6 @@
       <c r="K64">
         <v>35</v>
       </c>
-      <c r="U64" t="s">
-        <v>223</v>
-      </c>
       <c r="X64">
         <v>30</v>
       </c>
@@ -4663,9 +4477,6 @@
       <c r="K65">
         <v>40</v>
       </c>
-      <c r="U65" t="s">
-        <v>224</v>
-      </c>
       <c r="X65">
         <v>30</v>
       </c>
@@ -4714,9 +4525,6 @@
       <c r="K66">
         <v>45</v>
       </c>
-      <c r="U66" t="s">
-        <v>225</v>
-      </c>
       <c r="X66">
         <v>30</v>
       </c>
@@ -4765,9 +4573,6 @@
       <c r="K67">
         <v>50</v>
       </c>
-      <c r="U67" t="s">
-        <v>226</v>
-      </c>
       <c r="X67">
         <v>30</v>
       </c>
@@ -4816,9 +4621,6 @@
       <c r="K68">
         <v>30</v>
       </c>
-      <c r="U68" t="s">
-        <v>222</v>
-      </c>
       <c r="AA68" s="2">
         <v>100</v>
       </c>
@@ -4858,9 +4660,6 @@
       <c r="K69">
         <v>35</v>
       </c>
-      <c r="U69" t="s">
-        <v>223</v>
-      </c>
       <c r="AA69" s="2">
         <v>100</v>
       </c>
@@ -4900,9 +4699,6 @@
       <c r="K70">
         <v>40</v>
       </c>
-      <c r="U70" t="s">
-        <v>224</v>
-      </c>
       <c r="AA70" s="2">
         <v>100</v>
       </c>
@@ -4942,9 +4738,6 @@
       <c r="K71">
         <v>45</v>
       </c>
-      <c r="U71" t="s">
-        <v>225</v>
-      </c>
       <c r="AA71" s="2">
         <v>100</v>
       </c>
@@ -4984,9 +4777,6 @@
       <c r="K72">
         <v>50</v>
       </c>
-      <c r="U72" t="s">
-        <v>226</v>
-      </c>
       <c r="AA72" s="2">
         <v>100</v>
       </c>
@@ -5026,9 +4816,6 @@
       <c r="K73">
         <v>30</v>
       </c>
-      <c r="U73" t="s">
-        <v>222</v>
-      </c>
       <c r="AA73" s="2">
         <v>100</v>
       </c>
@@ -5068,9 +4855,6 @@
       <c r="K74">
         <v>35</v>
       </c>
-      <c r="U74" t="s">
-        <v>223</v>
-      </c>
       <c r="AA74" s="2">
         <v>100</v>
       </c>
@@ -5110,9 +4894,6 @@
       <c r="K75">
         <v>40</v>
       </c>
-      <c r="U75" t="s">
-        <v>224</v>
-      </c>
       <c r="AA75" s="2">
         <v>100</v>
       </c>
@@ -5152,9 +4933,6 @@
       <c r="K76">
         <v>45</v>
       </c>
-      <c r="U76" t="s">
-        <v>225</v>
-      </c>
       <c r="AA76" s="2">
         <v>100</v>
       </c>
@@ -5193,9 +4971,6 @@
       </c>
       <c r="K77">
         <v>50</v>
-      </c>
-      <c r="U77" t="s">
-        <v>226</v>
       </c>
       <c r="AA77" s="2">
         <v>100</v>
@@ -5635,9 +5410,6 @@
       <c r="K100" s="2">
         <v>0</v>
       </c>
-      <c r="U100" t="s">
-        <v>241</v>
-      </c>
       <c r="AA100" s="2">
         <v>100</v>
       </c>
@@ -5674,9 +5446,6 @@
       <c r="K101" s="2">
         <v>0</v>
       </c>
-      <c r="U101" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="AA101" s="2">
         <v>100</v>
       </c>
@@ -5713,9 +5482,6 @@
       <c r="K102" s="2">
         <v>0</v>
       </c>
-      <c r="U102" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="AA102" s="2">
         <v>100</v>
       </c>
@@ -5752,9 +5518,6 @@
       <c r="K103" s="2">
         <v>0</v>
       </c>
-      <c r="U103" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="AA103" s="2">
         <v>100</v>
       </c>
@@ -5790,9 +5553,6 @@
       </c>
       <c r="K104" s="2">
         <v>0</v>
-      </c>
-      <c r="U104" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="AA104" s="2">
         <v>100</v>
@@ -5905,7 +5665,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7111,10 +6871,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7291,96 +7051,6 @@
       </c>
       <c r="H8">
         <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7450,10 +7120,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="C1:S32"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F53" sqref="F36:F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7475,7 +7145,10 @@
     <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
       <c r="C1" t="s">
         <v>88</v>
       </c>
@@ -7483,7 +7156,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
@@ -7494,7 +7170,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
@@ -7529,7 +7208,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
       <c r="D4" t="s">
         <v>70</v>
       </c>
@@ -7564,7 +7246,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
       <c r="D5" t="s">
         <v>69</v>
       </c>
@@ -7596,7 +7281,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
       <c r="D6" t="s">
         <v>62</v>
       </c>
@@ -7628,7 +7316,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
@@ -7666,7 +7357,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
       <c r="D8" t="s">
         <v>83</v>
       </c>
@@ -7704,33 +7398,51 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
       <c r="H9">
         <f>SUM(H3:H8)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
       <c r="D10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
       <c r="D11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
       <c r="D13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
       <c r="D14" t="s">
         <v>72</v>
       </c>
@@ -7741,7 +7453,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
       <c r="D15" t="s">
         <v>75</v>
       </c>
@@ -7761,7 +7476,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
       <c r="D16" t="s">
         <v>76</v>
       </c>
@@ -7796,7 +7514,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
@@ -7819,7 +7540,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
       <c r="H18">
         <v>4</v>
       </c>
@@ -7839,7 +7563,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
       <c r="H19">
         <v>4</v>
       </c>
@@ -7859,7 +7586,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
@@ -7882,7 +7612,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="s">
         <v>79</v>
       </c>
@@ -7894,7 +7627,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="s">
         <v>73</v>
       </c>
@@ -7902,7 +7638,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="s">
         <v>80</v>
       </c>
@@ -7916,7 +7655,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>215</v>
+      </c>
       <c r="H24">
         <v>1</v>
       </c>
@@ -7927,7 +7669,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>216</v>
+      </c>
       <c r="F25" t="s">
         <v>85</v>
       </c>
@@ -7941,7 +7686,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>217</v>
+      </c>
       <c r="F26" t="s">
         <v>86</v>
       </c>
@@ -7955,7 +7703,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" t="s">
         <v>84</v>
       </c>
@@ -7972,7 +7723,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
       <c r="D28" t="s">
         <v>89</v>
       </c>
@@ -7998,7 +7752,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
       <c r="D29" t="s">
         <v>90</v>
       </c>
@@ -8009,20 +7766,359 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>221</v>
+      </c>
       <c r="H30">
         <f>SUM(H24:H29)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
       <c r="F31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
       <c r="F32" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="3"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="308">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,23 +358,766 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BUFF_IMMOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_INVISIBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YELLOW or GRAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frooze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow or stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large explosion radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hige damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong purple?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 주위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체2(강, 약)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역 범위 지속?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체 지속 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase4</t>
+  </si>
+  <si>
+    <t>RedSkillBase5</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>RedSkillRange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillRange2</t>
+  </si>
+  <si>
+    <t>RedSkillRange3</t>
+  </si>
+  <si>
+    <t>RedSkillRange4</t>
+  </si>
+  <si>
+    <t>RedSkillRange5</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillSelfRange2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillSelfRange3</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange4</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange5</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillBase1</t>
+  </si>
+  <si>
+    <t>BlueSkillBase2</t>
+  </si>
+  <si>
+    <t>BlueSkillBase3</t>
+  </si>
+  <si>
+    <t>BlueSkillBase4</t>
+  </si>
+  <si>
+    <t>BlueSkillBase5</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak1</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong1</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>BlueSkillRange1</t>
+  </si>
+  <si>
+    <t>BlueSkillRange2</t>
+  </si>
+  <si>
+    <t>BlueSkillRange3</t>
+  </si>
+  <si>
+    <t>BlueSkillRange4</t>
+  </si>
+  <si>
+    <t>BlueSkillRange5</t>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillBase1</t>
+  </si>
+  <si>
+    <t>YellowSkillBase2</t>
+  </si>
+  <si>
+    <t>YellowSkillBase3</t>
+  </si>
+  <si>
+    <t>YellowSkillBase4</t>
+  </si>
+  <si>
+    <t>YellowSkillBase5</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak1</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong1</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>YellowSkillRange1</t>
+  </si>
+  <si>
+    <t>YellowSkillRange2</t>
+  </si>
+  <si>
+    <t>YellowSkillRange3</t>
+  </si>
+  <si>
+    <t>YellowSkillRange4</t>
+  </si>
+  <si>
+    <t>YellowSkillRange5</t>
+  </si>
+  <si>
+    <t>tickdamage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze3</t>
+  </si>
+  <si>
+    <t>freeze4</t>
+  </si>
+  <si>
+    <t>freeze5</t>
+  </si>
+  <si>
+    <t>stun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 저항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffApplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SKILL_TYPE_TELEPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_IMMOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_INVISIBLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE_SELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE_RANGE</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_INSTANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong3</t>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong4</t>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong5</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence3</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence4</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence5</t>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피회복 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPassive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PROJECTILE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_RANGE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHP = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMP = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHPRegenAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHPRegenRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxHpAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxHpRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxMPAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxMpRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMPRegenAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMPRegenRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMoveSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMoveSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalRotateSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalRotateSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalCastSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalCastSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalDamageAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalDamageRate = 1;</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_TELEPORT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,747 +1125,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_TYPE_PASSIVE_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PURPLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YELLOW or GRAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tick damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frooze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slow or stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>large explosion radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hige damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teleport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong purple?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sweakness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>immotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 주위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체2(강, 약)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역 범위 지속?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체 지속 ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔레포트(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase4</t>
-  </si>
-  <si>
-    <t>RedSkillBase5</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>RedSkillRange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillRange2</t>
-  </si>
-  <si>
-    <t>RedSkillRange3</t>
-  </si>
-  <si>
-    <t>RedSkillRange4</t>
-  </si>
-  <si>
-    <t>RedSkillRange5</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillSelfRange2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillSelfRange3</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange4</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange5</t>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillBase1</t>
-  </si>
-  <si>
-    <t>BlueSkillBase2</t>
-  </si>
-  <si>
-    <t>BlueSkillBase3</t>
-  </si>
-  <si>
-    <t>BlueSkillBase4</t>
-  </si>
-  <si>
-    <t>BlueSkillBase5</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak1</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong1</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>BlueSkillRange1</t>
-  </si>
-  <si>
-    <t>BlueSkillRange2</t>
-  </si>
-  <si>
-    <t>BlueSkillRange3</t>
-  </si>
-  <si>
-    <t>BlueSkillRange4</t>
-  </si>
-  <si>
-    <t>BlueSkillRange5</t>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillBase1</t>
-  </si>
-  <si>
-    <t>YellowSkillBase2</t>
-  </si>
-  <si>
-    <t>YellowSkillBase3</t>
-  </si>
-  <si>
-    <t>YellowSkillBase4</t>
-  </si>
-  <si>
-    <t>YellowSkillBase5</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak1</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong1</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>YellowSkillRange1</t>
-  </si>
-  <si>
-    <t>YellowSkillRange2</t>
-  </si>
-  <si>
-    <t>YellowSkillRange3</t>
-  </si>
-  <si>
-    <t>YellowSkillRange4</t>
-  </si>
-  <si>
-    <t>YellowSkillRange5</t>
-  </si>
-  <si>
-    <t>tickdamage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze3</t>
-  </si>
-  <si>
-    <t>freeze4</t>
-  </si>
-  <si>
-    <t>freeze5</t>
-  </si>
-  <si>
-    <t>stun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 이상 저항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffApplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_TELEPORT</t>
-  </si>
-  <si>
-    <t>SKILL_TYPE_INSTANT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong3</t>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong4</t>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong5</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence3</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence4</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence5</t>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피 지속 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 지속 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피회복 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 회복 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPassive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PROJECTILE_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_RANGE_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHP = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMP = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHPRegenAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHPRegenRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxHpAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxHpRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxMPAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxMpRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMPRegenAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMPRegenRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMoveSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMoveSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalRotateSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalRotateSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalCastSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalCastSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalDamageAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalDamageRate = 1;</t>
+    <t>USER_CONDITION_IMMORTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_FREEZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_FROZEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_SILENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_ANTIMAGIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index가 같은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 초기화?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1488,7 +1524,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1561,13 +1597,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1641,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1688,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1735,7 +1771,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1782,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1829,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1876,7 +1912,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1924,7 +1960,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1972,7 +2008,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2020,7 +2056,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2068,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2116,7 +2152,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2164,7 +2200,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2212,7 +2248,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2260,7 +2296,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2308,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2356,7 +2392,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2395,7 +2431,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2434,7 +2470,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2473,7 +2509,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2512,7 +2548,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2551,7 +2587,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2590,7 +2626,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2629,7 +2665,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2668,7 +2704,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -2707,7 +2743,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2746,7 +2782,7 @@
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2794,7 +2830,7 @@
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2842,7 +2878,7 @@
         <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2890,7 +2926,7 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2938,7 +2974,7 @@
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2986,7 +3022,7 @@
         <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3034,7 +3070,7 @@
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3082,7 +3118,7 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -3130,7 +3166,7 @@
         <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -3178,7 +3214,7 @@
         <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -3226,7 +3262,7 @@
         <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3257,7 +3293,7 @@
         <v>30</v>
       </c>
       <c r="V38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="X38">
         <v>30</v>
@@ -3277,7 +3313,7 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3308,7 +3344,7 @@
         <v>35</v>
       </c>
       <c r="V39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X39">
         <v>30</v>
@@ -3328,7 +3364,7 @@
         <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -3359,7 +3395,7 @@
         <v>40</v>
       </c>
       <c r="V40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X40">
         <v>30</v>
@@ -3379,7 +3415,7 @@
         <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3410,7 +3446,7 @@
         <v>45</v>
       </c>
       <c r="V41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="X41">
         <v>30</v>
@@ -3430,7 +3466,7 @@
         <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3461,7 +3497,7 @@
         <v>50</v>
       </c>
       <c r="V42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X42">
         <v>30</v>
@@ -3481,7 +3517,7 @@
         <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3520,7 +3556,7 @@
         <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3559,7 +3595,7 @@
         <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -3598,7 +3634,7 @@
         <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -3637,7 +3673,7 @@
         <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -3676,7 +3712,7 @@
         <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3715,7 +3751,7 @@
         <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3754,7 +3790,7 @@
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3793,7 +3829,7 @@
         <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -3832,7 +3868,7 @@
         <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -3871,7 +3907,7 @@
         <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3919,7 +3955,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3967,7 +4003,7 @@
         <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4015,7 +4051,7 @@
         <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4063,7 +4099,7 @@
         <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -4111,7 +4147,7 @@
         <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4159,7 +4195,7 @@
         <v>222</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -4207,7 +4243,7 @@
         <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4255,7 +4291,7 @@
         <v>224</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -4303,7 +4339,7 @@
         <v>225</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -4351,7 +4387,7 @@
         <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4399,7 +4435,7 @@
         <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4447,7 +4483,7 @@
         <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4495,7 +4531,7 @@
         <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4543,7 +4579,7 @@
         <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -4591,7 +4627,7 @@
         <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4630,7 +4666,7 @@
         <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4669,7 +4705,7 @@
         <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4708,7 +4744,7 @@
         <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4747,7 +4783,7 @@
         <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -4786,7 +4822,7 @@
         <v>251</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4825,7 +4861,7 @@
         <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -4864,7 +4900,7 @@
         <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -4903,7 +4939,7 @@
         <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -4942,7 +4978,7 @@
         <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -4981,13 +5017,13 @@
         <v>301</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -5020,13 +5056,13 @@
         <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -5059,13 +5095,13 @@
         <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -5098,13 +5134,13 @@
         <v>304</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -5137,13 +5173,13 @@
         <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -5176,13 +5212,13 @@
         <v>311</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -5215,13 +5251,13 @@
         <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -5254,13 +5290,13 @@
         <v>313</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -5293,13 +5329,13 @@
         <v>314</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -5332,13 +5368,13 @@
         <v>315</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -5383,13 +5419,13 @@
         <v>321</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F100" s="2">
         <v>1500</v>
@@ -5419,13 +5455,13 @@
         <v>322</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F101" s="2">
         <v>1500</v>
@@ -5455,13 +5491,13 @@
         <v>323</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C102" s="2">
         <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F102" s="2">
         <v>1500</v>
@@ -5491,13 +5527,13 @@
         <v>324</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C103" s="2">
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F103" s="2">
         <v>1500</v>
@@ -5527,13 +5563,13 @@
         <v>325</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C104" s="2">
         <v>5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F104" s="2">
         <v>1500</v>
@@ -5627,27 +5663,27 @@
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5683,13 +5719,13 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -6871,10 +6907,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6889,7 +6925,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -6912,10 +6948,19 @@
         <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="J2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6938,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6961,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6984,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7007,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7030,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7122,8 +7167,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7147,18 +7192,18 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -7167,12 +7212,12 @@
         <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
@@ -7184,33 +7229,33 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" t="s">
         <v>122</v>
-      </c>
-      <c r="P3" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -7219,36 +7264,36 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -7257,33 +7302,33 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
         <v>108</v>
       </c>
-      <c r="L5" t="s">
-        <v>110</v>
-      </c>
       <c r="O5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" t="s">
         <v>136</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -7292,33 +7337,33 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s">
         <v>111</v>
       </c>
-      <c r="L6" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s">
-        <v>113</v>
-      </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -7327,39 +7372,39 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
         <v>83</v>
@@ -7368,39 +7413,39 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" t="s">
         <v>118</v>
       </c>
-      <c r="J8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" t="s">
-        <v>120</v>
-      </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" t="s">
         <v>132</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" t="s">
         <v>133</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>134</v>
-      </c>
-      <c r="R8" t="s">
-        <v>139</v>
-      </c>
-      <c r="S8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H9">
         <f>SUM(H3:H8)</f>
@@ -7409,7 +7454,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
@@ -7417,7 +7462,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -7425,7 +7470,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
@@ -7433,7 +7478,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>
@@ -7441,7 +7486,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -7450,12 +7495,12 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
         <v>75</v>
@@ -7464,21 +7509,21 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
@@ -7487,36 +7532,36 @@
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q16" t="s">
+        <v>125</v>
+      </c>
+      <c r="R16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" t="s">
         <v>127</v>
-      </c>
-      <c r="R16" t="s">
-        <v>128</v>
-      </c>
-      <c r="S16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
@@ -7525,70 +7570,70 @@
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="O17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H18">
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -7597,24 +7642,24 @@
         <v>4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
         <v>79</v>
@@ -7629,7 +7674,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
         <v>73</v>
@@ -7640,7 +7685,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -7652,26 +7697,26 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F25" t="s">
         <v>85</v>
@@ -7680,32 +7725,32 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
         <v>84</v>
@@ -7714,61 +7759,61 @@
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
         <v>90</v>
       </c>
-      <c r="F29" t="s">
-        <v>92</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H30">
         <f>SUM(H24:H29)</f>
@@ -7777,287 +7822,315 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="I33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>218</v>
       </c>
-      <c r="F32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="F34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>221</v>
-      </c>
       <c r="C35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="F37" s="2"/>
+      <c r="I37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>217</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>218</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>219</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>217</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>218</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>219</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>217</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
@@ -8098,27 +8171,27 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="output" sheetId="6" r:id="rId6"/>
     <sheet name="memo" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="339">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,14 +174,6 @@
     <t>buffToTarget3</t>
   </si>
   <si>
-    <t>timeDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPermanent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,30 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>damageUP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageUP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageUP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>currentHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BUFF_TICK_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buffTickTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1043,121 +1007,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SKILL_TYPE_PROJECTILE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_RANGE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHP = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMP = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHPRegenAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHPRegenRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxHpAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxHpRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxMPAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxMpRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMPRegenAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMPRegenRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMoveSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMoveSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalRotateSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalRotateSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalCastSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalCastSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalDamageAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalDamageRate = 1;</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_TELEPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_IMMORTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_FREEZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_FROZEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_SILENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_ANTIMAGIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index가 같은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 초기화?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionalHP</t>
+  </si>
+  <si>
+    <t>additionalMP</t>
+  </si>
+  <si>
+    <t>additionalHPRegenAmount</t>
+  </si>
+  <si>
+    <t>additionalHPRegenRate</t>
+  </si>
+  <si>
+    <t>additionalMaxHpAmount</t>
+  </si>
+  <si>
+    <t>additionalMaxHpRate</t>
+  </si>
+  <si>
+    <t>additionalMaxMPAmount</t>
+  </si>
+  <si>
+    <t>additionalMaxMpRate</t>
+  </si>
+  <si>
+    <t>additionalMPRegenAmount</t>
+  </si>
+  <si>
+    <t>additionalMPRegenRate</t>
+  </si>
+  <si>
+    <t>additionalMoveSpeedAmount</t>
+  </si>
+  <si>
+    <t>additionalMoveSpeedRate</t>
+  </si>
+  <si>
+    <t>additionalRotateSpeedAmount</t>
+  </si>
+  <si>
+    <t>additionalRotateSpeedRate</t>
+  </si>
+  <si>
+    <t>additionalCastSpeedAmount</t>
+  </si>
+  <si>
+    <t>additionalCastSpeedRate</t>
+  </si>
+  <si>
+    <t>additionalDamageAmount</t>
+  </si>
+  <si>
+    <t>additionalDamageRate</t>
+  </si>
+  <si>
+    <t>SET_USER_CONDITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_IMUNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중 효과로 덮어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispelAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispelOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isPassive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_TYPE_PROJECTILE_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_RANGE_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHP = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMP = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHPRegenAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHPRegenRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxHpAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxHpRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxMPAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxMpRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMPRegenAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMPRegenRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMoveSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMoveSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalRotateSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalRotateSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalCastSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalCastSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalDamageAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalDamageRate = 1;</t>
-  </si>
-  <si>
-    <t>SKILL_TYPE_TELEPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PASSIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_IMMORTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_FREEZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_FROZEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_STUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_SILENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_ANTIMAGIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index가 같은 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 초기화?</t>
+    <t>BUFF_EFFECT_DISPEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_EFFECT_SET_CONDITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_EFFECT_ADD_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_ADD_EFFECT_TO_BASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispelSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolDown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1518,13 +1624,13 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AA136"/>
+  <dimension ref="A1:AB136"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5:K5"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1536,60 +1642,61 @@
     <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" customWidth="1"/>
-    <col min="12" max="23" width="7.125" customWidth="1"/>
-    <col min="24" max="24" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="13" max="24" width="7.125" customWidth="1"/>
+    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="U1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="V1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="W1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="X1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1597,13 +1704,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1611,82 +1715,82 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
-        <v>63</v>
-      </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="X2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -1694,21 +1798,18 @@
       <c r="G3">
         <v>600</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>50</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
@@ -1716,15 +1817,18 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1732,30 +1836,24 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>1000</v>
       </c>
       <c r="G4">
         <v>600</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>30</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>50</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>35</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -1763,15 +1861,18 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1779,30 +1880,24 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
       <c r="F5">
         <v>1000</v>
       </c>
       <c r="G5">
         <v>600</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>30</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>50</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>40</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
@@ -1810,15 +1905,18 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1826,30 +1924,24 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
         <v>600</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>50</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>45</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
         <v>0</v>
       </c>
@@ -1857,15 +1949,18 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1873,30 +1968,24 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
       <c r="F7">
         <v>1000</v>
       </c>
       <c r="G7">
         <v>600</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>30</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>50</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>50</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
@@ -1904,24 +1993,24 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>1500</v>
@@ -1930,46 +2019,43 @@
         <f>F8*0.6</f>
         <v>900</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
         <v>30</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>30</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>10</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>3000</v>
       </c>
-      <c r="AA8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
         <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
       </c>
       <c r="F9">
         <v>1500</v>
@@ -1978,46 +2064,43 @@
         <f t="shared" ref="G9:G72" si="0">F9*0.6</f>
         <v>900</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
         <v>35</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>30</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>10</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>3000</v>
       </c>
-      <c r="AA9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
         <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
       </c>
       <c r="F10">
         <v>1500</v>
@@ -2026,46 +2109,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
         <v>40</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>30</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>10</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3000</v>
       </c>
-      <c r="AA10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
         <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
       </c>
       <c r="F11">
         <v>1500</v>
@@ -2074,46 +2154,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
         <v>45</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>30</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>10</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3000</v>
       </c>
-      <c r="AA11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
         <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
       </c>
       <c r="F12">
         <v>1500</v>
@@ -2122,46 +2199,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
         <v>50</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>30</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>10</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3000</v>
       </c>
-      <c r="AA12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
         <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
       </c>
       <c r="F13">
         <v>2000</v>
@@ -2170,46 +2244,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>150</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>200</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>30</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>30</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>10</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>3000</v>
       </c>
-      <c r="AA13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
         <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
       </c>
       <c r="F14">
         <v>2000</v>
@@ -2218,46 +2289,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>150</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>200</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>35</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>30</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>10</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3000</v>
       </c>
-      <c r="AA14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
         <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
       </c>
       <c r="F15">
         <v>2000</v>
@@ -2266,46 +2334,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>150</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>200</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>40</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>30</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>10</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>3000</v>
       </c>
-      <c r="AA15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16">
         <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
       </c>
       <c r="F16">
         <v>2000</v>
@@ -2314,46 +2379,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>150</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>200</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>45</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>30</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>10</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3000</v>
       </c>
-      <c r="AA16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17">
         <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
       </c>
       <c r="F17">
         <v>2000</v>
@@ -2362,46 +2424,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>150</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>200</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>50</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>30</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>10</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>3000</v>
       </c>
-      <c r="AA17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
       </c>
       <c r="F18">
         <v>2000</v>
@@ -2410,37 +2469,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>400</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>150</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>300</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>30</v>
       </c>
-      <c r="AA18" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
       </c>
       <c r="F19">
         <v>2000</v>
@@ -2449,37 +2505,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>400</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>150</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>300</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>35</v>
       </c>
-      <c r="AA19" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
         <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
       </c>
       <c r="F20">
         <v>2000</v>
@@ -2488,37 +2541,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>400</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>150</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>300</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>40</v>
       </c>
-      <c r="AA20" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21">
         <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
       </c>
       <c r="F21">
         <v>2000</v>
@@ -2527,37 +2577,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>400</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>150</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>300</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>45</v>
       </c>
-      <c r="AA21" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
         <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
       </c>
       <c r="F22">
         <v>2000</v>
@@ -2566,37 +2613,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>400</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>150</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>300</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>50</v>
       </c>
-      <c r="AA22" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
         <v>3</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
       </c>
       <c r="F23">
         <v>1500</v>
@@ -2605,37 +2649,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>250</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>500</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>30</v>
       </c>
-      <c r="AA23" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
         <v>3</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
       </c>
       <c r="F24">
         <v>1500</v>
@@ -2644,37 +2685,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>250</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>500</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>35</v>
       </c>
-      <c r="AA24" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
         <v>3</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
       </c>
       <c r="F25">
         <v>1500</v>
@@ -2683,37 +2721,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>250</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>500</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>40</v>
       </c>
-      <c r="AA25" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
         <v>3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
       </c>
       <c r="F26">
         <v>1500</v>
@@ -2722,37 +2757,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>250</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>500</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>45</v>
       </c>
-      <c r="AA26" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27">
         <v>3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
       </c>
       <c r="F27">
         <v>1500</v>
@@ -2761,37 +2793,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>250</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>500</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>50</v>
       </c>
-      <c r="AA27" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
       </c>
       <c r="F28">
         <v>1000</v>
@@ -2800,46 +2829,43 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>30</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>50</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>30</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
-      <c r="AA28" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
       </c>
       <c r="F29">
         <v>1000</v>
@@ -2848,46 +2874,43 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>30</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>50</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>35</v>
       </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
-      <c r="AA29" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
         <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
       </c>
       <c r="F30">
         <v>1000</v>
@@ -2896,46 +2919,43 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>30</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>50</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>40</v>
       </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
-      <c r="AA30" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
       </c>
       <c r="F31">
         <v>1000</v>
@@ -2944,46 +2964,43 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>30</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>50</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>45</v>
       </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
-      <c r="AA31" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32">
         <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
       </c>
       <c r="F32">
         <v>1000</v>
@@ -2992,46 +3009,43 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>30</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>50</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>50</v>
       </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
-      <c r="AA32" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
         <v>2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
       </c>
       <c r="F33">
         <v>1500</v>
@@ -3040,46 +3054,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
         <v>30</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>30</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>10</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>3000</v>
       </c>
-      <c r="AA33" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
         <v>2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
       </c>
       <c r="F34">
         <v>1500</v>
@@ -3088,46 +3099,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
         <v>35</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>30</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>10</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>3000</v>
       </c>
-      <c r="AA34" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB34" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35">
         <v>2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
       </c>
       <c r="F35">
         <v>1500</v>
@@ -3136,46 +3144,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
         <v>40</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>30</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>10</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>3000</v>
       </c>
-      <c r="AA35" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB35" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36">
         <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
       </c>
       <c r="F36">
         <v>1500</v>
@@ -3184,46 +3189,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
         <v>45</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>30</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>10</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>3000</v>
       </c>
-      <c r="AA36" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB36" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37">
         <v>2</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
       </c>
       <c r="F37">
         <v>1500</v>
@@ -3232,46 +3234,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
         <v>50</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>30</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>10</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>3000</v>
       </c>
-      <c r="AA37" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB37" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
         <v>2</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
       </c>
       <c r="F38">
         <v>2000</v>
@@ -3280,49 +3279,46 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>150</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>200</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>30</v>
       </c>
-      <c r="V38" t="s">
-        <v>232</v>
-      </c>
-      <c r="X38">
+      <c r="W38" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y38">
         <v>30</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>10</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>3000</v>
       </c>
-      <c r="AA38" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB38" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
         <v>2</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
       </c>
       <c r="F39">
         <v>2000</v>
@@ -3331,49 +3327,46 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>150</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>200</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>35</v>
       </c>
-      <c r="V39" t="s">
-        <v>233</v>
-      </c>
-      <c r="X39">
+      <c r="W39" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y39">
         <v>30</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>10</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>3000</v>
       </c>
-      <c r="AA39" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB39" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
         <v>2</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0</v>
       </c>
       <c r="F40">
         <v>2000</v>
@@ -3382,49 +3375,46 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>150</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>200</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>40</v>
       </c>
-      <c r="V40" t="s">
-        <v>234</v>
-      </c>
-      <c r="X40">
+      <c r="W40" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y40">
         <v>30</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>10</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>3000</v>
       </c>
-      <c r="AA40" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB40" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
         <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
       </c>
       <c r="F41">
         <v>2000</v>
@@ -3433,49 +3423,46 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>150</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>200</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>45</v>
       </c>
-      <c r="V41" t="s">
-        <v>235</v>
-      </c>
-      <c r="X41">
+      <c r="W41" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y41">
         <v>30</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>10</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>3000</v>
       </c>
-      <c r="AA41" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB41" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42">
         <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
       </c>
       <c r="F42">
         <v>2000</v>
@@ -3484,49 +3471,46 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>150</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>200</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>50</v>
       </c>
-      <c r="V42" t="s">
-        <v>236</v>
-      </c>
-      <c r="X42">
+      <c r="W42" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y42">
         <v>30</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>10</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>3000</v>
       </c>
-      <c r="AA42" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
         <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
       </c>
       <c r="F43">
         <v>2000</v>
@@ -3535,37 +3519,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>400</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>150</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>300</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>30</v>
       </c>
-      <c r="AA43" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB43" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
         <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
       </c>
       <c r="F44">
         <v>2000</v>
@@ -3574,37 +3555,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>400</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>150</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>300</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>35</v>
       </c>
-      <c r="AA44" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB44" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45">
         <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
       </c>
       <c r="F45">
         <v>2000</v>
@@ -3613,37 +3591,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>400</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>150</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>300</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>40</v>
       </c>
-      <c r="AA45" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB45" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46">
         <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
       </c>
       <c r="F46">
         <v>2000</v>
@@ -3652,37 +3627,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>400</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>150</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>300</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>45</v>
       </c>
-      <c r="AA46" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB46" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47">
         <v>1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
       </c>
       <c r="F47">
         <v>2000</v>
@@ -3691,37 +3663,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>400</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>150</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>300</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>50</v>
       </c>
-      <c r="AA47" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB47" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
         <v>3</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
       </c>
       <c r="F48">
         <v>1500</v>
@@ -3730,37 +3699,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>250</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>500</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>30</v>
       </c>
-      <c r="AA48" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB48" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49">
         <v>3</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
       </c>
       <c r="F49">
         <v>1500</v>
@@ -3769,37 +3735,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>250</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>500</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>35</v>
       </c>
-      <c r="AA49" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50">
         <v>3</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
       </c>
       <c r="F50">
         <v>1500</v>
@@ -3808,37 +3771,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
       <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>250</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>500</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>40</v>
       </c>
-      <c r="AA50" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB50" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51">
         <v>3</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
       </c>
       <c r="F51">
         <v>1500</v>
@@ -3847,37 +3807,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>250</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>500</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>45</v>
       </c>
-      <c r="AA51" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB51" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
       <c r="D52">
         <v>3</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
       </c>
       <c r="F52">
         <v>1500</v>
@@ -3886,37 +3843,34 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>250</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>500</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>50</v>
       </c>
-      <c r="AA52" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB52" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
       </c>
       <c r="F53">
         <v>1000</v>
@@ -3925,46 +3879,43 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>30</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>50</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
       <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>30</v>
       </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
       <c r="Y53">
         <v>0</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
-      <c r="AA53" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
         <v>0</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
       </c>
       <c r="F54">
         <v>1000</v>
@@ -3973,21 +3924,18 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>30</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>50</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
       <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>35</v>
       </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
       <c r="Y54">
         <v>0</v>
       </c>
@@ -3995,24 +3943,24 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
         <v>0</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
       </c>
       <c r="F55">
         <v>1000</v>
@@ -4021,21 +3969,18 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>30</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>50</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
       <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>40</v>
       </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
       <c r="Y55">
         <v>0</v>
       </c>
@@ -4043,24 +3988,24 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56">
         <v>0</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
       </c>
       <c r="F56">
         <v>1000</v>
@@ -4069,21 +4014,18 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>30</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>50</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
         <v>45</v>
       </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
       <c r="Y56">
         <v>0</v>
       </c>
@@ -4091,24 +4033,24 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C57">
         <v>5</v>
       </c>
       <c r="D57">
         <v>0</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
       </c>
       <c r="F57">
         <v>1000</v>
@@ -4117,21 +4059,18 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>30</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>50</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
       <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>50</v>
       </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
       <c r="Y57">
         <v>0</v>
       </c>
@@ -4139,24 +4078,24 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
         <v>2</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0</v>
       </c>
       <c r="F58">
         <v>1500</v>
@@ -4165,46 +4104,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
       <c r="I58">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>100</v>
       </c>
       <c r="K58">
+        <v>100</v>
+      </c>
+      <c r="L58">
         <v>30</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>30</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>10</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>3000</v>
       </c>
-      <c r="AA58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>222</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
         <v>2</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
       </c>
       <c r="F59">
         <v>1500</v>
@@ -4213,46 +4149,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
       <c r="I59">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>100</v>
       </c>
       <c r="K59">
+        <v>100</v>
+      </c>
+      <c r="L59">
         <v>35</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>30</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>10</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>3000</v>
       </c>
-      <c r="AA59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
         <v>2</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0</v>
       </c>
       <c r="F60">
         <v>1500</v>
@@ -4261,46 +4194,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
       <c r="I60">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>100</v>
       </c>
       <c r="K60">
+        <v>100</v>
+      </c>
+      <c r="L60">
         <v>40</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>30</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>10</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>3000</v>
       </c>
-      <c r="AA60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>224</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61">
         <v>2</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
       </c>
       <c r="F61">
         <v>1500</v>
@@ -4309,46 +4239,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>100</v>
       </c>
       <c r="K61">
+        <v>100</v>
+      </c>
+      <c r="L61">
         <v>45</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>30</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>10</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>3000</v>
       </c>
-      <c r="AA61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>225</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
       <c r="D62">
         <v>2</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
       </c>
       <c r="F62">
         <v>1500</v>
@@ -4357,46 +4284,43 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
       <c r="I62">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>100</v>
       </c>
       <c r="K62">
+        <v>100</v>
+      </c>
+      <c r="L62">
         <v>50</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>30</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>10</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>3000</v>
       </c>
-      <c r="AA62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
         <v>2</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
       </c>
       <c r="F63">
         <v>2000</v>
@@ -4405,46 +4329,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
       <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>150</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>200</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>30</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>30</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>10</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>3000</v>
       </c>
-      <c r="AA63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
         <v>2</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0</v>
       </c>
       <c r="F64">
         <v>2000</v>
@@ -4453,46 +4374,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
       <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>150</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>200</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>35</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>30</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>10</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>3000</v>
       </c>
-      <c r="AA64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
         <v>2</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
       </c>
       <c r="F65">
         <v>2000</v>
@@ -4501,46 +4419,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>150</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>200</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>40</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>30</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>10</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>3000</v>
       </c>
-      <c r="AA65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66">
         <v>2</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0</v>
       </c>
       <c r="F66">
         <v>2000</v>
@@ -4549,46 +4464,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
       <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>150</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>200</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>45</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>30</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>10</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>3000</v>
       </c>
-      <c r="AA66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
       <c r="D67">
         <v>2</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
       </c>
       <c r="F67">
         <v>2000</v>
@@ -4597,46 +4509,43 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
       <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>150</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>200</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>50</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>30</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>10</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>3000</v>
       </c>
-      <c r="AA67">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0</v>
       </c>
       <c r="F68">
         <v>2000</v>
@@ -4645,37 +4554,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>400</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>150</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>300</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>30</v>
       </c>
-      <c r="AA68" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB68" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
         <v>1</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
       </c>
       <c r="F69">
         <v>2000</v>
@@ -4684,37 +4590,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>400</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>150</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>300</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>35</v>
       </c>
-      <c r="AA69" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB69" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
         <v>1</v>
-      </c>
-      <c r="E70" s="2">
-        <v>0</v>
       </c>
       <c r="F70">
         <v>2000</v>
@@ -4723,37 +4626,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>400</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>150</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>300</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>40</v>
       </c>
-      <c r="AA70" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB70" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
       <c r="D71">
         <v>1</v>
-      </c>
-      <c r="E71" s="2">
-        <v>0</v>
       </c>
       <c r="F71">
         <v>2000</v>
@@ -4762,37 +4662,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>400</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>150</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>300</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>45</v>
       </c>
-      <c r="AA71" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB71" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72">
         <v>1</v>
-      </c>
-      <c r="E72" s="2">
-        <v>0</v>
       </c>
       <c r="F72">
         <v>2000</v>
@@ -4801,37 +4698,34 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>400</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>150</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>300</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>50</v>
       </c>
-      <c r="AA72" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB72" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>251</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
         <v>3</v>
-      </c>
-      <c r="E73" s="2">
-        <v>0</v>
       </c>
       <c r="F73">
         <v>1500</v>
@@ -4840,37 +4734,34 @@
         <f t="shared" ref="G73:G104" si="1">F73*0.6</f>
         <v>900</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
       <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>250</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>500</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>30</v>
       </c>
-      <c r="AA73" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB73" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
         <v>3</v>
-      </c>
-      <c r="E74" s="2">
-        <v>0</v>
       </c>
       <c r="F74">
         <v>1500</v>
@@ -4879,37 +4770,34 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>250</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>500</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>35</v>
       </c>
-      <c r="AA74" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB74" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75">
         <v>3</v>
-      </c>
-      <c r="E75" s="2">
-        <v>0</v>
       </c>
       <c r="F75">
         <v>1500</v>
@@ -4918,37 +4806,34 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
       <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
         <v>250</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>500</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>40</v>
       </c>
-      <c r="AA75" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB75" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76">
         <v>3</v>
-      </c>
-      <c r="E76" s="2">
-        <v>0</v>
       </c>
       <c r="F76">
         <v>1500</v>
@@ -4957,37 +4842,34 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
       <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <v>250</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>500</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>45</v>
       </c>
-      <c r="AA76" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB76" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C77">
         <v>5</v>
       </c>
       <c r="D77">
         <v>3</v>
-      </c>
-      <c r="E77" s="2">
-        <v>0</v>
       </c>
       <c r="F77">
         <v>1500</v>
@@ -4996,37 +4878,34 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
       <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <v>250</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>500</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>50</v>
       </c>
-      <c r="AA77" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB77" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>301</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
-      </c>
-      <c r="E78" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F78" s="2">
         <v>1000</v>
@@ -5035,37 +4914,34 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>150</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
         <v>150</v>
       </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F79" s="2">
         <v>1000</v>
@@ -5074,37 +4950,34 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H79" s="2">
+      <c r="I79" s="2">
         <v>150</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2">
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
         <v>150</v>
       </c>
-      <c r="K79" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E80" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F80" s="2">
         <v>1000</v>
@@ -5113,37 +4986,34 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>150</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
         <v>150</v>
       </c>
-      <c r="K80" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>304</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E81" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F81" s="2">
         <v>1000</v>
@@ -5152,37 +5022,34 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I81" s="2">
         <v>150</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2">
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
         <v>150</v>
       </c>
-      <c r="K81" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E82" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F82" s="2">
         <v>1000</v>
@@ -5191,37 +5058,34 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H82" s="2">
+      <c r="I82" s="2">
         <v>150</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
         <v>150</v>
       </c>
-      <c r="K82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>311</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E83" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F83" s="2">
         <v>2000</v>
@@ -5230,37 +5094,34 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>400</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
       <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
         <v>250</v>
       </c>
-      <c r="K83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F84" s="2">
         <v>2000</v>
@@ -5269,37 +5130,34 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="H84" s="2">
+      <c r="I84" s="2">
         <v>400</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2">
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
         <v>250</v>
       </c>
-      <c r="K84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>313</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F85" s="2">
         <v>2000</v>
@@ -5308,37 +5166,34 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="H85" s="2">
+      <c r="I85" s="2">
         <v>400</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2">
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
         <v>250</v>
       </c>
-      <c r="K85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>314</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E86" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F86" s="2">
         <v>2000</v>
@@ -5347,37 +5202,34 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="H86" s="2">
+      <c r="I86" s="2">
         <v>400</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2">
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
         <v>250</v>
       </c>
-      <c r="K86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>315</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E87" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F87" s="2">
         <v>2000</v>
@@ -5386,46 +5238,50 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="H87" s="2">
+      <c r="I87" s="2">
         <v>400</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" s="2">
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
         <v>250</v>
       </c>
-      <c r="K87" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>321</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F100" s="2">
         <v>1500</v>
@@ -5434,34 +5290,34 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>250</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>200</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>400</v>
       </c>
-      <c r="K100" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>322</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F101" s="2">
         <v>1500</v>
@@ -5470,34 +5326,34 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H101" s="2">
+      <c r="I101" s="2">
         <v>250</v>
       </c>
-      <c r="I101" s="2">
+      <c r="J101" s="2">
         <v>200</v>
       </c>
-      <c r="J101" s="2">
+      <c r="K101" s="2">
         <v>400</v>
       </c>
-      <c r="K101" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>323</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C102" s="2">
         <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F102" s="2">
         <v>1500</v>
@@ -5506,34 +5362,34 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H102" s="2">
+      <c r="I102" s="2">
         <v>250</v>
       </c>
-      <c r="I102" s="2">
+      <c r="J102" s="2">
         <v>200</v>
       </c>
-      <c r="J102" s="2">
+      <c r="K102" s="2">
         <v>400</v>
       </c>
-      <c r="K102" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>324</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C103" s="2">
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F103" s="2">
         <v>1500</v>
@@ -5542,34 +5398,34 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H103" s="2">
+      <c r="I103" s="2">
         <v>250</v>
       </c>
-      <c r="I103" s="2">
+      <c r="J103" s="2">
         <v>200</v>
       </c>
-      <c r="J103" s="2">
+      <c r="K103" s="2">
         <v>400</v>
       </c>
-      <c r="K103" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>325</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C104" s="2">
         <v>5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F104" s="2">
         <v>1500</v>
@@ -5578,112 +5434,112 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H104" s="2">
+      <c r="I104" s="2">
         <v>250</v>
       </c>
-      <c r="I104" s="2">
+      <c r="J104" s="2">
         <v>200</v>
       </c>
-      <c r="J104" s="2">
+      <c r="K104" s="2">
         <v>400</v>
       </c>
-      <c r="K104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-      <c r="AA105" s="2"/>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L105" s="2"/>
+      <c r="AB105" s="2"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="AA106" s="2"/>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="AB106" s="2"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="AA107" s="2"/>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="AB107" s="2"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="AA108" s="2"/>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="AB108" s="2"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="AA109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="AB109" s="2"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5701,7 +5557,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5719,13 +5575,13 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -6907,195 +6763,380 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:L8"/>
+  <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
+      <c r="C2" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
+        <v>324</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" t="s">
-        <v>305</v>
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>217</v>
       </c>
       <c r="K2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="M2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3">
         <v>60000</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4">
         <v>60000</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6">
         <v>60000</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7">
         <v>60000</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" s="2">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>60000</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
         <v>-30</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>332</v>
+      </c>
+      <c r="O11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>326</v>
+      </c>
+      <c r="O12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>325</v>
+      </c>
+      <c r="O13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>337</v>
+      </c>
+      <c r="O14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+      <c r="O17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
+      <c r="O18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+      <c r="O19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+      <c r="O20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H21" s="2"/>
+      <c r="K21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" t="s">
+        <v>322</v>
+      </c>
+      <c r="O21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
+      <c r="K22" t="s">
+        <v>333</v>
+      </c>
+      <c r="O22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+      <c r="O23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="O28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H31" s="2"/>
+      <c r="K31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H32" s="2"/>
+      <c r="K32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H33" s="2"/>
+      <c r="K33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H34" s="2"/>
+      <c r="K34" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -7167,8 +7208,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7192,260 +7233,260 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
         <v>93</v>
       </c>
-      <c r="K3" t="s">
-        <v>102</v>
-      </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="R3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
         <v>94</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>95</v>
       </c>
-      <c r="K4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" t="s">
-        <v>104</v>
-      </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="R4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="R5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="Q6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H7">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" t="s">
         <v>114</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>255</v>
+      </c>
+      <c r="R7" t="s">
+        <v>256</v>
+      </c>
+      <c r="S7" t="s">
         <v>119</v>
-      </c>
-      <c r="O7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>264</v>
-      </c>
-      <c r="R7" t="s">
-        <v>265</v>
-      </c>
-      <c r="S7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H9">
         <f>SUM(H3:H8)</f>
@@ -7454,186 +7495,186 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="N16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O16" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="R16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H18">
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -7642,27 +7683,27 @@
         <v>4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -7674,10 +7715,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -7685,10 +7726,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -7697,123 +7738,123 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K28" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H30">
         <f>SUM(H24:H29)</f>
@@ -7822,315 +7863,315 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F37" s="2"/>
       <c r="I37" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
@@ -8171,27 +8212,27 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
@@ -15,12 +15,12 @@
     <sheet name="output" sheetId="6" r:id="rId6"/>
     <sheet name="memo" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="341">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1264,6 +1264,14 @@
   </si>
   <si>
     <t>coolDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextSkillIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1624,13 +1632,13 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AB136"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1639,29 +1647,26 @@
     <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
-    <col min="13" max="24" width="7.125" customWidth="1"/>
-    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="25" width="7.125" customWidth="1"/>
+    <col min="26" max="26" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
       <c r="N1" t="s">
         <v>47</v>
       </c>
@@ -1695,8 +1700,11 @@
       <c r="X1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1709,77 +1717,83 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>55</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1792,27 +1806,30 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3">
         <v>1000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>600</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>30</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>50</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>30</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
       <c r="Z3">
         <v>0</v>
       </c>
@@ -1820,10 +1837,13 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1836,27 +1856,30 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>1000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>600</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>30</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>50</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>35</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
         <v>0</v>
       </c>
@@ -1864,10 +1887,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1880,27 +1906,30 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5">
         <v>1000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>600</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>30</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>50</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>40</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
         <v>0</v>
       </c>
@@ -1908,10 +1937,13 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1924,27 +1956,30 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>600</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>30</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>45</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
         <v>0</v>
       </c>
@@ -1952,10 +1987,13 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1968,27 +2006,30 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>600</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>30</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>50</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
       <c r="Z7">
         <v>0</v>
       </c>
@@ -1996,10 +2037,13 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2012,39 +2056,45 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>22</v>
+      </c>
+      <c r="G8">
         <v>1500</v>
       </c>
-      <c r="G8">
-        <f>F8*0.6</f>
+      <c r="H8">
+        <f>G8*0.6</f>
         <v>900</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>100</v>
       </c>
       <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
         <v>30</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>30</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>10</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>3000</v>
       </c>
-      <c r="AB8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>22</v>
       </c>
@@ -2057,39 +2107,45 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>23</v>
+      </c>
+      <c r="G9">
         <v>1500</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G72" si="0">F9*0.6</f>
+      <c r="H9">
+        <f t="shared" ref="H9:H72" si="0">G9*0.6</f>
         <v>900</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>100</v>
       </c>
       <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
         <v>35</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>30</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>10</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>3000</v>
       </c>
-      <c r="AB9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
@@ -2102,39 +2158,45 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>24</v>
+      </c>
+      <c r="G10">
         <v>1500</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
         <v>40</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>30</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>10</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3000</v>
       </c>
-      <c r="AB10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
@@ -2147,39 +2209,45 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="G11">
         <v>1500</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>100</v>
       </c>
       <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
         <v>45</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>30</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>10</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>3000</v>
       </c>
-      <c r="AB11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>25</v>
       </c>
@@ -2192,39 +2260,45 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12">
         <v>1500</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>100</v>
       </c>
       <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
         <v>50</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>30</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>10</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>3000</v>
       </c>
-      <c r="AB12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>31</v>
       </c>
@@ -2237,39 +2311,45 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="2">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32</v>
+      </c>
+      <c r="G13">
         <v>2000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>150</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>200</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>30</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>30</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>10</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>3000</v>
       </c>
-      <c r="AB13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>32</v>
       </c>
@@ -2282,39 +2362,45 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="2">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>33</v>
+      </c>
+      <c r="G14">
         <v>2000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>150</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>200</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>35</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>30</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>10</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3000</v>
       </c>
-      <c r="AB14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>33</v>
       </c>
@@ -2327,39 +2413,45 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="2">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2">
+        <v>34</v>
+      </c>
+      <c r="G15">
         <v>2000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>150</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>200</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>40</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>30</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>10</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3000</v>
       </c>
-      <c r="AB15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
@@ -2372,39 +2464,45 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="2">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2">
+        <v>35</v>
+      </c>
+      <c r="G16">
         <v>2000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>150</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>200</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>45</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>30</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>10</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3000</v>
       </c>
-      <c r="AB16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>35</v>
       </c>
@@ -2417,39 +2515,45 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="2">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G17">
         <v>2000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>150</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>200</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>50</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>30</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>10</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>3000</v>
       </c>
-      <c r="AB17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>41</v>
       </c>
@@ -2462,30 +2566,36 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="2">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42</v>
+      </c>
+      <c r="G18">
         <v>2000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>400</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>150</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>300</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>30</v>
       </c>
-      <c r="AB18" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>42</v>
       </c>
@@ -2498,30 +2608,36 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="2">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43</v>
+      </c>
+      <c r="G19">
         <v>2000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>400</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>150</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>300</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>35</v>
       </c>
-      <c r="AB19" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>43</v>
       </c>
@@ -2534,30 +2650,36 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="2">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44</v>
+      </c>
+      <c r="G20">
         <v>2000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>400</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>150</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>300</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>40</v>
       </c>
-      <c r="AB20" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>44</v>
       </c>
@@ -2570,30 +2692,36 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="2">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45</v>
+      </c>
+      <c r="G21">
         <v>2000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>400</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>150</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>300</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>45</v>
       </c>
-      <c r="AB21" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>45</v>
       </c>
@@ -2606,30 +2734,36 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="2">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G22">
         <v>2000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>400</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>150</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>300</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>50</v>
       </c>
-      <c r="AB22" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>51</v>
       </c>
@@ -2642,30 +2776,36 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="F23">
+      <c r="E23" s="2">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>52</v>
+      </c>
+      <c r="G23">
         <v>1500</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>250</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>500</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>30</v>
       </c>
-      <c r="AB23" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>52</v>
       </c>
@@ -2678,30 +2818,36 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="E24" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2">
+        <v>53</v>
+      </c>
+      <c r="G24">
         <v>1500</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>250</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>500</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>35</v>
       </c>
-      <c r="AB24" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>53</v>
       </c>
@@ -2714,30 +2860,36 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2">
+        <v>54</v>
+      </c>
+      <c r="G25">
         <v>1500</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>250</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>500</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>40</v>
       </c>
-      <c r="AB25" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>54</v>
       </c>
@@ -2750,30 +2902,36 @@
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="E26" s="2">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2">
+        <v>55</v>
+      </c>
+      <c r="G26">
         <v>1500</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>250</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>500</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>45</v>
       </c>
-      <c r="AB26" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>55</v>
       </c>
@@ -2786,30 +2944,36 @@
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="2">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G27">
         <v>1500</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>250</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>500</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>50</v>
       </c>
-      <c r="AB27" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>111</v>
       </c>
@@ -2822,39 +2986,45 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="E28" s="2">
+        <v>110</v>
+      </c>
+      <c r="F28" s="2">
+        <v>112</v>
+      </c>
+      <c r="G28">
         <v>1000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>30</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>50</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>30</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
-      <c r="AB28" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>112</v>
       </c>
@@ -2867,39 +3037,45 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="2">
+        <v>110</v>
+      </c>
+      <c r="F29" s="2">
+        <v>113</v>
+      </c>
+      <c r="G29">
         <v>1000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>30</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>50</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>35</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AB29" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>113</v>
       </c>
@@ -2912,39 +3088,45 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="E30" s="2">
+        <v>110</v>
+      </c>
+      <c r="F30" s="2">
+        <v>114</v>
+      </c>
+      <c r="G30">
         <v>1000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>30</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>50</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>40</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
-      <c r="AB30" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>114</v>
       </c>
@@ -2957,39 +3139,45 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="E31" s="2">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2">
+        <v>115</v>
+      </c>
+      <c r="G31">
         <v>1000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>30</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>50</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>45</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AB31" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>115</v>
       </c>
@@ -3002,39 +3190,45 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="2">
+        <v>110</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G32">
         <v>1000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>30</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>50</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>50</v>
       </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
-      <c r="AB32" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>121</v>
       </c>
@@ -3047,39 +3241,45 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="E33" s="2">
+        <v>120</v>
+      </c>
+      <c r="F33" s="2">
+        <v>122</v>
+      </c>
+      <c r="G33">
         <v>1500</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>100</v>
       </c>
       <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
         <v>30</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>30</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>10</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>3000</v>
       </c>
-      <c r="AB33" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>122</v>
       </c>
@@ -3092,39 +3292,45 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="E34" s="2">
+        <v>120</v>
+      </c>
+      <c r="F34" s="2">
+        <v>123</v>
+      </c>
+      <c r="G34">
         <v>1500</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>100</v>
       </c>
       <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34">
         <v>35</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>30</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>10</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>3000</v>
       </c>
-      <c r="AB34" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC34" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>123</v>
       </c>
@@ -3137,39 +3343,45 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="E35" s="2">
+        <v>120</v>
+      </c>
+      <c r="F35" s="2">
+        <v>124</v>
+      </c>
+      <c r="G35">
         <v>1500</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>100</v>
       </c>
       <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
         <v>40</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>30</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>10</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>3000</v>
       </c>
-      <c r="AB35" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC35" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>124</v>
       </c>
@@ -3182,39 +3394,45 @@
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="E36" s="2">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2">
+        <v>125</v>
+      </c>
+      <c r="G36">
         <v>1500</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>100</v>
       </c>
       <c r="L36">
+        <v>100</v>
+      </c>
+      <c r="M36">
         <v>45</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>30</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>10</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>3000</v>
       </c>
-      <c r="AB36" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC36" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>125</v>
       </c>
@@ -3227,39 +3445,45 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="E37" s="2">
+        <v>120</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G37">
         <v>1500</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>100</v>
       </c>
       <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="M37">
         <v>50</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>30</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>10</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>3000</v>
       </c>
-      <c r="AB37" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC37" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>131</v>
       </c>
@@ -3272,42 +3496,48 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="E38" s="2">
+        <v>130</v>
+      </c>
+      <c r="F38" s="2">
+        <v>132</v>
+      </c>
+      <c r="G38">
         <v>2000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>150</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>200</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>30</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>223</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>30</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>10</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>3000</v>
       </c>
-      <c r="AB38" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC38" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>132</v>
       </c>
@@ -3320,42 +3550,48 @@
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="F39">
+      <c r="E39" s="2">
+        <v>130</v>
+      </c>
+      <c r="F39" s="2">
+        <v>133</v>
+      </c>
+      <c r="G39">
         <v>2000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>150</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>200</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>35</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>224</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>30</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>10</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>3000</v>
       </c>
-      <c r="AB39" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC39" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>133</v>
       </c>
@@ -3368,42 +3604,48 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="2">
+        <v>130</v>
+      </c>
+      <c r="F40" s="2">
+        <v>134</v>
+      </c>
+      <c r="G40">
         <v>2000</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>150</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>200</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>40</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>225</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>30</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>10</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>3000</v>
       </c>
-      <c r="AB40" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC40" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>134</v>
       </c>
@@ -3416,42 +3658,48 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="F41">
+      <c r="E41" s="2">
+        <v>130</v>
+      </c>
+      <c r="F41" s="2">
+        <v>135</v>
+      </c>
+      <c r="G41">
         <v>2000</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>150</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>200</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>45</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>226</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>30</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>10</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>3000</v>
       </c>
-      <c r="AB41" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC41" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>135</v>
       </c>
@@ -3464,42 +3712,48 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="F42">
+      <c r="E42" s="2">
+        <v>130</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G42">
         <v>2000</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>150</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>200</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>50</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>227</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>30</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>10</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>3000</v>
       </c>
-      <c r="AB42" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>141</v>
       </c>
@@ -3512,30 +3766,36 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="F43">
+      <c r="E43" s="2">
+        <v>140</v>
+      </c>
+      <c r="F43" s="2">
+        <v>142</v>
+      </c>
+      <c r="G43">
         <v>2000</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>400</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>150</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>300</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>30</v>
       </c>
-      <c r="AB43" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC43" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>142</v>
       </c>
@@ -3548,30 +3808,36 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="F44">
+      <c r="E44" s="2">
+        <v>140</v>
+      </c>
+      <c r="F44" s="2">
+        <v>143</v>
+      </c>
+      <c r="G44">
         <v>2000</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>400</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>150</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>300</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>35</v>
       </c>
-      <c r="AB44" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC44" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>143</v>
       </c>
@@ -3584,30 +3850,36 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="F45">
+      <c r="E45" s="2">
+        <v>140</v>
+      </c>
+      <c r="F45" s="2">
+        <v>144</v>
+      </c>
+      <c r="G45">
         <v>2000</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>400</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>150</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>300</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>40</v>
       </c>
-      <c r="AB45" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC45" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>144</v>
       </c>
@@ -3620,30 +3892,36 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="F46">
+      <c r="E46" s="2">
+        <v>140</v>
+      </c>
+      <c r="F46" s="2">
+        <v>145</v>
+      </c>
+      <c r="G46">
         <v>2000</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>400</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>150</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>300</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>45</v>
       </c>
-      <c r="AB46" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC46" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>145</v>
       </c>
@@ -3656,30 +3934,36 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="E47" s="2">
+        <v>140</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G47">
         <v>2000</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>400</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>150</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>300</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>50</v>
       </c>
-      <c r="AB47" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC47" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>151</v>
       </c>
@@ -3692,30 +3976,36 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="F48">
+      <c r="E48" s="2">
+        <v>150</v>
+      </c>
+      <c r="F48" s="2">
+        <v>152</v>
+      </c>
+      <c r="G48">
         <v>1500</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>250</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>500</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>30</v>
       </c>
-      <c r="AB48" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC48" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>152</v>
       </c>
@@ -3728,30 +4018,36 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="F49">
+      <c r="E49" s="2">
+        <v>150</v>
+      </c>
+      <c r="F49" s="2">
+        <v>153</v>
+      </c>
+      <c r="G49">
         <v>1500</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>250</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>500</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>35</v>
       </c>
-      <c r="AB49" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>153</v>
       </c>
@@ -3764,30 +4060,36 @@
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="F50">
+      <c r="E50" s="2">
+        <v>150</v>
+      </c>
+      <c r="F50" s="2">
+        <v>154</v>
+      </c>
+      <c r="G50">
         <v>1500</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>250</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>500</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>40</v>
       </c>
-      <c r="AB50" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC50" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>154</v>
       </c>
@@ -3800,30 +4102,36 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="F51">
+      <c r="E51" s="2">
+        <v>150</v>
+      </c>
+      <c r="F51" s="2">
+        <v>155</v>
+      </c>
+      <c r="G51">
         <v>1500</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>250</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>500</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>45</v>
       </c>
-      <c r="AB51" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC51" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>155</v>
       </c>
@@ -3836,30 +4144,36 @@
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="F52">
+      <c r="E52" s="2">
+        <v>150</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G52">
         <v>1500</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>250</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>500</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>50</v>
       </c>
-      <c r="AB52" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC52" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>211</v>
       </c>
@@ -3872,39 +4186,45 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="E53" s="2">
+        <v>210</v>
+      </c>
+      <c r="F53" s="2">
+        <v>212</v>
+      </c>
+      <c r="G53">
         <v>1000</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>30</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>50</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>30</v>
       </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
       <c r="Z53">
         <v>0</v>
       </c>
       <c r="AA53">
         <v>0</v>
       </c>
-      <c r="AB53" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>212</v>
       </c>
@@ -3917,28 +4237,31 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="E54" s="2">
+        <v>210</v>
+      </c>
+      <c r="F54" s="2">
+        <v>213</v>
+      </c>
+      <c r="G54">
         <v>1000</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>30</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>50</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
       <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>35</v>
       </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
       <c r="Z54">
         <v>0</v>
       </c>
@@ -3946,10 +4269,13 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>213</v>
       </c>
@@ -3962,28 +4288,31 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="F55">
+      <c r="E55" s="2">
+        <v>210</v>
+      </c>
+      <c r="F55" s="2">
+        <v>214</v>
+      </c>
+      <c r="G55">
         <v>1000</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>30</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>50</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
       <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>40</v>
       </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
       <c r="Z55">
         <v>0</v>
       </c>
@@ -3991,10 +4320,13 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>214</v>
       </c>
@@ -4007,28 +4339,31 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="F56">
+      <c r="E56" s="2">
+        <v>210</v>
+      </c>
+      <c r="F56" s="2">
+        <v>215</v>
+      </c>
+      <c r="G56">
         <v>1000</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>30</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>50</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
       <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>45</v>
       </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
       <c r="Z56">
         <v>0</v>
       </c>
@@ -4036,10 +4371,13 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>215</v>
       </c>
@@ -4052,28 +4390,31 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="E57" s="2">
+        <v>210</v>
+      </c>
+      <c r="F57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G57">
         <v>1000</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>30</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>50</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
       <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>50</v>
       </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
       <c r="Z57">
         <v>0</v>
       </c>
@@ -4081,10 +4422,13 @@
         <v>0</v>
       </c>
       <c r="AB57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>221</v>
       </c>
@@ -4097,39 +4441,45 @@
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="F58">
+      <c r="E58" s="2">
+        <v>220</v>
+      </c>
+      <c r="F58" s="2">
+        <v>222</v>
+      </c>
+      <c r="G58">
         <v>1500</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>100</v>
       </c>
       <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="M58">
         <v>30</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>30</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>10</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>3000</v>
       </c>
-      <c r="AB58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>222</v>
       </c>
@@ -4142,39 +4492,45 @@
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="F59">
+      <c r="E59" s="2">
+        <v>220</v>
+      </c>
+      <c r="F59" s="2">
+        <v>223</v>
+      </c>
+      <c r="G59">
         <v>1500</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>100</v>
       </c>
       <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="M59">
         <v>35</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>30</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>10</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>3000</v>
       </c>
-      <c r="AB59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>223</v>
       </c>
@@ -4187,39 +4543,45 @@
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="F60">
+      <c r="E60" s="2">
+        <v>220</v>
+      </c>
+      <c r="F60" s="2">
+        <v>224</v>
+      </c>
+      <c r="G60">
         <v>1500</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>100</v>
       </c>
       <c r="L60">
+        <v>100</v>
+      </c>
+      <c r="M60">
         <v>40</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>30</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>10</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>3000</v>
       </c>
-      <c r="AB60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>224</v>
       </c>
@@ -4232,39 +4594,45 @@
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="F61">
+      <c r="E61" s="2">
+        <v>220</v>
+      </c>
+      <c r="F61" s="2">
+        <v>225</v>
+      </c>
+      <c r="G61">
         <v>1500</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>100</v>
       </c>
       <c r="L61">
+        <v>100</v>
+      </c>
+      <c r="M61">
         <v>45</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>30</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>10</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>3000</v>
       </c>
-      <c r="AB61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>225</v>
       </c>
@@ -4277,39 +4645,45 @@
       <c r="D62">
         <v>2</v>
       </c>
-      <c r="F62">
+      <c r="E62" s="2">
+        <v>220</v>
+      </c>
+      <c r="F62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G62">
         <v>1500</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
       <c r="J62">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>100</v>
       </c>
       <c r="L62">
+        <v>100</v>
+      </c>
+      <c r="M62">
         <v>50</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>30</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>10</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>3000</v>
       </c>
-      <c r="AB62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>231</v>
       </c>
@@ -4322,39 +4696,45 @@
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="F63">
+      <c r="E63" s="2">
+        <v>230</v>
+      </c>
+      <c r="F63" s="2">
+        <v>232</v>
+      </c>
+      <c r="G63">
         <v>2000</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>150</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>200</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>30</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>30</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>10</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>3000</v>
       </c>
-      <c r="AB63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>232</v>
       </c>
@@ -4367,39 +4747,45 @@
       <c r="D64">
         <v>2</v>
       </c>
-      <c r="F64">
+      <c r="E64" s="2">
+        <v>230</v>
+      </c>
+      <c r="F64" s="2">
+        <v>233</v>
+      </c>
+      <c r="G64">
         <v>2000</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
         <v>150</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>200</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>35</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>30</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>10</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>3000</v>
       </c>
-      <c r="AB64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>233</v>
       </c>
@@ -4412,39 +4798,45 @@
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="F65">
+      <c r="E65" s="2">
+        <v>230</v>
+      </c>
+      <c r="F65" s="2">
+        <v>234</v>
+      </c>
+      <c r="G65">
         <v>2000</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
         <v>150</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>200</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>40</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>30</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>10</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>3000</v>
       </c>
-      <c r="AB65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>234</v>
       </c>
@@ -4457,39 +4849,45 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="F66">
+      <c r="E66" s="2">
+        <v>230</v>
+      </c>
+      <c r="F66" s="2">
+        <v>235</v>
+      </c>
+      <c r="G66">
         <v>2000</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
         <v>150</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>200</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>45</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>30</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>10</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>3000</v>
       </c>
-      <c r="AB66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>235</v>
       </c>
@@ -4502,39 +4900,45 @@
       <c r="D67">
         <v>2</v>
       </c>
-      <c r="F67">
+      <c r="E67" s="2">
+        <v>230</v>
+      </c>
+      <c r="F67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G67">
         <v>2000</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
         <v>150</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>200</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>50</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>30</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>10</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>3000</v>
       </c>
-      <c r="AB67">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>241</v>
       </c>
@@ -4547,30 +4951,36 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="F68">
+      <c r="E68" s="2">
+        <v>240</v>
+      </c>
+      <c r="F68" s="2">
+        <v>242</v>
+      </c>
+      <c r="G68">
         <v>2000</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>400</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>150</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>300</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>30</v>
       </c>
-      <c r="AB68" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC68" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>242</v>
       </c>
@@ -4583,30 +4993,36 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="F69">
+      <c r="E69" s="2">
+        <v>240</v>
+      </c>
+      <c r="F69" s="2">
+        <v>243</v>
+      </c>
+      <c r="G69">
         <v>2000</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>400</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>150</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>300</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>35</v>
       </c>
-      <c r="AB69" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC69" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>243</v>
       </c>
@@ -4619,30 +5035,36 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="F70">
+      <c r="E70" s="2">
+        <v>240</v>
+      </c>
+      <c r="F70" s="2">
+        <v>244</v>
+      </c>
+      <c r="G70">
         <v>2000</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>400</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>150</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>300</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>40</v>
       </c>
-      <c r="AB70" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC70" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>244</v>
       </c>
@@ -4655,30 +5077,36 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="F71">
+      <c r="E71" s="2">
+        <v>240</v>
+      </c>
+      <c r="F71" s="2">
+        <v>245</v>
+      </c>
+      <c r="G71">
         <v>2000</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>400</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>150</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>300</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>45</v>
       </c>
-      <c r="AB71" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC71" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>245</v>
       </c>
@@ -4691,30 +5119,36 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="F72">
+      <c r="E72" s="2">
+        <v>240</v>
+      </c>
+      <c r="F72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G72">
         <v>2000</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>400</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>150</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>300</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>50</v>
       </c>
-      <c r="AB72" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC72" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>251</v>
       </c>
@@ -4727,30 +5161,36 @@
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="F73">
+      <c r="E73" s="2">
+        <v>250</v>
+      </c>
+      <c r="F73" s="2">
+        <v>252</v>
+      </c>
+      <c r="G73">
         <v>1500</v>
       </c>
-      <c r="G73">
-        <f t="shared" ref="G73:G104" si="1">F73*0.6</f>
+      <c r="H73">
+        <f t="shared" ref="H73:H104" si="1">G73*0.6</f>
         <v>900</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
       <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
         <v>250</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>500</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>30</v>
       </c>
-      <c r="AB73" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC73" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>252</v>
       </c>
@@ -4763,30 +5203,36 @@
       <c r="D74">
         <v>3</v>
       </c>
-      <c r="F74">
+      <c r="E74" s="2">
+        <v>250</v>
+      </c>
+      <c r="F74" s="2">
+        <v>253</v>
+      </c>
+      <c r="G74">
         <v>1500</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
       <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
         <v>250</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>500</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>35</v>
       </c>
-      <c r="AB74" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC74" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>253</v>
       </c>
@@ -4799,30 +5245,36 @@
       <c r="D75">
         <v>3</v>
       </c>
-      <c r="F75">
+      <c r="E75" s="2">
+        <v>250</v>
+      </c>
+      <c r="F75" s="2">
+        <v>254</v>
+      </c>
+      <c r="G75">
         <v>1500</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
         <v>250</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>500</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>40</v>
       </c>
-      <c r="AB75" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC75" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>254</v>
       </c>
@@ -4835,30 +5287,36 @@
       <c r="D76">
         <v>3</v>
       </c>
-      <c r="F76">
+      <c r="E76" s="2">
+        <v>250</v>
+      </c>
+      <c r="F76" s="2">
+        <v>255</v>
+      </c>
+      <c r="G76">
         <v>1500</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <v>250</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>500</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>45</v>
       </c>
-      <c r="AB76" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC76" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>255</v>
       </c>
@@ -4871,30 +5329,36 @@
       <c r="D77">
         <v>3</v>
       </c>
-      <c r="F77">
+      <c r="E77" s="2">
+        <v>250</v>
+      </c>
+      <c r="F77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G77">
         <v>1500</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
         <v>250</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>500</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>50</v>
       </c>
-      <c r="AB77" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC77" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>301</v>
       </c>
@@ -4907,30 +5371,36 @@
       <c r="D78" t="s">
         <v>228</v>
       </c>
+      <c r="E78" s="2">
+        <v>300</v>
+      </c>
       <c r="F78" s="2">
+        <v>302</v>
+      </c>
+      <c r="G78" s="2">
         <v>1000</v>
       </c>
-      <c r="G78" s="2">
+      <c r="H78" s="2">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>150</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
       <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
         <v>150</v>
       </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>302</v>
       </c>
@@ -4943,30 +5413,36 @@
       <c r="D79" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E79" s="2">
+        <v>300</v>
+      </c>
       <c r="F79" s="2">
+        <v>303</v>
+      </c>
+      <c r="G79" s="2">
         <v>1000</v>
       </c>
-      <c r="G79" s="2">
+      <c r="H79" s="2">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="I79" s="2">
+      <c r="J79" s="2">
         <v>150</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
         <v>150</v>
       </c>
-      <c r="L79" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB79" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>303</v>
       </c>
@@ -4979,30 +5455,36 @@
       <c r="D80" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E80" s="2">
+        <v>300</v>
+      </c>
       <c r="F80" s="2">
+        <v>304</v>
+      </c>
+      <c r="G80" s="2">
         <v>1000</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>150</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
         <v>150</v>
       </c>
-      <c r="L80" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>304</v>
       </c>
@@ -5015,30 +5497,36 @@
       <c r="D81" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E81" s="2">
+        <v>300</v>
+      </c>
       <c r="F81" s="2">
+        <v>305</v>
+      </c>
+      <c r="G81" s="2">
         <v>1000</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="I81" s="2">
+      <c r="J81" s="2">
         <v>150</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
         <v>150</v>
       </c>
-      <c r="L81" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>305</v>
       </c>
@@ -5051,30 +5539,36 @@
       <c r="D82" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E82" s="2">
+        <v>300</v>
+      </c>
       <c r="F82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="2">
         <v>1000</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="I82" s="2">
+      <c r="J82" s="2">
         <v>150</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
         <v>150</v>
       </c>
-      <c r="L82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>311</v>
       </c>
@@ -5087,30 +5581,36 @@
       <c r="D83" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E83" s="2">
+        <v>310</v>
+      </c>
       <c r="F83" s="2">
+        <v>312</v>
+      </c>
+      <c r="G83" s="2">
         <v>2000</v>
       </c>
-      <c r="G83" s="2">
+      <c r="H83" s="2">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>400</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
       <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
         <v>250</v>
       </c>
-      <c r="L83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>312</v>
       </c>
@@ -5123,30 +5623,36 @@
       <c r="D84" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E84" s="2">
+        <v>310</v>
+      </c>
       <c r="F84" s="2">
+        <v>313</v>
+      </c>
+      <c r="G84" s="2">
         <v>2000</v>
       </c>
-      <c r="G84" s="2">
+      <c r="H84" s="2">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="I84" s="2">
+      <c r="J84" s="2">
         <v>400</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
         <v>250</v>
       </c>
-      <c r="L84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>313</v>
       </c>
@@ -5159,30 +5665,36 @@
       <c r="D85" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E85" s="2">
+        <v>310</v>
+      </c>
       <c r="F85" s="2">
+        <v>314</v>
+      </c>
+      <c r="G85" s="2">
         <v>2000</v>
       </c>
-      <c r="G85" s="2">
+      <c r="H85" s="2">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="I85" s="2">
+      <c r="J85" s="2">
         <v>400</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
         <v>250</v>
       </c>
-      <c r="L85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>314</v>
       </c>
@@ -5195,30 +5707,36 @@
       <c r="D86" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E86" s="2">
+        <v>310</v>
+      </c>
       <c r="F86" s="2">
+        <v>315</v>
+      </c>
+      <c r="G86" s="2">
         <v>2000</v>
       </c>
-      <c r="G86" s="2">
+      <c r="H86" s="2">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="I86" s="2">
+      <c r="J86" s="2">
         <v>400</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
         <v>250</v>
       </c>
-      <c r="L86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>315</v>
       </c>
@@ -5231,46 +5749,52 @@
       <c r="D87" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E87" s="2">
+        <v>310</v>
+      </c>
       <c r="F87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G87" s="2">
         <v>2000</v>
       </c>
-      <c r="G87" s="2">
+      <c r="H87" s="2">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="I87" s="2">
+      <c r="J87" s="2">
         <v>400</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
         <v>250</v>
       </c>
-      <c r="L87" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D93" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="94" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>321</v>
       </c>
@@ -5283,30 +5807,30 @@
       <c r="D100" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F100" s="2">
+      <c r="G100" s="2">
         <v>1500</v>
       </c>
-      <c r="G100" s="2">
+      <c r="H100" s="2">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>250</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>200</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>400</v>
       </c>
-      <c r="L100" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>322</v>
       </c>
@@ -5319,30 +5843,30 @@
       <c r="D101" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F101" s="2">
+      <c r="G101" s="2">
         <v>1500</v>
       </c>
-      <c r="G101" s="2">
+      <c r="H101" s="2">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I101" s="2">
+      <c r="J101" s="2">
         <v>250</v>
       </c>
-      <c r="J101" s="2">
+      <c r="K101" s="2">
         <v>200</v>
       </c>
-      <c r="K101" s="2">
+      <c r="L101" s="2">
         <v>400</v>
       </c>
-      <c r="L101" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>323</v>
       </c>
@@ -5355,30 +5879,30 @@
       <c r="D102" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F102" s="2">
+      <c r="G102" s="2">
         <v>1500</v>
       </c>
-      <c r="G102" s="2">
+      <c r="H102" s="2">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I102" s="2">
+      <c r="J102" s="2">
         <v>250</v>
       </c>
-      <c r="J102" s="2">
+      <c r="K102" s="2">
         <v>200</v>
       </c>
-      <c r="K102" s="2">
+      <c r="L102" s="2">
         <v>400</v>
       </c>
-      <c r="L102" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>324</v>
       </c>
@@ -5391,30 +5915,30 @@
       <c r="D103" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F103" s="2">
+      <c r="G103" s="2">
         <v>1500</v>
       </c>
-      <c r="G103" s="2">
+      <c r="H103" s="2">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I103" s="2">
+      <c r="J103" s="2">
         <v>250</v>
       </c>
-      <c r="J103" s="2">
+      <c r="K103" s="2">
         <v>200</v>
       </c>
-      <c r="K103" s="2">
+      <c r="L103" s="2">
         <v>400</v>
       </c>
-      <c r="L103" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB103" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>325</v>
       </c>
@@ -5427,95 +5951,95 @@
       <c r="D104" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F104" s="2">
+      <c r="G104" s="2">
         <v>1500</v>
       </c>
-      <c r="G104" s="2">
+      <c r="H104" s="2">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I104" s="2">
+      <c r="J104" s="2">
         <v>250</v>
       </c>
-      <c r="J104" s="2">
+      <c r="K104" s="2">
         <v>200</v>
       </c>
-      <c r="K104" s="2">
+      <c r="L104" s="2">
         <v>400</v>
       </c>
-      <c r="L104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB104" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="I105" s="2"/>
+      <c r="H105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="AB105" s="2"/>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M105" s="2"/>
+      <c r="AC105" s="2"/>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="I106" s="2"/>
+      <c r="H106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="AB106" s="2"/>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="AC106" s="2"/>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="I107" s="2"/>
+      <c r="H107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="AB107" s="2"/>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="AC107" s="2"/>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="I108" s="2"/>
+      <c r="H108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="AB108" s="2"/>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="AC108" s="2"/>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="I109" s="2"/>
+      <c r="H109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="AB109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="AC109" s="2"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="userBase" sheetId="3" r:id="rId2"/>
-    <sheet name="userLevel" sheetId="2" r:id="rId3"/>
+    <sheet name="chest" sheetId="8" r:id="rId3"/>
     <sheet name="buff" sheetId="5" r:id="rId4"/>
     <sheet name="ref" sheetId="4" r:id="rId5"/>
     <sheet name="output" sheetId="6" r:id="rId6"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="382">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,27 +102,888 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelBonusType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusAmount1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusType2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusAmount2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusType3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBonusAmount3</t>
+    <t>needExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseRotateSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToSelf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToTarget1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffToSelf2</t>
+  </si>
+  <si>
+    <t>buffToSelf3</t>
+  </si>
+  <si>
+    <t>buffToTarget2</t>
+  </si>
+  <si>
+    <t>buffToTarget3</t>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumeMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTickTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_TICK_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_HEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToSelf3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffToTarget3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_MOVE_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_CAST_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_TRAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_SILENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TELEPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_DEFENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_DEFENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_WEAK_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF_EXPLOSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPEL_SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPEL_TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_MANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_SELF_EXPLOSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_IMMOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_INVISIBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YELLOW or GRAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frooze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow or stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large explosion radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hige damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong purple?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 주위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체2(강, 약)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역 범위 지속?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체 지속 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillBase4</t>
+  </si>
+  <si>
+    <t>RedSkillBase5</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>RedSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>RedSkillRange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillRange2</t>
+  </si>
+  <si>
+    <t>RedSkillRange3</t>
+  </si>
+  <si>
+    <t>RedSkillRange4</t>
+  </si>
+  <si>
+    <t>RedSkillRange5</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillSelfRange2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSkillSelfRange3</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange4</t>
+  </si>
+  <si>
+    <t>RedSkillSelfRange5</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillBase1</t>
+  </si>
+  <si>
+    <t>BlueSkillBase2</t>
+  </si>
+  <si>
+    <t>BlueSkillBase3</t>
+  </si>
+  <si>
+    <t>BlueSkillBase4</t>
+  </si>
+  <si>
+    <t>BlueSkillBase5</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak1</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong1</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>BlueSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>BlueSkillRange1</t>
+  </si>
+  <si>
+    <t>BlueSkillRange2</t>
+  </si>
+  <si>
+    <t>BlueSkillRange3</t>
+  </si>
+  <si>
+    <t>BlueSkillRange4</t>
+  </si>
+  <si>
+    <t>BlueSkillRange5</t>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueSkillRangeTick5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillBase1</t>
+  </si>
+  <si>
+    <t>YellowSkillBase2</t>
+  </si>
+  <si>
+    <t>YellowSkillBase3</t>
+  </si>
+  <si>
+    <t>YellowSkillBase4</t>
+  </si>
+  <si>
+    <t>YellowSkillBase5</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak1</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak2</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak3</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak4</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileWeak5</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong1</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong2</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong3</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong4</t>
+  </si>
+  <si>
+    <t>YellowSkillProjectileStrong5</t>
+  </si>
+  <si>
+    <t>YellowSkillRange1</t>
+  </si>
+  <si>
+    <t>YellowSkillRange2</t>
+  </si>
+  <si>
+    <t>YellowSkillRange3</t>
+  </si>
+  <si>
+    <t>YellowSkillRange4</t>
+  </si>
+  <si>
+    <t>YellowSkillRange5</t>
+  </si>
+  <si>
+    <t>tickdamage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickdamage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze3</t>
+  </si>
+  <si>
+    <t>freeze4</t>
+  </si>
+  <si>
+    <t>freeze5</t>
+  </si>
+  <si>
+    <t>stun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 이상 저항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffApplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowSkillProjectileVStrong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_TELEPORT</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_INSTANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportShort5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong3</t>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong4</t>
+  </si>
+  <si>
+    <t>BPurpleSkillTeleportLong5</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence3</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence4</t>
+  </si>
+  <si>
+    <t>BPurpleSkillSilence5</t>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenSkillSelfRestoreHP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피회복 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PROJECTILE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_RANGE_TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,19 +991,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>needExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseRotateSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
+    <t xml:space="preserve">  var additionalHP = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMP = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHPRegenAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalHPRegenRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxHpAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxHpRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxMPAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMaxMpRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMPRegenAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMPRegenRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMoveSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalMoveSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalRotateSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalRotateSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalCastSpeedAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalCastSpeedRate = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalDamageAmount = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var additionalDamageRate = 1;</t>
+  </si>
+  <si>
+    <t>SKILL_TYPE_TELEPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_IMMORTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_FREEZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_FROZEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_SILENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_ANTIMAGIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index가 같은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 초기화?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionalHP</t>
+  </si>
+  <si>
+    <t>additionalMP</t>
+  </si>
+  <si>
+    <t>additionalHPRegenAmount</t>
+  </si>
+  <si>
+    <t>additionalHPRegenRate</t>
+  </si>
+  <si>
+    <t>additionalMaxHpAmount</t>
+  </si>
+  <si>
+    <t>additionalMaxHpRate</t>
+  </si>
+  <si>
+    <t>additionalMaxMPAmount</t>
+  </si>
+  <si>
+    <t>additionalMaxMpRate</t>
+  </si>
+  <si>
+    <t>additionalMPRegenAmount</t>
+  </si>
+  <si>
+    <t>additionalMPRegenRate</t>
+  </si>
+  <si>
+    <t>additionalMoveSpeedAmount</t>
+  </si>
+  <si>
+    <t>additionalMoveSpeedRate</t>
+  </si>
+  <si>
+    <t>additionalRotateSpeedAmount</t>
+  </si>
+  <si>
+    <t>additionalRotateSpeedRate</t>
+  </si>
+  <si>
+    <t>additionalCastSpeedAmount</t>
+  </si>
+  <si>
+    <t>additionalCastSpeedRate</t>
+  </si>
+  <si>
+    <t>additionalDamageAmount</t>
+  </si>
+  <si>
+    <t>additionalDamageRate</t>
+  </si>
+  <si>
+    <t>SET_USER_CONDITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_IMUNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONDITION_SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중 효과로 덮어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispelAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispelOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPassive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_EFFECT_DISPEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_EFFECT_SET_CONDITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_EFFECT_ADD_STAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_ADD_EFFECT_TO_BASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispelSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextSkillIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,1128 +1247,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffToSelf1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffToTarget1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffToSelf2</t>
-  </si>
-  <si>
-    <t>buffToSelf3</t>
-  </si>
-  <si>
-    <t>buffToTarget2</t>
-  </si>
-  <si>
-    <t>buffToTarget3</t>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consumeMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffTickTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_SLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_STUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_TICK_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_HEAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToSelf1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToSelf2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToSelf3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToTarget1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToTarget2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffToTarget3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_MOVE_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_CAST_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_TRAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_SILENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TELEPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_DEFENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_WEAK_DEFENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_WEAK_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUFF_WEAK_ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELF_EXPLOSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPEL_SELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPEL_TARGET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_MANA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_SELF_EXPLOSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_IMMOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_INVISIBLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE_SELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PASSIVE_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PURPLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YELLOW or GRAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tick damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frooze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slow or stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>large explosion radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hige damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teleport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong purple?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sweakness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>immotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 주위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 약화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체2(강, 약)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역 범위 지속?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체 지속 ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔레포트(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillBase4</t>
-  </si>
-  <si>
-    <t>RedSkillBase5</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>RedSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>RedSkillRange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillRange2</t>
-  </si>
-  <si>
-    <t>RedSkillRange3</t>
-  </si>
-  <si>
-    <t>RedSkillRange4</t>
-  </si>
-  <si>
-    <t>RedSkillRange5</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillSelfRange2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSkillSelfRange3</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange4</t>
-  </si>
-  <si>
-    <t>RedSkillSelfRange5</t>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillBase1</t>
-  </si>
-  <si>
-    <t>BlueSkillBase2</t>
-  </si>
-  <si>
-    <t>BlueSkillBase3</t>
-  </si>
-  <si>
-    <t>BlueSkillBase4</t>
-  </si>
-  <si>
-    <t>BlueSkillBase5</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak1</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong1</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>BlueSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>BlueSkillRange1</t>
-  </si>
-  <si>
-    <t>BlueSkillRange2</t>
-  </si>
-  <si>
-    <t>BlueSkillRange3</t>
-  </si>
-  <si>
-    <t>BlueSkillRange4</t>
-  </si>
-  <si>
-    <t>BlueSkillRange5</t>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueSkillRangeTick5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillBase1</t>
-  </si>
-  <si>
-    <t>YellowSkillBase2</t>
-  </si>
-  <si>
-    <t>YellowSkillBase3</t>
-  </si>
-  <si>
-    <t>YellowSkillBase4</t>
-  </si>
-  <si>
-    <t>YellowSkillBase5</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak1</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak2</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak3</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak4</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileWeak5</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong1</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong2</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong3</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong4</t>
-  </si>
-  <si>
-    <t>YellowSkillProjectileStrong5</t>
-  </si>
-  <si>
-    <t>YellowSkillRange1</t>
-  </si>
-  <si>
-    <t>YellowSkillRange2</t>
-  </si>
-  <si>
-    <t>YellowSkillRange3</t>
-  </si>
-  <si>
-    <t>YellowSkillRange4</t>
-  </si>
-  <si>
-    <t>YellowSkillRange5</t>
-  </si>
-  <si>
-    <t>tickdamage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickdamage5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freeze3</t>
-  </si>
-  <si>
-    <t>freeze4</t>
-  </si>
-  <si>
-    <t>freeze5</t>
-  </si>
-  <si>
-    <t>stun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 이상 저항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffApplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowSkillProjectileVStrong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_TELEPORT</t>
-  </si>
-  <si>
-    <t>SKILL_TYPE_INSTANT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silence5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportShort5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong3</t>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong4</t>
-  </si>
-  <si>
-    <t>BPurpleSkillTeleportLong5</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence3</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence4</t>
-  </si>
-  <si>
-    <t>BPurpleSkillSilence5</t>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenSkillSelfRestoreHP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피 지속 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 지속 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피회복 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 회복 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PROJECTILE_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_RANGE_TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHP = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMP = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHPRegenAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalHPRegenRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxHpAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxHpRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxMPAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMaxMpRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMPRegenAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMPRegenRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMoveSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalMoveSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalRotateSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalRotateSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalCastSpeedAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalCastSpeedRate = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalDamageAmount = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var additionalDamageRate = 1;</t>
-  </si>
-  <si>
-    <t>SKILL_TYPE_TELEPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PASSIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_IMMORTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_FREEZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_FROZEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_STUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_SILENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_ANTIMAGIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index가 같은 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 초기화?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>additionalHP</t>
-  </si>
-  <si>
-    <t>additionalMP</t>
-  </si>
-  <si>
-    <t>additionalHPRegenAmount</t>
-  </si>
-  <si>
-    <t>additionalHPRegenRate</t>
-  </si>
-  <si>
-    <t>additionalMaxHpAmount</t>
-  </si>
-  <si>
-    <t>additionalMaxHpRate</t>
-  </si>
-  <si>
-    <t>additionalMaxMPAmount</t>
-  </si>
-  <si>
-    <t>additionalMaxMpRate</t>
-  </si>
-  <si>
-    <t>additionalMPRegenAmount</t>
-  </si>
-  <si>
-    <t>additionalMPRegenRate</t>
-  </si>
-  <si>
-    <t>additionalMoveSpeedAmount</t>
-  </si>
-  <si>
-    <t>additionalMoveSpeedRate</t>
-  </si>
-  <si>
-    <t>additionalRotateSpeedAmount</t>
-  </si>
-  <si>
-    <t>additionalRotateSpeedRate</t>
-  </si>
-  <si>
-    <t>additionalCastSpeedAmount</t>
-  </si>
-  <si>
-    <t>additionalCastSpeedRate</t>
-  </si>
-  <si>
-    <t>additionalDamageAmount</t>
-  </si>
-  <si>
-    <t>additionalDamageRate</t>
-  </si>
-  <si>
-    <t>SET_USER_CONDITION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_IMUNE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CONDITION_SLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffEffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나중 효과로 덮어짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉시 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispelAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispelOther</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE_PASSIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPassive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_EFFECT_DISPEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_EFFECT_SET_CONDITION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_EFFECT_ADD_STAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF_ADD_EFFECT_TO_BASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispelSelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coolDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextSkillIndex</t>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minExpCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxExpCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minExpAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxExpAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minSkillCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxSkillCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDropRate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDropRate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDropRate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDropRate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDropRate5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDropRate6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDropRate7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDropRate8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndex9</t>
+  </si>
+  <si>
+    <t>SkillDropRate9</t>
+  </si>
+  <si>
+    <t>SkillIndex10</t>
+  </si>
+  <si>
+    <t>SkillDropRate10</t>
+  </si>
+  <si>
+    <t>SkillIndex11</t>
+  </si>
+  <si>
+    <t>SkillDropRate11</t>
+  </si>
+  <si>
+    <t>SkillIndex12</t>
+  </si>
+  <si>
+    <t>SkillDropRate12</t>
+  </si>
+  <si>
+    <t>SkillIndex13</t>
+  </si>
+  <si>
+    <t>SkillDropRate13</t>
+  </si>
+  <si>
+    <t>SkillIndex14</t>
+  </si>
+  <si>
+    <t>SkillDropRate14</t>
+  </si>
+  <si>
+    <t>SkillIndex15</t>
+  </si>
+  <si>
+    <t>SkillDropRate15</t>
+  </si>
+  <si>
+    <t>SkillIndex16</t>
+  </si>
+  <si>
+    <t>SkillDropRate16</t>
+  </si>
+  <si>
+    <t>SkillIndex17</t>
+  </si>
+  <si>
+    <t>SkillDropRate17</t>
+  </si>
+  <si>
+    <t>SkillIndex18</t>
+  </si>
+  <si>
+    <t>SkillDropRate18</t>
+  </si>
+  <si>
+    <t>SkillIndex19</t>
+  </si>
+  <si>
+    <t>SkillDropRate19</t>
+  </si>
+  <si>
+    <t>SkillIndex20</t>
+  </si>
+  <si>
+    <t>SkillDropRate20</t>
+  </si>
+  <si>
+    <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1634,11 +1774,11 @@
   </sheetPr>
   <dimension ref="A1:AC136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1665,43 +1805,43 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="R1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Y1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -1712,16 +1852,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1730,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -1739,46 +1879,46 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="X2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Y2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Z2" t="s">
         <v>7</v>
@@ -1798,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1848,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1898,7 +2038,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1948,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1998,7 +2138,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2048,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2099,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2150,7 +2290,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2201,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2252,7 +2392,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2303,7 +2443,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2354,7 +2494,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2405,7 +2545,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2456,7 +2596,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2507,7 +2647,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2558,7 +2698,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2600,7 +2740,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2642,7 +2782,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2684,7 +2824,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2726,7 +2866,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2768,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2810,7 +2950,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2852,7 +2992,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2894,7 +3034,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -2936,7 +3076,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2978,7 +3118,7 @@
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3029,7 +3169,7 @@
         <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3080,7 +3220,7 @@
         <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3131,7 +3271,7 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -3182,7 +3322,7 @@
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -3233,7 +3373,7 @@
         <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3284,7 +3424,7 @@
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3335,7 +3475,7 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -3386,7 +3526,7 @@
         <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -3437,7 +3577,7 @@
         <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -3488,7 +3628,7 @@
         <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3522,7 +3662,7 @@
         <v>30</v>
       </c>
       <c r="X38" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Z38">
         <v>30</v>
@@ -3542,7 +3682,7 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3576,7 +3716,7 @@
         <v>35</v>
       </c>
       <c r="X39" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Z39">
         <v>30</v>
@@ -3596,7 +3736,7 @@
         <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -3630,7 +3770,7 @@
         <v>40</v>
       </c>
       <c r="X40" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Z40">
         <v>30</v>
@@ -3650,7 +3790,7 @@
         <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3684,7 +3824,7 @@
         <v>45</v>
       </c>
       <c r="X41" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Z41">
         <v>30</v>
@@ -3704,7 +3844,7 @@
         <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3738,7 +3878,7 @@
         <v>50</v>
       </c>
       <c r="X42" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Z42">
         <v>30</v>
@@ -3758,7 +3898,7 @@
         <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3800,7 +3940,7 @@
         <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3842,7 +3982,7 @@
         <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -3884,7 +4024,7 @@
         <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -3926,7 +4066,7 @@
         <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -3968,7 +4108,7 @@
         <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4010,7 +4150,7 @@
         <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -4052,7 +4192,7 @@
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -4094,7 +4234,7 @@
         <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -4136,7 +4276,7 @@
         <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -4178,7 +4318,7 @@
         <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4229,7 +4369,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -4280,7 +4420,7 @@
         <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4331,7 +4471,7 @@
         <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -4382,7 +4522,7 @@
         <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -4433,7 +4573,7 @@
         <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4484,7 +4624,7 @@
         <v>222</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -4535,7 +4675,7 @@
         <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4586,7 +4726,7 @@
         <v>224</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -4637,7 +4777,7 @@
         <v>225</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -4688,7 +4828,7 @@
         <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4739,7 +4879,7 @@
         <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4790,7 +4930,7 @@
         <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4841,7 +4981,7 @@
         <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -4892,7 +5032,7 @@
         <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -4943,7 +5083,7 @@
         <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4985,7 +5125,7 @@
         <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -5027,7 +5167,7 @@
         <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -5069,7 +5209,7 @@
         <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -5111,7 +5251,7 @@
         <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -5153,7 +5293,7 @@
         <v>251</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5195,7 +5335,7 @@
         <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -5237,7 +5377,7 @@
         <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -5279,7 +5419,7 @@
         <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -5321,7 +5461,7 @@
         <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -5363,13 +5503,13 @@
         <v>301</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E78" s="2">
         <v>300</v>
@@ -5405,13 +5545,13 @@
         <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E79" s="2">
         <v>300</v>
@@ -5447,13 +5587,13 @@
         <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E80" s="2">
         <v>300</v>
@@ -5489,13 +5629,13 @@
         <v>304</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E81" s="2">
         <v>300</v>
@@ -5531,13 +5671,13 @@
         <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E82" s="2">
         <v>300</v>
@@ -5573,13 +5713,13 @@
         <v>311</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E83" s="2">
         <v>310</v>
@@ -5615,13 +5755,13 @@
         <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E84" s="2">
         <v>310</v>
@@ -5657,13 +5797,13 @@
         <v>313</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E85" s="2">
         <v>310</v>
@@ -5699,13 +5839,13 @@
         <v>314</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E86" s="2">
         <v>310</v>
@@ -5741,13 +5881,13 @@
         <v>315</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E87" s="2">
         <v>310</v>
@@ -5785,7 +5925,7 @@
     <row r="92" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D93" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -5799,13 +5939,13 @@
         <v>321</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G100" s="2">
         <v>1500</v>
@@ -5835,13 +5975,13 @@
         <v>322</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G101" s="2">
         <v>1500</v>
@@ -5871,13 +6011,13 @@
         <v>323</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C102" s="2">
         <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G102" s="2">
         <v>1500</v>
@@ -5907,13 +6047,13 @@
         <v>324</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C103" s="2">
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G103" s="2">
         <v>1500</v>
@@ -5943,13 +6083,13 @@
         <v>325</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2">
         <v>5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G104" s="2">
         <v>1500</v>
@@ -6043,27 +6183,27 @@
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6081,7 +6221,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6099,13 +6239,13 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -6114,7 +6254,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -6126,7 +6266,7 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -6841,444 +6981,405 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3">
-    <tabColor theme="0" tint="-0.499984740745262"/>
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:AY5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>41</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>51</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>111</v>
+      </c>
+      <c r="K4" s="2">
+        <v>35</v>
+      </c>
+      <c r="L4">
+        <v>121</v>
+      </c>
+      <c r="M4" s="2">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>131</v>
+      </c>
+      <c r="O4" s="2">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="2">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>151</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>250</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300</v>
       </c>
       <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>211</v>
+      </c>
+      <c r="K5" s="2">
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <v>221</v>
+      </c>
+      <c r="M5" s="2">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>231</v>
+      </c>
+      <c r="O5" s="2">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="2">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="R5">
+        <v>251</v>
+      </c>
+      <c r="S5" s="2">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>600</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>850</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1500</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1900</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2350</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2850</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3400</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>4650</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>5350</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>6100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>6900</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>7750</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>8650</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>-1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7290,7 +7391,7 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7308,40 +7409,40 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -7358,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -7384,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -7407,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H5">
         <v>0.1</v>
@@ -7427,7 +7528,7 @@
         <v>60000</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -7447,7 +7548,7 @@
         <v>60000</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -7467,7 +7568,7 @@
         <v>60000</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>-30</v>
@@ -7476,161 +7577,161 @@
         <v>0.2</v>
       </c>
       <c r="O8" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O9" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="O11" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K12" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="O12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="O13" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="O14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O15" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O16" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
       <c r="O17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="O18" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="O19" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="O20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H21" s="2"/>
       <c r="K21" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L21" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O21" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H22" s="2"/>
       <c r="K22" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="O22" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H23" s="2"/>
       <c r="O23" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O24" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O25" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O26" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="O28" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="8:15" x14ac:dyDescent="0.3">
@@ -7642,25 +7743,25 @@
     <row r="31" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H31" s="2"/>
       <c r="K31" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H32" s="2"/>
       <c r="K32" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H33" s="2"/>
       <c r="K33" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H34" s="2"/>
       <c r="K34" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -7757,260 +7858,260 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Q3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="R3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
         <v>86</v>
       </c>
-      <c r="K4" t="s">
-        <v>94</v>
-      </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="R4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" t="s">
         <v>91</v>
       </c>
-      <c r="J5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" t="s">
-        <v>99</v>
-      </c>
       <c r="O5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="R5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="R7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="S7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="R8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H9">
         <f>SUM(H3:H8)</f>
@@ -8019,186 +8120,186 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N16" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O16" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="R16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H18">
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -8207,27 +8308,27 @@
         <v>4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -8239,10 +8340,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -8250,10 +8351,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -8262,123 +8363,123 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H30">
         <f>SUM(H24:H29)</f>
@@ -8387,315 +8488,315 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F37" s="2"/>
       <c r="I37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
@@ -8736,27 +8837,27 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="2"/>
@@ -15,7 +15,7 @@
     <sheet name="output" sheetId="6" r:id="rId6"/>
     <sheet name="memo" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -6987,7 +6987,7 @@
   <dimension ref="A2:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7341,7 +7341,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>3</v>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -1774,11 +1774,11 @@
   </sheetPr>
   <dimension ref="A1:AC136"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="AA58" sqref="AA58:AA67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2225,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="AB8">
         <v>3000</v>
@@ -2275,8 +2275,8 @@
       <c r="Z9">
         <v>30</v>
       </c>
-      <c r="AA9">
-        <v>10</v>
+      <c r="AA9" s="2">
+        <v>300</v>
       </c>
       <c r="AB9">
         <v>3000</v>
@@ -2326,8 +2326,8 @@
       <c r="Z10">
         <v>30</v>
       </c>
-      <c r="AA10">
-        <v>10</v>
+      <c r="AA10" s="2">
+        <v>300</v>
       </c>
       <c r="AB10">
         <v>3000</v>
@@ -2377,8 +2377,8 @@
       <c r="Z11">
         <v>30</v>
       </c>
-      <c r="AA11">
-        <v>10</v>
+      <c r="AA11" s="2">
+        <v>300</v>
       </c>
       <c r="AB11">
         <v>3000</v>
@@ -2428,8 +2428,8 @@
       <c r="Z12">
         <v>30</v>
       </c>
-      <c r="AA12">
-        <v>10</v>
+      <c r="AA12" s="2">
+        <v>300</v>
       </c>
       <c r="AB12">
         <v>3000</v>
@@ -2479,8 +2479,8 @@
       <c r="Z13">
         <v>30</v>
       </c>
-      <c r="AA13">
-        <v>10</v>
+      <c r="AA13" s="2">
+        <v>300</v>
       </c>
       <c r="AB13">
         <v>3000</v>
@@ -2530,8 +2530,8 @@
       <c r="Z14">
         <v>30</v>
       </c>
-      <c r="AA14">
-        <v>10</v>
+      <c r="AA14" s="2">
+        <v>300</v>
       </c>
       <c r="AB14">
         <v>3000</v>
@@ -2581,8 +2581,8 @@
       <c r="Z15">
         <v>30</v>
       </c>
-      <c r="AA15">
-        <v>10</v>
+      <c r="AA15" s="2">
+        <v>300</v>
       </c>
       <c r="AB15">
         <v>3000</v>
@@ -2632,8 +2632,8 @@
       <c r="Z16">
         <v>30</v>
       </c>
-      <c r="AA16">
-        <v>10</v>
+      <c r="AA16" s="2">
+        <v>300</v>
       </c>
       <c r="AB16">
         <v>3000</v>
@@ -2683,8 +2683,8 @@
       <c r="Z17">
         <v>30</v>
       </c>
-      <c r="AA17">
-        <v>10</v>
+      <c r="AA17" s="2">
+        <v>300</v>
       </c>
       <c r="AB17">
         <v>3000</v>
@@ -3409,8 +3409,8 @@
       <c r="Z33">
         <v>30</v>
       </c>
-      <c r="AA33">
-        <v>10</v>
+      <c r="AA33" s="2">
+        <v>300</v>
       </c>
       <c r="AB33">
         <v>3000</v>
@@ -3460,8 +3460,8 @@
       <c r="Z34">
         <v>30</v>
       </c>
-      <c r="AA34">
-        <v>10</v>
+      <c r="AA34" s="2">
+        <v>300</v>
       </c>
       <c r="AB34">
         <v>3000</v>
@@ -3511,8 +3511,8 @@
       <c r="Z35">
         <v>30</v>
       </c>
-      <c r="AA35">
-        <v>10</v>
+      <c r="AA35" s="2">
+        <v>300</v>
       </c>
       <c r="AB35">
         <v>3000</v>
@@ -3562,8 +3562,8 @@
       <c r="Z36">
         <v>30</v>
       </c>
-      <c r="AA36">
-        <v>10</v>
+      <c r="AA36" s="2">
+        <v>300</v>
       </c>
       <c r="AB36">
         <v>3000</v>
@@ -3613,8 +3613,8 @@
       <c r="Z37">
         <v>30</v>
       </c>
-      <c r="AA37">
-        <v>10</v>
+      <c r="AA37" s="2">
+        <v>300</v>
       </c>
       <c r="AB37">
         <v>3000</v>
@@ -3667,8 +3667,8 @@
       <c r="Z38">
         <v>30</v>
       </c>
-      <c r="AA38">
-        <v>10</v>
+      <c r="AA38" s="2">
+        <v>300</v>
       </c>
       <c r="AB38">
         <v>3000</v>
@@ -3721,8 +3721,8 @@
       <c r="Z39">
         <v>30</v>
       </c>
-      <c r="AA39">
-        <v>10</v>
+      <c r="AA39" s="2">
+        <v>300</v>
       </c>
       <c r="AB39">
         <v>3000</v>
@@ -3775,8 +3775,8 @@
       <c r="Z40">
         <v>30</v>
       </c>
-      <c r="AA40">
-        <v>10</v>
+      <c r="AA40" s="2">
+        <v>300</v>
       </c>
       <c r="AB40">
         <v>3000</v>
@@ -3829,8 +3829,8 @@
       <c r="Z41">
         <v>30</v>
       </c>
-      <c r="AA41">
-        <v>10</v>
+      <c r="AA41" s="2">
+        <v>300</v>
       </c>
       <c r="AB41">
         <v>3000</v>
@@ -3883,8 +3883,8 @@
       <c r="Z42">
         <v>30</v>
       </c>
-      <c r="AA42">
-        <v>10</v>
+      <c r="AA42" s="2">
+        <v>300</v>
       </c>
       <c r="AB42">
         <v>3000</v>
@@ -4609,8 +4609,8 @@
       <c r="Z58">
         <v>30</v>
       </c>
-      <c r="AA58">
-        <v>10</v>
+      <c r="AA58" s="2">
+        <v>300</v>
       </c>
       <c r="AB58">
         <v>3000</v>
@@ -4660,8 +4660,8 @@
       <c r="Z59">
         <v>30</v>
       </c>
-      <c r="AA59">
-        <v>10</v>
+      <c r="AA59" s="2">
+        <v>300</v>
       </c>
       <c r="AB59">
         <v>3000</v>
@@ -4711,8 +4711,8 @@
       <c r="Z60">
         <v>30</v>
       </c>
-      <c r="AA60">
-        <v>10</v>
+      <c r="AA60" s="2">
+        <v>300</v>
       </c>
       <c r="AB60">
         <v>3000</v>
@@ -4762,8 +4762,8 @@
       <c r="Z61">
         <v>30</v>
       </c>
-      <c r="AA61">
-        <v>10</v>
+      <c r="AA61" s="2">
+        <v>300</v>
       </c>
       <c r="AB61">
         <v>3000</v>
@@ -4813,8 +4813,8 @@
       <c r="Z62">
         <v>30</v>
       </c>
-      <c r="AA62">
-        <v>10</v>
+      <c r="AA62" s="2">
+        <v>300</v>
       </c>
       <c r="AB62">
         <v>3000</v>
@@ -4864,8 +4864,8 @@
       <c r="Z63">
         <v>30</v>
       </c>
-      <c r="AA63">
-        <v>10</v>
+      <c r="AA63" s="2">
+        <v>300</v>
       </c>
       <c r="AB63">
         <v>3000</v>
@@ -4915,8 +4915,8 @@
       <c r="Z64">
         <v>30</v>
       </c>
-      <c r="AA64">
-        <v>10</v>
+      <c r="AA64" s="2">
+        <v>300</v>
       </c>
       <c r="AB64">
         <v>3000</v>
@@ -4966,8 +4966,8 @@
       <c r="Z65">
         <v>30</v>
       </c>
-      <c r="AA65">
-        <v>10</v>
+      <c r="AA65" s="2">
+        <v>300</v>
       </c>
       <c r="AB65">
         <v>3000</v>
@@ -5017,8 +5017,8 @@
       <c r="Z66">
         <v>30</v>
       </c>
-      <c r="AA66">
-        <v>10</v>
+      <c r="AA66" s="2">
+        <v>300</v>
       </c>
       <c r="AB66">
         <v>3000</v>
@@ -5068,8 +5068,8 @@
       <c r="Z67">
         <v>30</v>
       </c>
-      <c r="AA67">
-        <v>10</v>
+      <c r="AA67" s="2">
+        <v>300</v>
       </c>
       <c r="AB67">
         <v>3000</v>
@@ -6221,7 +6221,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6286,10 +6286,10 @@
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G3">
         <v>0.5</v>
@@ -6321,10 +6321,10 @@
         <v>1000</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G4" s="2">
         <v>0.5</v>
@@ -6356,10 +6356,10 @@
         <v>1000</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F5" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2">
         <v>0.5</v>
@@ -6391,10 +6391,10 @@
         <v>1000</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2">
         <v>0.5</v>
@@ -6426,10 +6426,10 @@
         <v>1000</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G7" s="2">
         <v>0.5</v>
@@ -6461,10 +6461,10 @@
         <v>1000</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G8" s="2">
         <v>0.5</v>
@@ -6496,10 +6496,10 @@
         <v>1000</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G9" s="2">
         <v>0.5</v>
@@ -6531,10 +6531,10 @@
         <v>1000</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F10" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G10" s="2">
         <v>0.5</v>
@@ -6566,10 +6566,10 @@
         <v>1000</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F11" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G11" s="2">
         <v>0.5</v>
@@ -6601,10 +6601,10 @@
         <v>1000</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G12" s="2">
         <v>0.5</v>
@@ -6636,10 +6636,10 @@
         <v>1000</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F13" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G13" s="2">
         <v>0.5</v>
@@ -6671,10 +6671,10 @@
         <v>1000</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F14" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G14" s="2">
         <v>0.5</v>
@@ -6706,10 +6706,10 @@
         <v>1000</v>
       </c>
       <c r="E15" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F15" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G15" s="2">
         <v>0.5</v>
@@ -6741,10 +6741,10 @@
         <v>1000</v>
       </c>
       <c r="E16" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F16" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G16" s="2">
         <v>0.5</v>
@@ -6776,10 +6776,10 @@
         <v>1000</v>
       </c>
       <c r="E17" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F17" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G17" s="2">
         <v>0.5</v>
@@ -6811,10 +6811,10 @@
         <v>1000</v>
       </c>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F18" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G18" s="2">
         <v>0.5</v>
@@ -6846,10 +6846,10 @@
         <v>1000</v>
       </c>
       <c r="E19" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F19" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G19" s="2">
         <v>0.5</v>
@@ -6881,10 +6881,10 @@
         <v>1000</v>
       </c>
       <c r="E20" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F20" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G20" s="2">
         <v>0.5</v>
@@ -6916,10 +6916,10 @@
         <v>1000</v>
       </c>
       <c r="E21" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F21" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G21" s="2">
         <v>0.5</v>
@@ -6951,10 +6951,10 @@
         <v>1000</v>
       </c>
       <c r="E22" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F22" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="G22" s="2">
         <v>0.5</v>
@@ -6986,8 +6986,8 @@
   </sheetPr>
   <dimension ref="A2:AY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/dataTable/통합 문서1.xlsx
+++ b/dataTable/통합 문서1.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
   <sheets>
-    <sheet name="skill" sheetId="1" r:id="rId1"/>
-    <sheet name="userBase" sheetId="3" r:id="rId2"/>
-    <sheet name="chest" sheetId="8" r:id="rId3"/>
-    <sheet name="buff" sheetId="5" r:id="rId4"/>
-    <sheet name="ref" sheetId="4" r:id="rId5"/>
-    <sheet name="output" sheetId="6" r:id="rId6"/>
-    <sheet name="memo" sheetId="7" r:id="rId7"/>
+    <sheet name="userBase" sheetId="3" r:id="rId1"/>
+    <sheet name="charTypeEffect" sheetId="9" r:id="rId2"/>
+    <sheet name="skill" sheetId="1" r:id="rId3"/>
+    <sheet name="chest" sheetId="8" r:id="rId4"/>
+    <sheet name="buff" sheetId="5" r:id="rId5"/>
+    <sheet name="ref" sheetId="4" r:id="rId6"/>
+    <sheet name="output" sheetId="6" r:id="rId7"/>
+    <sheet name="memo" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="388">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1412,14 +1413,38 @@
   </si>
   <si>
     <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeEffect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeEffect2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeEffect3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,7 +1582,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1592,7 +1616,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1768,20 +1791,4233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A2:Q102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>300</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>200</v>
+      </c>
+      <c r="L4" s="2">
+        <v>300</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>250</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>200</v>
+      </c>
+      <c r="L5" s="2">
+        <v>300</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>400</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>200</v>
+      </c>
+      <c r="L6" s="2">
+        <v>300</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>600</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>200</v>
+      </c>
+      <c r="L7" s="2">
+        <v>300</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>850</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>200</v>
+      </c>
+      <c r="L8" s="2">
+        <v>300</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>200</v>
+      </c>
+      <c r="L9" s="2">
+        <v>300</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>200</v>
+      </c>
+      <c r="L10" s="2">
+        <v>300</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>200</v>
+      </c>
+      <c r="L11" s="2">
+        <v>300</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>200</v>
+      </c>
+      <c r="L12" s="2">
+        <v>300</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2850</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>200</v>
+      </c>
+      <c r="L13" s="2">
+        <v>300</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>200</v>
+      </c>
+      <c r="L14" s="2">
+        <v>300</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>200</v>
+      </c>
+      <c r="L15" s="2">
+        <v>300</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4650</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" s="2">
+        <v>300</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5350</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>200</v>
+      </c>
+      <c r="L17" s="2">
+        <v>300</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>200</v>
+      </c>
+      <c r="L18" s="2">
+        <v>300</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6900</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" s="2">
+        <v>300</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7750</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" s="2">
+        <v>300</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="2">
+        <v>5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8650</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>200</v>
+      </c>
+      <c r="L21" s="2">
+        <v>300</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>100</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" s="2">
+        <v>300</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>200</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="2">
+        <v>200</v>
+      </c>
+      <c r="L23" s="2">
+        <v>300</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>150</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>200</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="2">
+        <v>200</v>
+      </c>
+      <c r="L24" s="2">
+        <v>300</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>250</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>200</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="2">
+        <v>200</v>
+      </c>
+      <c r="L25" s="2">
+        <v>300</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="2">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>400</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>200</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>200</v>
+      </c>
+      <c r="L26" s="2">
+        <v>300</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>600</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>200</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>200</v>
+      </c>
+      <c r="L27" s="2">
+        <v>300</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="2">
+        <v>5</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>850</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>200</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>200</v>
+      </c>
+      <c r="L28" s="2">
+        <v>300</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>200</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>200</v>
+      </c>
+      <c r="L29" s="2">
+        <v>300</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>200</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="2">
+        <v>200</v>
+      </c>
+      <c r="L30" s="2">
+        <v>300</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>200</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="2">
+        <v>200</v>
+      </c>
+      <c r="L31" s="2">
+        <v>300</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>200</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="2">
+        <v>200</v>
+      </c>
+      <c r="L32" s="2">
+        <v>300</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2850</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>200</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="2">
+        <v>200</v>
+      </c>
+      <c r="L33" s="2">
+        <v>300</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="2">
+        <v>5</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
+        <v>200</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="2">
+        <v>200</v>
+      </c>
+      <c r="L34" s="2">
+        <v>300</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="2">
+        <v>5</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>200</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="2">
+        <v>200</v>
+      </c>
+      <c r="L35" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="2">
+        <v>5</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4650</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>200</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="2">
+        <v>200</v>
+      </c>
+      <c r="L36" s="2">
+        <v>300</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="2">
+        <v>5</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5350</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>200</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K37" s="2">
+        <v>200</v>
+      </c>
+      <c r="L37" s="2">
+        <v>300</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="2">
+        <v>5</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>200</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K38" s="2">
+        <v>200</v>
+      </c>
+      <c r="L38" s="2">
+        <v>300</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N38" s="2">
+        <v>5</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6900</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>200</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="2">
+        <v>200</v>
+      </c>
+      <c r="L39" s="2">
+        <v>300</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N39" s="2">
+        <v>5</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>18</v>
+      </c>
+      <c r="C40" s="2">
+        <v>7750</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>200</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="2">
+        <v>200</v>
+      </c>
+      <c r="L40" s="2">
+        <v>300</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N40" s="2">
+        <v>5</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8650</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>200</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="2">
+        <v>200</v>
+      </c>
+      <c r="L41" s="2">
+        <v>300</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="2">
+        <v>5</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>200</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K42" s="2">
+        <v>200</v>
+      </c>
+      <c r="L42" s="2">
+        <v>300</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N42" s="2">
+        <v>5</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>100</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2">
+        <v>300</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="2">
+        <v>200</v>
+      </c>
+      <c r="L43" s="2">
+        <v>300</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N43" s="2">
+        <v>5</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>150</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>300</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="2">
+        <v>200</v>
+      </c>
+      <c r="L44" s="2">
+        <v>300</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N44" s="2">
+        <v>5</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>250</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2">
+        <v>300</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="2">
+        <v>200</v>
+      </c>
+      <c r="L45" s="2">
+        <v>300</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="2">
+        <v>5</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>400</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>300</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>200</v>
+      </c>
+      <c r="L46" s="2">
+        <v>300</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="2">
+        <v>5</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>600</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>300</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="2">
+        <v>200</v>
+      </c>
+      <c r="L47" s="2">
+        <v>300</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N47" s="2">
+        <v>5</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <v>850</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2">
+        <v>300</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="2">
+        <v>200</v>
+      </c>
+      <c r="L48" s="2">
+        <v>300</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N48" s="2">
+        <v>5</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2">
+        <v>300</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="2">
+        <v>200</v>
+      </c>
+      <c r="L49" s="2">
+        <v>300</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N49" s="2">
+        <v>5</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2">
+        <v>300</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K50" s="2">
+        <v>200</v>
+      </c>
+      <c r="L50" s="2">
+        <v>300</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N50" s="2">
+        <v>5</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="I51" s="2">
+        <v>300</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K51" s="2">
+        <v>200</v>
+      </c>
+      <c r="L51" s="2">
+        <v>300</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N51" s="2">
+        <v>5</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
+      <c r="I52" s="2">
+        <v>300</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="2">
+        <v>200</v>
+      </c>
+      <c r="L52" s="2">
+        <v>300</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N52" s="2">
+        <v>5</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>11</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2850</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>300</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K53" s="2">
+        <v>200</v>
+      </c>
+      <c r="L53" s="2">
+        <v>300</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N53" s="2">
+        <v>5</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="I54" s="2">
+        <v>300</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K54" s="2">
+        <v>200</v>
+      </c>
+      <c r="L54" s="2">
+        <v>300</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N54" s="2">
+        <v>5</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>13</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2">
+        <v>300</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K55" s="2">
+        <v>200</v>
+      </c>
+      <c r="L55" s="2">
+        <v>300</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="2">
+        <v>5</v>
+      </c>
+      <c r="O55" s="2">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2">
+        <v>4650</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3</v>
+      </c>
+      <c r="I56" s="2">
+        <v>300</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K56" s="2">
+        <v>200</v>
+      </c>
+      <c r="L56" s="2">
+        <v>300</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N56" s="2">
+        <v>5</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>15</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5350</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3</v>
+      </c>
+      <c r="I57" s="2">
+        <v>300</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="2">
+        <v>200</v>
+      </c>
+      <c r="L57" s="2">
+        <v>300</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N57" s="2">
+        <v>5</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2">
+        <v>300</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="2">
+        <v>200</v>
+      </c>
+      <c r="L58" s="2">
+        <v>300</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N58" s="2">
+        <v>5</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2">
+        <v>6900</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3</v>
+      </c>
+      <c r="I59" s="2">
+        <v>300</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="2">
+        <v>200</v>
+      </c>
+      <c r="L59" s="2">
+        <v>300</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N59" s="2">
+        <v>5</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7750</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3</v>
+      </c>
+      <c r="I60" s="2">
+        <v>300</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="2">
+        <v>200</v>
+      </c>
+      <c r="L60" s="2">
+        <v>300</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="2">
+        <v>5</v>
+      </c>
+      <c r="O60" s="2">
+        <v>1</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2">
+        <v>8650</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="I61" s="2">
+        <v>300</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K61" s="2">
+        <v>200</v>
+      </c>
+      <c r="L61" s="2">
+        <v>300</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N61" s="2">
+        <v>5</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3</v>
+      </c>
+      <c r="I62" s="2">
+        <v>300</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K62" s="2">
+        <v>200</v>
+      </c>
+      <c r="L62" s="2">
+        <v>300</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N62" s="2">
+        <v>5</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4</v>
+      </c>
+      <c r="I63" s="2">
+        <v>400</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K63" s="2">
+        <v>200</v>
+      </c>
+      <c r="L63" s="2">
+        <v>300</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N63" s="2">
+        <v>5</v>
+      </c>
+      <c r="O63" s="2">
+        <v>1</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>150</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4</v>
+      </c>
+      <c r="I64" s="2">
+        <v>400</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K64" s="2">
+        <v>200</v>
+      </c>
+      <c r="L64" s="2">
+        <v>300</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N64" s="2">
+        <v>5</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>250</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4</v>
+      </c>
+      <c r="I65" s="2">
+        <v>400</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K65" s="2">
+        <v>200</v>
+      </c>
+      <c r="L65" s="2">
+        <v>300</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N65" s="2">
+        <v>5</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>400</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4</v>
+      </c>
+      <c r="I66" s="2">
+        <v>400</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="2">
+        <v>200</v>
+      </c>
+      <c r="L66" s="2">
+        <v>300</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N66" s="2">
+        <v>5</v>
+      </c>
+      <c r="O66" s="2">
+        <v>1</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>600</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4</v>
+      </c>
+      <c r="I67" s="2">
+        <v>400</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K67" s="2">
+        <v>200</v>
+      </c>
+      <c r="L67" s="2">
+        <v>300</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N67" s="2">
+        <v>5</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2">
+        <v>850</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4</v>
+      </c>
+      <c r="I68" s="2">
+        <v>400</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K68" s="2">
+        <v>200</v>
+      </c>
+      <c r="L68" s="2">
+        <v>300</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N68" s="2">
+        <v>5</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4</v>
+      </c>
+      <c r="I69" s="2">
+        <v>400</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K69" s="2">
+        <v>200</v>
+      </c>
+      <c r="L69" s="2">
+        <v>300</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N69" s="2">
+        <v>5</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4</v>
+      </c>
+      <c r="I70" s="2">
+        <v>400</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K70" s="2">
+        <v>200</v>
+      </c>
+      <c r="L70" s="2">
+        <v>300</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N70" s="2">
+        <v>5</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4</v>
+      </c>
+      <c r="I71" s="2">
+        <v>400</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K71" s="2">
+        <v>200</v>
+      </c>
+      <c r="L71" s="2">
+        <v>300</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N71" s="2">
+        <v>5</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>10</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4</v>
+      </c>
+      <c r="I72" s="2">
+        <v>400</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K72" s="2">
+        <v>200</v>
+      </c>
+      <c r="L72" s="2">
+        <v>300</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N72" s="2">
+        <v>5</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2850</v>
+      </c>
+      <c r="D73" s="2">
+        <v>4</v>
+      </c>
+      <c r="I73" s="2">
+        <v>400</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K73" s="2">
+        <v>200</v>
+      </c>
+      <c r="L73" s="2">
+        <v>300</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N73" s="2">
+        <v>5</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4</v>
+      </c>
+      <c r="I74" s="2">
+        <v>400</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K74" s="2">
+        <v>200</v>
+      </c>
+      <c r="L74" s="2">
+        <v>300</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N74" s="2">
+        <v>5</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4</v>
+      </c>
+      <c r="I75" s="2">
+        <v>400</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K75" s="2">
+        <v>200</v>
+      </c>
+      <c r="L75" s="2">
+        <v>300</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N75" s="2">
+        <v>5</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4650</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4</v>
+      </c>
+      <c r="I76" s="2">
+        <v>400</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K76" s="2">
+        <v>200</v>
+      </c>
+      <c r="L76" s="2">
+        <v>300</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N76" s="2">
+        <v>5</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>15</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5350</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4</v>
+      </c>
+      <c r="I77" s="2">
+        <v>400</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K77" s="2">
+        <v>200</v>
+      </c>
+      <c r="L77" s="2">
+        <v>300</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N77" s="2">
+        <v>5</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>16</v>
+      </c>
+      <c r="C78" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4</v>
+      </c>
+      <c r="I78" s="2">
+        <v>400</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K78" s="2">
+        <v>200</v>
+      </c>
+      <c r="L78" s="2">
+        <v>300</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N78" s="2">
+        <v>5</v>
+      </c>
+      <c r="O78" s="2">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>17</v>
+      </c>
+      <c r="C79" s="2">
+        <v>6900</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4</v>
+      </c>
+      <c r="I79" s="2">
+        <v>400</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K79" s="2">
+        <v>200</v>
+      </c>
+      <c r="L79" s="2">
+        <v>300</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N79" s="2">
+        <v>5</v>
+      </c>
+      <c r="O79" s="2">
+        <v>1</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2">
+        <v>7750</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4</v>
+      </c>
+      <c r="I80" s="2">
+        <v>400</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K80" s="2">
+        <v>200</v>
+      </c>
+      <c r="L80" s="2">
+        <v>300</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N80" s="2">
+        <v>5</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>19</v>
+      </c>
+      <c r="C81" s="2">
+        <v>8650</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4</v>
+      </c>
+      <c r="I81" s="2">
+        <v>400</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K81" s="2">
+        <v>200</v>
+      </c>
+      <c r="L81" s="2">
+        <v>300</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N81" s="2">
+        <v>5</v>
+      </c>
+      <c r="O81" s="2">
+        <v>1</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>20</v>
+      </c>
+      <c r="C82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4</v>
+      </c>
+      <c r="I82" s="2">
+        <v>400</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K82" s="2">
+        <v>200</v>
+      </c>
+      <c r="L82" s="2">
+        <v>300</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N82" s="2">
+        <v>5</v>
+      </c>
+      <c r="O82" s="2">
+        <v>1</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>100</v>
+      </c>
+      <c r="D83" s="2">
+        <v>5</v>
+      </c>
+      <c r="I83" s="2">
+        <v>500</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K83" s="2">
+        <v>200</v>
+      </c>
+      <c r="L83" s="2">
+        <v>300</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N83" s="2">
+        <v>5</v>
+      </c>
+      <c r="O83" s="2">
+        <v>1</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>150</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5</v>
+      </c>
+      <c r="I84" s="2">
+        <v>500</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K84" s="2">
+        <v>200</v>
+      </c>
+      <c r="L84" s="2">
+        <v>300</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N84" s="2">
+        <v>5</v>
+      </c>
+      <c r="O84" s="2">
+        <v>1</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2">
+        <v>250</v>
+      </c>
+      <c r="D85" s="2">
+        <v>5</v>
+      </c>
+      <c r="I85" s="2">
+        <v>500</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K85" s="2">
+        <v>200</v>
+      </c>
+      <c r="L85" s="2">
+        <v>300</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N85" s="2">
+        <v>5</v>
+      </c>
+      <c r="O85" s="2">
+        <v>1</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2">
+        <v>400</v>
+      </c>
+      <c r="D86" s="2">
+        <v>5</v>
+      </c>
+      <c r="I86" s="2">
+        <v>500</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K86" s="2">
+        <v>200</v>
+      </c>
+      <c r="L86" s="2">
+        <v>300</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N86" s="2">
+        <v>5</v>
+      </c>
+      <c r="O86" s="2">
+        <v>1</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2">
+        <v>600</v>
+      </c>
+      <c r="D87" s="2">
+        <v>5</v>
+      </c>
+      <c r="I87" s="2">
+        <v>500</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K87" s="2">
+        <v>200</v>
+      </c>
+      <c r="L87" s="2">
+        <v>300</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N87" s="2">
+        <v>5</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2">
+        <v>850</v>
+      </c>
+      <c r="D88" s="2">
+        <v>5</v>
+      </c>
+      <c r="I88" s="2">
+        <v>500</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K88" s="2">
+        <v>200</v>
+      </c>
+      <c r="L88" s="2">
+        <v>300</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N88" s="2">
+        <v>5</v>
+      </c>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D89" s="2">
+        <v>5</v>
+      </c>
+      <c r="I89" s="2">
+        <v>500</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K89" s="2">
+        <v>200</v>
+      </c>
+      <c r="L89" s="2">
+        <v>300</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N89" s="2">
+        <v>5</v>
+      </c>
+      <c r="O89" s="2">
+        <v>1</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D90" s="2">
+        <v>5</v>
+      </c>
+      <c r="I90" s="2">
+        <v>500</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K90" s="2">
+        <v>200</v>
+      </c>
+      <c r="L90" s="2">
+        <v>300</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N90" s="2">
+        <v>5</v>
+      </c>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5</v>
+      </c>
+      <c r="I91" s="2">
+        <v>500</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K91" s="2">
+        <v>200</v>
+      </c>
+      <c r="L91" s="2">
+        <v>300</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N91" s="2">
+        <v>5</v>
+      </c>
+      <c r="O91" s="2">
+        <v>1</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D92" s="2">
+        <v>5</v>
+      </c>
+      <c r="I92" s="2">
+        <v>500</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K92" s="2">
+        <v>200</v>
+      </c>
+      <c r="L92" s="2">
+        <v>300</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N92" s="2">
+        <v>5</v>
+      </c>
+      <c r="O92" s="2">
+        <v>1</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>11</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2850</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="I93" s="2">
+        <v>500</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K93" s="2">
+        <v>200</v>
+      </c>
+      <c r="L93" s="2">
+        <v>300</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N93" s="2">
+        <v>5</v>
+      </c>
+      <c r="O93" s="2">
+        <v>1</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>12</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D94" s="2">
+        <v>5</v>
+      </c>
+      <c r="I94" s="2">
+        <v>500</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>200</v>
+      </c>
+      <c r="L94" s="2">
+        <v>300</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N94" s="2">
+        <v>5</v>
+      </c>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5</v>
+      </c>
+      <c r="I95" s="2">
+        <v>500</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K95" s="2">
+        <v>200</v>
+      </c>
+      <c r="L95" s="2">
+        <v>300</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N95" s="2">
+        <v>5</v>
+      </c>
+      <c r="O95" s="2">
+        <v>1</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>14</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4650</v>
+      </c>
+      <c r="D96" s="2">
+        <v>5</v>
+      </c>
+      <c r="I96" s="2">
+        <v>500</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K96" s="2">
+        <v>200</v>
+      </c>
+      <c r="L96" s="2">
+        <v>300</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N96" s="2">
+        <v>5</v>
+      </c>
+      <c r="O96" s="2">
+        <v>1</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>15</v>
+      </c>
+      <c r="C97" s="2">
+        <v>5350</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5</v>
+      </c>
+      <c r="I97" s="2">
+        <v>500</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K97" s="2">
+        <v>200</v>
+      </c>
+      <c r="L97" s="2">
+        <v>300</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N97" s="2">
+        <v>5</v>
+      </c>
+      <c r="O97" s="2">
+        <v>1</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5</v>
+      </c>
+      <c r="I98" s="2">
+        <v>500</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K98" s="2">
+        <v>200</v>
+      </c>
+      <c r="L98" s="2">
+        <v>300</v>
+      </c>
+      <c r="M98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N98" s="2">
+        <v>5</v>
+      </c>
+      <c r="O98" s="2">
+        <v>1</v>
+      </c>
+      <c r="P98" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>17</v>
+      </c>
+      <c r="C99" s="2">
+        <v>6900</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5</v>
+      </c>
+      <c r="I99" s="2">
+        <v>500</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K99" s="2">
+        <v>200</v>
+      </c>
+      <c r="L99" s="2">
+        <v>300</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N99" s="2">
+        <v>5</v>
+      </c>
+      <c r="O99" s="2">
+        <v>1</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>18</v>
+      </c>
+      <c r="C100" s="2">
+        <v>7750</v>
+      </c>
+      <c r="D100" s="2">
+        <v>5</v>
+      </c>
+      <c r="I100" s="2">
+        <v>500</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K100" s="2">
+        <v>200</v>
+      </c>
+      <c r="L100" s="2">
+        <v>300</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N100" s="2">
+        <v>5</v>
+      </c>
+      <c r="O100" s="2">
+        <v>1</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>19</v>
+      </c>
+      <c r="C101" s="2">
+        <v>8650</v>
+      </c>
+      <c r="D101" s="2">
+        <v>5</v>
+      </c>
+      <c r="I101" s="2">
+        <v>500</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K101" s="2">
+        <v>200</v>
+      </c>
+      <c r="L101" s="2">
+        <v>300</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N101" s="2">
+        <v>5</v>
+      </c>
+      <c r="O101" s="2">
+        <v>1</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>20</v>
+      </c>
+      <c r="C102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D102" s="2">
+        <v>5</v>
+      </c>
+      <c r="I102" s="2">
+        <v>500</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K102" s="2">
+        <v>200</v>
+      </c>
+      <c r="L102" s="2">
+        <v>300</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N102" s="2">
+        <v>5</v>
+      </c>
+      <c r="O102" s="2">
+        <v>1</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AC136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P51" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA58" sqref="AA58:AA67"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
@@ -1803,7 +6039,7 @@
     <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="D1" t="s">
         <v>38</v>
       </c>
@@ -1844,7 +6080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +6169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1983,7 +6219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>12</v>
       </c>
@@ -2033,7 +6269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>13</v>
       </c>
@@ -2083,7 +6319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2133,7 +6369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>15</v>
       </c>
@@ -2183,7 +6419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2234,7 +6470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>22</v>
       </c>
@@ -2285,7 +6521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>23</v>
       </c>
@@ -2336,7 +6572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>24</v>
       </c>
@@ -2387,7 +6623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>25</v>
       </c>
@@ -2438,7 +6674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>31</v>
       </c>
@@ -2489,7 +6725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>32</v>
       </c>
@@ -2540,7 +6776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>33</v>
       </c>
@@ -2591,7 +6827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>34</v>
       </c>
@@ -2642,7 +6878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>35</v>
       </c>
@@ -2693,7 +6929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>41</v>
       </c>
@@ -2735,7 +6971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>42</v>
       </c>
@@ -2777,7 +7013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>43</v>
       </c>
@@ -2819,7 +7055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>44</v>
       </c>
@@ -2861,7 +7097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>45</v>
       </c>
@@ -2903,7 +7139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>51</v>
       </c>
@@ -2945,7 +7181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>52</v>
       </c>
@@ -2987,7 +7223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>53</v>
       </c>
@@ -3029,7 +7265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>54</v>
       </c>
@@ -3071,7 +7307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29">
       <c r="A27">
         <v>55</v>
       </c>
@@ -3113,7 +7349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>111</v>
       </c>
@@ -3164,7 +7400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29">
       <c r="A29">
         <v>112</v>
       </c>
@@ -3215,7 +7451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29">
       <c r="A30">
         <v>113</v>
       </c>
@@ -3266,7 +7502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29">
       <c r="A31">
         <v>114</v>
       </c>
@@ -3317,7 +7553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29">
       <c r="A32">
         <v>115</v>
       </c>
@@ -3368,7 +7604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29">
       <c r="A33">
         <v>121</v>
       </c>
@@ -3419,7 +7655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29">
       <c r="A34">
         <v>122</v>
       </c>
@@ -3470,7 +7706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29">
       <c r="A35">
         <v>123</v>
       </c>
@@ -3521,7 +7757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29">
       <c r="A36">
         <v>124</v>
       </c>
@@ -3572,7 +7808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29">
       <c r="A37">
         <v>125</v>
       </c>
@@ -3623,7 +7859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29">
       <c r="A38">
         <v>131</v>
       </c>
@@ -3677,7 +7913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29">
       <c r="A39">
         <v>132</v>
       </c>
@@ -3731,7 +7967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29">
       <c r="A40">
         <v>133</v>
       </c>
@@ -3785,7 +8021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29">
       <c r="A41">
         <v>134</v>
       </c>
@@ -3839,7 +8075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29">
       <c r="A42">
         <v>135</v>
       </c>
@@ -3893,7 +8129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29">
       <c r="A43">
         <v>141</v>
       </c>
@@ -3935,7 +8171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29">
       <c r="A44">
         <v>142</v>
       </c>
@@ -3977,7 +8213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29">
       <c r="A45">
         <v>143</v>
       </c>
@@ -4019,7 +8255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29">
       <c r="A46">
         <v>144</v>
       </c>
@@ -4061,7 +8297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29">
       <c r="A47">
         <v>145</v>
       </c>
@@ -4103,7 +8339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29">
       <c r="A48">
         <v>151</v>
       </c>
@@ -4145,7 +8381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29">
       <c r="A49">
         <v>152</v>
       </c>
@@ -4187,7 +8423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29">
       <c r="A50">
         <v>153</v>
       </c>
@@ -4229,7 +8465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29">
       <c r="A51">
         <v>154</v>
       </c>
@@ -4271,7 +8507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29">
       <c r="A52">
         <v>155</v>
       </c>
@@ -4313,7 +8549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29">
       <c r="A53">
         <v>211</v>
       </c>
@@ -4364,7 +8600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29">
       <c r="A54">
         <v>212</v>
       </c>
@@ -4415,7 +8651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29">
       <c r="A55">
         <v>213</v>
       </c>
@@ -4466,7 +8702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29">
       <c r="A56">
         <v>214</v>
       </c>
@@ -4517,7 +8753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29">
       <c r="A57">
         <v>215</v>
       </c>
@@ -4568,7 +8804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29">
       <c r="A58">
         <v>221</v>
       </c>
@@ -4619,7 +8855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29">
       <c r="A59">
         <v>222</v>
       </c>
@@ -4670,7 +8906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29">
       <c r="A60">
         <v>223</v>
       </c>
@@ -4721,7 +8957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29">
       <c r="A61">
         <v>224</v>
       </c>
@@ -4772,7 +9008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29">
       <c r="A62">
         <v>225</v>
       </c>
@@ -4823,7 +9059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29">
       <c r="A63">
         <v>231</v>
       </c>
@@ -4874,7 +9110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29">
       <c r="A64">
         <v>232</v>
       </c>
@@ -4925,7 +9161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29">
       <c r="A65">
         <v>233</v>
       </c>
@@ -4976,7 +9212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29">
       <c r="A66">
         <v>234</v>
       </c>
@@ -5027,7 +9263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29">
       <c r="A67">
         <v>235</v>
       </c>
@@ -5078,7 +9314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29">
       <c r="A68">
         <v>241</v>
       </c>
@@ -5120,7 +9356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29">
       <c r="A69">
         <v>242</v>
       </c>
@@ -5162,7 +9398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29">
       <c r="A70">
         <v>243</v>
       </c>
@@ -5204,7 +9440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29">
       <c r="A71">
         <v>244</v>
       </c>
@@ -5246,7 +9482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29">
       <c r="A72">
         <v>245</v>
       </c>
@@ -5288,7 +9524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29">
       <c r="A73">
         <v>251</v>
       </c>
@@ -5330,7 +9566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29">
       <c r="A74">
         <v>252</v>
       </c>
@@ -5372,7 +9608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29">
       <c r="A75">
         <v>253</v>
       </c>
@@ -5414,7 +9650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29">
       <c r="A76">
         <v>254</v>
       </c>
@@ -5456,7 +9692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29">
       <c r="A77">
         <v>255</v>
       </c>
@@ -5498,7 +9734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29">
       <c r="A78">
         <v>301</v>
       </c>
@@ -5540,7 +9776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29">
       <c r="A79">
         <v>302</v>
       </c>
@@ -5582,7 +9818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29">
       <c r="A80" s="2">
         <v>303</v>
       </c>
@@ -5624,7 +9860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29">
       <c r="A81" s="2">
         <v>304</v>
       </c>
@@ -5666,7 +9902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29">
       <c r="A82" s="2">
         <v>305</v>
       </c>
@@ -5708,7 +9944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29">
       <c r="A83">
         <v>311</v>
       </c>
@@ -5750,7 +9986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29">
       <c r="A84">
         <v>312</v>
       </c>
@@ -5792,7 +10028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29">
       <c r="A85" s="2">
         <v>313</v>
       </c>
@@ -5834,7 +10070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29">
       <c r="A86" s="2">
         <v>314</v>
       </c>
@@ -5876,7 +10112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29">
       <c r="A87" s="2">
         <v>315</v>
       </c>
@@ -5918,23 +10154,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" s="2" customFormat="1"/>
+    <row r="89" spans="1:29" s="2" customFormat="1"/>
+    <row r="90" spans="1:29" s="2" customFormat="1"/>
+    <row r="91" spans="1:29" s="2" customFormat="1"/>
+    <row r="92" spans="1:29" s="2" customFormat="1"/>
+    <row r="93" spans="1:29" s="2" customFormat="1">
       <c r="D93" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="94" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" s="2" customFormat="1"/>
+    <row r="95" spans="1:29" s="2" customFormat="1"/>
+    <row r="96" spans="1:29" s="2" customFormat="1"/>
+    <row r="97" spans="1:29" s="2" customFormat="1"/>
+    <row r="98" spans="1:29" s="2" customFormat="1"/>
+    <row r="99" spans="1:29" s="2" customFormat="1"/>
+    <row r="100" spans="1:29">
       <c r="A100">
         <v>321</v>
       </c>
@@ -5970,7 +10206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29">
       <c r="A101">
         <v>322</v>
       </c>
@@ -6006,7 +10242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29">
       <c r="A102" s="2">
         <v>323</v>
       </c>
@@ -6042,7 +10278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29">
       <c r="A103" s="2">
         <v>324</v>
       </c>
@@ -6078,7 +10314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29">
       <c r="A104" s="2">
         <v>325</v>
       </c>
@@ -6114,7 +10350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -6126,7 +10362,7 @@
       <c r="M105" s="2"/>
       <c r="AC105" s="2"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -6139,7 +10375,7 @@
       <c r="W106" s="2"/>
       <c r="AC106" s="2"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6153,7 +10389,7 @@
       <c r="W107" s="2"/>
       <c r="AC107" s="2"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6167,7 +10403,7 @@
       <c r="W108" s="2"/>
       <c r="AC108" s="2"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6181,27 +10417,27 @@
       <c r="W109" s="2"/>
       <c r="AC109" s="2"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2">
       <c r="B132" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2">
       <c r="B133" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2">
       <c r="B134" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2">
       <c r="B135" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
         <v>246</v>
       </c>
@@ -6213,774 +10449,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-      <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>150</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>200</v>
-      </c>
-      <c r="F4" s="2">
-        <v>300</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>250</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>200</v>
-      </c>
-      <c r="F5" s="2">
-        <v>300</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>400</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200</v>
-      </c>
-      <c r="F6" s="2">
-        <v>300</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>600</v>
-      </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>200</v>
-      </c>
-      <c r="F7" s="2">
-        <v>300</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>850</v>
-      </c>
-      <c r="C8" s="2">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>200</v>
-      </c>
-      <c r="F8" s="2">
-        <v>300</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1150</v>
-      </c>
-      <c r="C9" s="2">
-        <v>100</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200</v>
-      </c>
-      <c r="F9" s="2">
-        <v>300</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1500</v>
-      </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>200</v>
-      </c>
-      <c r="F10" s="2">
-        <v>300</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1900</v>
-      </c>
-      <c r="C11" s="2">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2">
-        <v>300</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2350</v>
-      </c>
-      <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="2">
-        <v>200</v>
-      </c>
-      <c r="F12" s="2">
-        <v>300</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2850</v>
-      </c>
-      <c r="C13" s="2">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>200</v>
-      </c>
-      <c r="F13" s="2">
-        <v>300</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3400</v>
-      </c>
-      <c r="C14" s="2">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="2">
-        <v>200</v>
-      </c>
-      <c r="F14" s="2">
-        <v>300</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="2">
-        <v>200</v>
-      </c>
-      <c r="F15" s="2">
-        <v>300</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4650</v>
-      </c>
-      <c r="C16" s="2">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="2">
-        <v>200</v>
-      </c>
-      <c r="F16" s="2">
-        <v>300</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5350</v>
-      </c>
-      <c r="C17" s="2">
-        <v>100</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="2">
-        <v>200</v>
-      </c>
-      <c r="F17" s="2">
-        <v>300</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6100</v>
-      </c>
-      <c r="C18" s="2">
-        <v>100</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="2">
-        <v>200</v>
-      </c>
-      <c r="F18" s="2">
-        <v>300</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6900</v>
-      </c>
-      <c r="C19" s="2">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="2">
-        <v>200</v>
-      </c>
-      <c r="F19" s="2">
-        <v>300</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7750</v>
-      </c>
-      <c r="C20" s="2">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="2">
-        <v>200</v>
-      </c>
-      <c r="F20" s="2">
-        <v>300</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>8650</v>
-      </c>
-      <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="2">
-        <v>200</v>
-      </c>
-      <c r="F21" s="2">
-        <v>300</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>100</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="2">
-        <v>200</v>
-      </c>
-      <c r="F22" s="2">
-        <v>300</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
@@ -6990,7 +10460,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
@@ -7045,7 +10515,7 @@
     <col min="51" max="51" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
         <v>333</v>
       </c>
@@ -7200,7 +10670,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7259,7 +10729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7318,7 +10788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7383,18 +10853,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
@@ -7407,7 +10877,7 @@
     <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -7445,7 +10915,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7471,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7497,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7517,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7537,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7557,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7580,17 +11050,17 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="O9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="K10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="K11" t="s">
         <v>324</v>
       </c>
@@ -7598,7 +11068,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="K12" t="s">
         <v>318</v>
       </c>
@@ -7606,7 +11076,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="K13" t="s">
         <v>317</v>
       </c>
@@ -7614,7 +11084,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="K14" t="s">
         <v>329</v>
       </c>
@@ -7622,41 +11092,41 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="O15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="O16" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:15">
       <c r="H17" s="2"/>
       <c r="O17" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:15">
       <c r="H18" s="2"/>
       <c r="O18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:15">
       <c r="H19" s="2"/>
       <c r="O19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:15">
       <c r="H20" s="2"/>
       <c r="O20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:15">
       <c r="H21" s="2"/>
       <c r="K21" t="s">
         <v>313</v>
@@ -7668,7 +11138,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:15">
       <c r="H22" s="2"/>
       <c r="K22" t="s">
         <v>325</v>
@@ -7677,13 +11147,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:15">
       <c r="H23" s="2"/>
       <c r="O23" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:15">
       <c r="H24" s="2"/>
       <c r="K24" s="2" t="s">
         <v>281</v>
@@ -7692,7 +11162,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:15">
       <c r="H25" s="2"/>
       <c r="K25" s="2" t="s">
         <v>282</v>
@@ -7701,7 +11171,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:15">
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
         <v>283</v>
@@ -7713,7 +11183,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:15">
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
         <v>311</v>
@@ -7725,7 +11195,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:15">
       <c r="H28" s="2"/>
       <c r="K28" s="2" t="s">
         <v>310</v>
@@ -7734,31 +11204,31 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:15">
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:15">
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:15">
       <c r="H31" s="2"/>
       <c r="K31" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:15">
       <c r="H32" s="2"/>
       <c r="K32" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:11">
       <c r="H33" s="2"/>
       <c r="K33" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:11">
       <c r="H34" s="2"/>
       <c r="K34" t="s">
         <v>321</v>
@@ -7771,8 +11241,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -7782,24 +11252,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7810,8 +11280,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -7821,15 +11291,15 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S102"/>
   <sheetViews>
@@ -7837,7 +11307,7 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
@@ -7856,7 +11326,7 @@
     <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -7867,7 +11337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -7881,7 +11351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -7919,7 +11389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -7957,7 +11427,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -7992,7 +11462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -8027,7 +11497,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -8068,7 +11538,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -8109,7 +11579,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -8118,7 +11588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -8126,7 +11596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -8134,7 +11604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -8142,7 +11612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -8150,7 +11620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -8164,7 +11634,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -8187,7 +11657,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -8225,7 +11695,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -8251,7 +11721,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -8274,7 +11744,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -8297,7 +11767,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -8323,7 +11793,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -8338,7 +11808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -8349,7 +11819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -8366,7 +11836,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -8380,7 +11850,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -8397,7 +11867,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -8414,7 +11884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -8434,7 +11904,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -8463,7 +11933,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -8477,7 +11947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -8486,7 +11956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>198</v>
       </c>
@@ -8494,7 +11964,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>199</v>
       </c>
@@ -8505,7 +11975,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -8513,7 +11983,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>201</v>
       </c>
@@ -8524,7 +11994,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -8538,7 +12008,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -8552,7 +12022,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -8564,7 +12034,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -8572,7 +12042,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>201</v>
       </c>
@@ -8580,7 +12050,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -8588,7 +12058,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -8596,7 +12066,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -8604,7 +12074,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -8612,7 +12082,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -8620,7 +12090,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -8628,7 +12098,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -8636,7 +12106,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>199</v>
       </c>
@@ -8644,7 +12114,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -8652,7 +12122,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>201</v>
       </c>
@@ -8660,7 +12130,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -8668,7 +12138,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>203</v>
       </c>
@@ -8676,7 +12146,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -8684,178 +12154,178 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1">
       <c r="A102" s="2" t="s">
         <v>226</v>
       </c>
